--- a/QuantLibXL/Data2/XLS/USD/USD_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD/USD_YCSTDBootstrapping.xlsx
@@ -1847,18 +1847,18 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="2" fillId="4" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="2" fillId="4" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Migliaia (0)_AZIONI" xfId="4"/>
@@ -1888,68 +1888,139 @@
     <sheetNames>
       <sheetName val="General Settings"/>
       <sheetName val="Libor"/>
-      <sheetName val="LiborSwapIsdaFixAm"/>
-      <sheetName val="LiborSwapForBasisCalc"/>
-      <sheetName val="LiborSwapIsdaFixPm"/>
+      <sheetName val="Deposits"/>
+      <sheetName val="FRA"/>
+      <sheetName val="Futures3M"/>
+      <sheetName val="FuturesHWConvAdj"/>
+      <sheetName val="OIS"/>
+      <sheetName val="Swaps1M"/>
+      <sheetName val="Swap3M"/>
+      <sheetName val="SwapsIMMDated"/>
       <sheetName val="BasisSwap1MxM"/>
       <sheetName val="BasisSwap3M6M"/>
       <sheetName val="BasisSwapxM12M"/>
-      <sheetName val="Deposits"/>
-      <sheetName val="FRA"/>
-      <sheetName val="Futures1M"/>
-      <sheetName val="Futures3M"/>
-      <sheetName val="ImmFra6M "/>
-      <sheetName val="FuturesHWConvAdj"/>
-      <sheetName val="OIS"/>
-      <sheetName val="Swaps1M"/>
-      <sheetName val="SwapsIMMDated"/>
-      <sheetName val="Swap3M"/>
-      <sheetName val="Swap6M"/>
-      <sheetName val="ON"/>
-      <sheetName val="1M (2)"/>
-      <sheetName val="3M (2)"/>
-      <sheetName val="FwdEONIAOIS"/>
-      <sheetName val="SFIX3"/>
-      <sheetName val="IB365"/>
-      <sheetName val="IBOR"/>
+      <sheetName val="LiborSwapForBasisCalc"/>
       <sheetName val="MxQuotes"/>
       <sheetName val="Swap3M_Mx"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="13">
-          <cell r="D13" t="str">
-            <v>USDSTD#0000</v>
+      <sheetData sheetId="0">
+        <row r="7">
+          <cell r="D7">
+            <v>2394</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
+      <sheetData sheetId="1">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>USDON#0070</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13" t="str">
+            <v>USDSTD#0070</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="5">
+          <cell r="D5" t="str">
+            <v>USDOND_Quote#0078</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="4">
+          <cell r="E4" t="str">
+            <v>Quote Object</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="6">
+          <cell r="F6" t="str">
+            <v>USDFUT3MH5_Quote#0072</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="5">
+          <cell r="C5" t="str">
+            <v>USDHW_Volatility_Quote#0070</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="5">
+          <cell r="F5" t="str">
+            <v>USDOISSW_Quote#0071</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="5">
+          <cell r="F5" t="str">
+            <v>USD2X1S_Quote#0071</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="6">
+          <cell r="F6" t="str">
+            <v>USDAM3L1Y_Quote#0072</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="5">
+          <cell r="E5" t="str">
+            <v>USD1S12_Quote#0071</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="3">
+          <cell r="S3" t="e">
+            <v>#NUM!</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11">
+        <row r="3">
+          <cell r="S3" t="e">
+            <v>#NUM!</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12">
+        <row r="5">
+          <cell r="F5" t="str">
+            <v>USD12L3L6M_Quote#0071</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13">
+        <row r="9">
+          <cell r="F9" t="str">
+            <v>UsdLiborSwapForBasisCalc1Y#0091</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="4">
+          <cell r="D4" t="str">
+            <v>USDOND_Mx_Quote#0071</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="4">
+          <cell r="D4" t="str">
+            <v>USD_CURVE_3M_1Y_Quote#0071</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2755,7 +2826,7 @@
       </c>
       <c r="D14" s="21" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,_xll.ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYCSTD#0007</v>
+        <v>_USDYCSTD#0004</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -3056,15 +3127,15 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="206"/>
-      <c r="L21" s="207" t="s">
+      <c r="K21" s="204"/>
+      <c r="L21" s="205" t="s">
         <v>159</v>
       </c>
-      <c r="M21" s="208" t="b">
+      <c r="M21" s="206" t="b">
         <f>_xll.qlCalendarIsHoliday(LocalCalendar,_xll.qlCalendarAdvance(LiborCalendar,_xll.qlSettingsEvaluationDate(Trigger),2&amp;"D","f",FALSE,Trigger))</f>
         <v>0</v>
       </c>
-      <c r="N21" s="209"/>
+      <c r="N21" s="207"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
@@ -3129,11 +3200,11 @@
       <c r="B23" s="5"/>
       <c r="C23" s="9">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>42032</v>
+        <v>42058</v>
       </c>
       <c r="D23" s="8">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>2.3786437133934357E-2</v>
+        <v>2.6563660086807699E-2</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -3175,11 +3246,11 @@
       <c r="B24" s="5"/>
       <c r="C24" s="7">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>60297</v>
+        <v>60323</v>
       </c>
       <c r="D24" s="6">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>1.6294918077622302E-3</v>
+        <v>1.6920554900146428E-3</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -3256,7 +3327,7 @@
       <c r="B26" s="5"/>
       <c r="C26" s="7" t="str">
         <f>[1]Libor!$D$13</f>
-        <v>USDSTD#0000</v>
+        <v>USDSTD#0070</v>
       </c>
       <c r="D26" s="6" t="b">
         <f>_xll.qlRelinkableHandleLinkTo(C26,YieldCurve)</f>
@@ -4732,7 +4803,7 @@
       </c>
       <c r="C2" s="112" t="str">
         <f>Deposits!J3</f>
-        <v>obj_004da#0002</v>
+        <v>obj_004b0#0003</v>
       </c>
       <c r="D2" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C2)</f>
@@ -4740,7 +4811,7 @@
       </c>
       <c r="E2" s="113">
         <f>_xll.qlRateHelperQuoteValue($C2,Trigger)</f>
-        <v>2.5000000000000001E-3</v>
+        <v>2.8000000000000004E-3</v>
       </c>
       <c r="F2" s="113"/>
       <c r="G2" s="62" t="b">
@@ -4754,11 +4825,11 @@
       </c>
       <c r="J2" s="114">
         <f>_xll.qlRateHelperEarliestDate($C2,Trigger)</f>
-        <v>42032</v>
+        <v>42058</v>
       </c>
       <c r="K2" s="115">
         <f>_xll.qlRateHelperLatestDate($C2,Trigger)</f>
-        <v>42033</v>
+        <v>42059</v>
       </c>
       <c r="L2" s="60">
         <v>10</v>
@@ -4774,7 +4845,7 @@
       </c>
       <c r="C3" s="112" t="str">
         <f>Deposits!J4</f>
-        <v>obj_004d3#0003</v>
+        <v>obj_004af#0003</v>
       </c>
       <c r="D3" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C3)</f>
@@ -4782,7 +4853,7 @@
       </c>
       <c r="E3" s="113">
         <f>_xll.qlRateHelperQuoteValue($C3,Trigger)</f>
-        <v>2.5000000000000001E-3</v>
+        <v>2.8000000000000004E-3</v>
       </c>
       <c r="F3" s="113"/>
       <c r="G3" s="62" t="b">
@@ -4796,11 +4867,11 @@
       </c>
       <c r="J3" s="114">
         <f>_xll.qlRateHelperEarliestDate($C3,Trigger)</f>
-        <v>42033</v>
+        <v>42059</v>
       </c>
       <c r="K3" s="115">
         <f>_xll.qlRateHelperLatestDate($C3,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="L3" s="60">
         <v>40</v>
@@ -4816,7 +4887,7 @@
       </c>
       <c r="C4" s="112" t="str">
         <f>Deposits!J5</f>
-        <v>obj_004d9#0003</v>
+        <v>obj_004b7#0003</v>
       </c>
       <c r="D4" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C4)</f>
@@ -4824,7 +4895,7 @@
       </c>
       <c r="E4" s="113">
         <f>_xll.qlRateHelperQuoteValue($C4,Trigger)</f>
-        <v>2.5000000000000001E-3</v>
+        <v>2.8000000000000004E-3</v>
       </c>
       <c r="F4" s="113"/>
       <c r="G4" s="62" t="b">
@@ -4838,11 +4909,11 @@
       </c>
       <c r="J4" s="114">
         <f>_xll.qlRateHelperEarliestDate($C4,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K4" s="115">
         <f>_xll.qlRateHelperLatestDate($C4,Trigger)</f>
-        <v>42037</v>
+        <v>42061</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4852,7 +4923,7 @@
       </c>
       <c r="C5" s="112" t="str">
         <f>Deposits!J6</f>
-        <v>obj_004d5#0002</v>
+        <v>obj_004b3#0003</v>
       </c>
       <c r="D5" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C5)</f>
@@ -4860,7 +4931,7 @@
       </c>
       <c r="E5" s="113">
         <f>_xll.qlRateHelperQuoteValue($C5,Trigger)</f>
-        <v>1.3669999999999999E-3</v>
+        <v>1.4060000000000001E-3</v>
       </c>
       <c r="F5" s="113"/>
       <c r="G5" s="62" t="b">
@@ -4874,11 +4945,11 @@
       </c>
       <c r="J5" s="114">
         <f>_xll.qlRateHelperEarliestDate($C5,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K5" s="115">
         <f>_xll.qlRateHelperLatestDate($C5,Trigger)</f>
-        <v>42041</v>
+        <v>42067</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4888,7 +4959,7 @@
       </c>
       <c r="C6" s="112" t="str">
         <f>Deposits!J7</f>
-        <v>obj_004dc#0003</v>
+        <v>obj_004b8#0003</v>
       </c>
       <c r="D6" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C6)</f>
@@ -4896,7 +4967,7 @@
       </c>
       <c r="E6" s="113">
         <f>_xll.qlRateHelperQuoteValue($C6,Trigger)</f>
-        <v>1.4796666700000001E-3</v>
+        <v>1.5073333300000002E-3</v>
       </c>
       <c r="F6" s="113"/>
       <c r="G6" s="62" t="b">
@@ -4910,11 +4981,11 @@
       </c>
       <c r="J6" s="114">
         <f>_xll.qlRateHelperEarliestDate($C6,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K6" s="115">
         <f>_xll.qlRateHelperLatestDate($C6,Trigger)</f>
-        <v>42048</v>
+        <v>42074</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4924,7 +4995,7 @@
       </c>
       <c r="C7" s="112" t="str">
         <f>Deposits!J8</f>
-        <v>obj_004de#0003</v>
+        <v>obj_004bb#0003</v>
       </c>
       <c r="D7" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C7)</f>
@@ -4932,7 +5003,7 @@
       </c>
       <c r="E7" s="113">
         <f>_xll.qlRateHelperQuoteValue($C7,Trigger)</f>
-        <v>1.59233333E-3</v>
+        <v>1.6086666700000003E-3</v>
       </c>
       <c r="F7" s="113"/>
       <c r="G7" s="62" t="b">
@@ -4946,11 +5017,11 @@
       </c>
       <c r="J7" s="114">
         <f>_xll.qlRateHelperEarliestDate($C7,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K7" s="115">
         <f>_xll.qlRateHelperLatestDate($C7,Trigger)</f>
-        <v>42055</v>
+        <v>42081</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4960,7 +5031,7 @@
       </c>
       <c r="C8" s="112" t="str">
         <f>Deposits!J9</f>
-        <v>obj_004d4#0002</v>
+        <v>obj_004b1#0003</v>
       </c>
       <c r="D8" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C8)</f>
@@ -4968,7 +5039,7 @@
       </c>
       <c r="E8" s="113">
         <f>_xll.qlRateHelperQuoteValue($C8,Trigger)</f>
-        <v>1.7050000000000001E-3</v>
+        <v>1.7100000000000001E-3</v>
       </c>
       <c r="F8" s="113"/>
       <c r="G8" s="62" t="b">
@@ -4982,11 +5053,11 @@
       </c>
       <c r="J8" s="114">
         <f>_xll.qlRateHelperEarliestDate($C8,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K8" s="115">
         <f>_xll.qlRateHelperLatestDate($C8,Trigger)</f>
-        <v>42062</v>
+        <v>42088</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4996,7 +5067,7 @@
       </c>
       <c r="C9" s="112" t="str">
         <f>Deposits!J10</f>
-        <v>obj_004db#0002</v>
+        <v>obj_004b2#0003</v>
       </c>
       <c r="D9" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C9)</f>
@@ -5004,7 +5075,7 @@
       </c>
       <c r="E9" s="113">
         <f>_xll.qlRateHelperQuoteValue($C9,Trigger)</f>
-        <v>2.1150000000000001E-3</v>
+        <v>2.1300000000000004E-3</v>
       </c>
       <c r="F9" s="113"/>
       <c r="G9" s="62" t="b">
@@ -5018,11 +5089,11 @@
       </c>
       <c r="J9" s="114">
         <f>_xll.qlRateHelperEarliestDate($C9,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K9" s="115">
         <f>_xll.qlRateHelperLatestDate($C9,Trigger)</f>
-        <v>42094</v>
+        <v>42121</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5032,7 +5103,7 @@
       </c>
       <c r="C10" s="112" t="str">
         <f>Deposits!J11</f>
-        <v>obj_004d7#0002</v>
+        <v>obj_004b5#0003</v>
       </c>
       <c r="D10" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C10)</f>
@@ -5040,7 +5111,7 @@
       </c>
       <c r="E10" s="113">
         <f>_xll.qlRateHelperQuoteValue($C10,Trigger)</f>
-        <v>2.5460000000000005E-3</v>
+        <v>2.6159999999999998E-3</v>
       </c>
       <c r="F10" s="113"/>
       <c r="G10" s="62" t="b">
@@ -5054,11 +5125,11 @@
       </c>
       <c r="J10" s="114">
         <f>_xll.qlRateHelperEarliestDate($C10,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K10" s="115">
         <f>_xll.qlRateHelperLatestDate($C10,Trigger)</f>
-        <v>42124</v>
+        <v>42150</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5068,7 +5139,7 @@
       </c>
       <c r="C11" s="112" t="str">
         <f>Deposits!J12</f>
-        <v>obj_004e4#0003</v>
+        <v>obj_004c0#0003</v>
       </c>
       <c r="D11" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C11)</f>
@@ -5076,7 +5147,7 @@
       </c>
       <c r="E11" s="113">
         <f>_xll.qlRateHelperQuoteValue($C11,Trigger)</f>
-        <v>2.8700434799999995E-3</v>
+        <v>3.0218241799999999E-3</v>
       </c>
       <c r="F11" s="113"/>
       <c r="G11" s="62" t="b">
@@ -5090,11 +5161,11 @@
       </c>
       <c r="J11" s="114">
         <f>_xll.qlRateHelperEarliestDate($C11,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K11" s="115">
         <f>_xll.qlRateHelperLatestDate($C11,Trigger)</f>
-        <v>42153</v>
+        <v>42180</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5104,7 +5175,7 @@
       </c>
       <c r="C12" s="112" t="str">
         <f>Deposits!J13</f>
-        <v>obj_004df#0003</v>
+        <v>obj_004bd#0003</v>
       </c>
       <c r="D12" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C12)</f>
@@ -5112,7 +5183,7 @@
       </c>
       <c r="E12" s="113">
         <f>_xll.qlRateHelperQuoteValue($C12,Trigger)</f>
-        <v>3.2276086999999997E-3</v>
+        <v>3.4547033E-3</v>
       </c>
       <c r="F12" s="113"/>
       <c r="G12" s="62" t="b">
@@ -5126,11 +5197,11 @@
       </c>
       <c r="J12" s="114">
         <f>_xll.qlRateHelperEarliestDate($C12,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K12" s="115">
         <f>_xll.qlRateHelperLatestDate($C12,Trigger)</f>
-        <v>42185</v>
+        <v>42212</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5140,7 +5211,7 @@
       </c>
       <c r="C13" s="112" t="str">
         <f>Deposits!J14</f>
-        <v>obj_004d6#0002</v>
+        <v>obj_004b4#0003</v>
       </c>
       <c r="D13" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C13)</f>
@@ -5148,7 +5219,7 @@
       </c>
       <c r="E13" s="113">
         <f>_xll.qlRateHelperQuoteValue($C13,Trigger)</f>
-        <v>3.5739999999999999E-3</v>
+        <v>3.8470000000000006E-3</v>
       </c>
       <c r="F13" s="113"/>
       <c r="G13" s="62" t="b">
@@ -5162,11 +5233,11 @@
       </c>
       <c r="J13" s="114">
         <f>_xll.qlRateHelperEarliestDate($C13,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K13" s="115">
         <f>_xll.qlRateHelperLatestDate($C13,Trigger)</f>
-        <v>42216</v>
+        <v>42241</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5176,7 +5247,7 @@
       </c>
       <c r="C14" s="112" t="str">
         <f>Deposits!J15</f>
-        <v>obj_004dd#0003</v>
+        <v>obj_004b9#0003</v>
       </c>
       <c r="D14" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C14)</f>
@@ -5184,7 +5255,7 @@
       </c>
       <c r="E14" s="113">
         <f>_xll.qlRateHelperQuoteValue($C14,Trigger)</f>
-        <v>4.0177087900000004E-3</v>
+        <v>4.3418206499999997E-3</v>
       </c>
       <c r="F14" s="113"/>
       <c r="G14" s="62" t="b">
@@ -5198,11 +5269,11 @@
       </c>
       <c r="J14" s="114">
         <f>_xll.qlRateHelperEarliestDate($C14,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K14" s="115">
         <f>_xll.qlRateHelperLatestDate($C14,Trigger)</f>
-        <v>42244</v>
+        <v>42272</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5212,7 +5283,7 @@
       </c>
       <c r="C15" s="112" t="str">
         <f>Deposits!J16</f>
-        <v>obj_004e2#0003</v>
+        <v>obj_004ba#0003</v>
       </c>
       <c r="D15" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C15)</f>
@@ -5220,7 +5291,7 @@
       </c>
       <c r="E15" s="113">
         <f>_xll.qlRateHelperQuoteValue($C15,Trigger)</f>
-        <v>4.4471043999999996E-3</v>
+        <v>4.8366413000000006E-3</v>
       </c>
       <c r="F15" s="113"/>
       <c r="G15" s="62" t="b">
@@ -5234,11 +5305,11 @@
       </c>
       <c r="J15" s="114">
         <f>_xll.qlRateHelperEarliestDate($C15,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K15" s="115">
         <f>_xll.qlRateHelperLatestDate($C15,Trigger)</f>
-        <v>42277</v>
+        <v>42303</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5248,7 +5319,7 @@
       </c>
       <c r="C16" s="112" t="str">
         <f>Deposits!J17</f>
-        <v>obj_004e3#0003</v>
+        <v>obj_004bc#0003</v>
       </c>
       <c r="D16" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C16)</f>
@@ -5256,7 +5327,7 @@
       </c>
       <c r="E16" s="113">
         <f>_xll.qlRateHelperQuoteValue($C16,Trigger)</f>
-        <v>4.8765000000000006E-3</v>
+        <v>5.3155000000000008E-3</v>
       </c>
       <c r="F16" s="113"/>
       <c r="G16" s="62" t="b">
@@ -5270,11 +5341,11 @@
       </c>
       <c r="J16" s="114">
         <f>_xll.qlRateHelperEarliestDate($C16,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K16" s="115">
         <f>_xll.qlRateHelperLatestDate($C16,Trigger)</f>
-        <v>42307</v>
+        <v>42333</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5284,7 +5355,7 @@
       </c>
       <c r="C17" s="112" t="str">
         <f>Deposits!J18</f>
-        <v>obj_004e1#0003</v>
+        <v>obj_004bf#0003</v>
       </c>
       <c r="D17" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C17)</f>
@@ -5292,7 +5363,7 @@
       </c>
       <c r="E17" s="113">
         <f>_xll.qlRateHelperQuoteValue($C17,Trigger)</f>
-        <v>5.3202087900000002E-3</v>
+        <v>5.8422445700000002E-3</v>
       </c>
       <c r="F17" s="113"/>
       <c r="G17" s="62" t="b">
@@ -5306,11 +5377,11 @@
       </c>
       <c r="J17" s="114">
         <f>_xll.qlRateHelperEarliestDate($C17,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K17" s="115">
         <f>_xll.qlRateHelperLatestDate($C17,Trigger)</f>
-        <v>42338</v>
+        <v>42367</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5320,7 +5391,7 @@
       </c>
       <c r="C18" s="112" t="str">
         <f>Deposits!J19</f>
-        <v>obj_004e0#0003</v>
+        <v>obj_004be#0003</v>
       </c>
       <c r="D18" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C18)</f>
@@ -5328,7 +5399,7 @@
       </c>
       <c r="E18" s="113">
         <f>_xll.qlRateHelperQuoteValue($C18,Trigger)</f>
-        <v>5.7639175799999998E-3</v>
+        <v>6.2891793500000001E-3</v>
       </c>
       <c r="F18" s="113"/>
       <c r="G18" s="62" t="b">
@@ -5342,11 +5413,11 @@
       </c>
       <c r="J18" s="114">
         <f>_xll.qlRateHelperEarliestDate($C18,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K18" s="115">
         <f>_xll.qlRateHelperLatestDate($C18,Trigger)</f>
-        <v>42369</v>
+        <v>42394</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5356,7 +5427,7 @@
       </c>
       <c r="C19" s="112" t="str">
         <f>Deposits!J20</f>
-        <v>obj_0040f#0002</v>
+        <v>obj_00443#0003</v>
       </c>
       <c r="D19" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C19)</f>
@@ -5364,7 +5435,7 @@
       </c>
       <c r="E19" s="113">
         <f>_xll.qlRateHelperQuoteValue($C19,Trigger)</f>
-        <v>6.1790000000000005E-3</v>
+        <v>6.7840000000000001E-3</v>
       </c>
       <c r="F19" s="113"/>
       <c r="G19" s="62" t="b">
@@ -5378,21 +5449,21 @@
       </c>
       <c r="J19" s="114">
         <f>_xll.qlRateHelperEarliestDate($C19,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K19" s="115">
         <f>_xll.qlRateHelperLatestDate($C19,Trigger)</f>
-        <v>42398</v>
+        <v>42425</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="117" t="str">
         <f>Deposits!B21</f>
-        <v>158D</v>
+        <v>140D</v>
       </c>
       <c r="C20" s="117" t="str">
         <f>Deposits!J21</f>
-        <v>obj_004d8#0003</v>
+        <v>obj_004b6#0003</v>
       </c>
       <c r="D20" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(C20)</f>
@@ -5400,7 +5471,7 @@
       </c>
       <c r="E20" s="118">
         <f>_xll.qlRateHelperQuoteValue($C20,Trigger)</f>
-        <v>4.2467197799999998E-3</v>
+        <v>4.1981630400000003E-3</v>
       </c>
       <c r="F20" s="118"/>
       <c r="G20" s="119" t="b">
@@ -5414,7 +5485,7 @@
       </c>
       <c r="J20" s="120">
         <f>_xll.qlRateHelperEarliestDate($C20,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K20" s="121">
         <f>_xll.qlRateHelperLatestDate($C20,Trigger)</f>
@@ -5427,19 +5498,19 @@
       </c>
       <c r="B21" s="112" t="str">
         <f t="array" ref="B21:B62">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A21:$A62)</f>
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="C21" s="112" t="str">
         <f>Futures!H3</f>
-        <v>obj_004e8#0002</v>
+        <v>obj_004d1#0003</v>
       </c>
       <c r="D21" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C21)</f>
-        <v>USDFUT3MG5_Quote</v>
+        <v>USDFUT3MH5_Quote</v>
       </c>
       <c r="E21" s="123">
         <f>_xll.qlRateHelperQuoteValue($C21,Trigger)</f>
-        <v>99.743750000000006</v>
+        <v>99.72375000000001</v>
       </c>
       <c r="F21" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C21,Trigger)</f>
@@ -5456,11 +5527,11 @@
       </c>
       <c r="J21" s="114">
         <f>_xll.qlRateHelperEarliestDate($C21,Trigger)</f>
-        <v>42053</v>
+        <v>42081</v>
       </c>
       <c r="K21" s="115">
         <f>_xll.qlRateHelperLatestDate($C21,Trigger)</f>
-        <v>42142</v>
+        <v>42173</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5468,19 +5539,19 @@
         <v>0</v>
       </c>
       <c r="B22" s="112" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="C22" s="112" t="str">
         <f>Futures!H4</f>
-        <v>obj_004f9#0002</v>
+        <v>obj_004d8#0003</v>
       </c>
       <c r="D22" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C22)</f>
-        <v>USDFUT3MH5_Quote</v>
+        <v>USDFUT3MJ5_Quote</v>
       </c>
       <c r="E22" s="123">
         <f>_xll.qlRateHelperQuoteValue($C22,Trigger)</f>
-        <v>99.732500000000002</v>
+        <v>99.702500000000001</v>
       </c>
       <c r="F22" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C22,Trigger)</f>
@@ -5497,11 +5568,11 @@
       </c>
       <c r="J22" s="114">
         <f>_xll.qlRateHelperEarliestDate($C22,Trigger)</f>
-        <v>42081</v>
+        <v>42109</v>
       </c>
       <c r="K22" s="115">
         <f>_xll.qlRateHelperLatestDate($C22,Trigger)</f>
-        <v>42173</v>
+        <v>42200</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5509,19 +5580,19 @@
         <v>0</v>
       </c>
       <c r="B23" s="112" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="C23" s="112" t="str">
         <f>Futures!H5</f>
-        <v>obj_004f1#0002</v>
+        <v>obj_004d7#0003</v>
       </c>
       <c r="D23" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C23)</f>
-        <v>USDFUT3MJ5_Quote</v>
+        <v>USDFUT3MK5_Quote</v>
       </c>
       <c r="E23" s="123">
         <f>_xll.qlRateHelperQuoteValue($C23,Trigger)</f>
-        <v>99.717500000000001</v>
+        <v>99.652500000000003</v>
       </c>
       <c r="F23" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C23,Trigger)</f>
@@ -5538,11 +5609,11 @@
       </c>
       <c r="J23" s="114">
         <f>_xll.qlRateHelperEarliestDate($C23,Trigger)</f>
-        <v>42109</v>
+        <v>42144</v>
       </c>
       <c r="K23" s="115">
         <f>_xll.qlRateHelperLatestDate($C23,Trigger)</f>
-        <v>42200</v>
+        <v>42236</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5550,19 +5621,19 @@
         <v>0</v>
       </c>
       <c r="B24" s="112" t="str">
-        <v>K5</v>
+        <v>M5</v>
       </c>
       <c r="C24" s="112" t="str">
         <f>Futures!H6</f>
-        <v>obj_004ea#0002</v>
+        <v>obj_004dc#0003</v>
       </c>
       <c r="D24" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C24)</f>
-        <v>USDFUT3MK5_Quote</v>
+        <v>USDFUT3MM5_Quote</v>
       </c>
       <c r="E24" s="123">
         <f>_xll.qlRateHelperQuoteValue($C24,Trigger)</f>
-        <v>99.675000000000011</v>
+        <v>99.597499999999997</v>
       </c>
       <c r="F24" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C24,Trigger)</f>
@@ -5579,11 +5650,11 @@
       </c>
       <c r="J24" s="114">
         <f>_xll.qlRateHelperEarliestDate($C24,Trigger)</f>
-        <v>42144</v>
+        <v>42172</v>
       </c>
       <c r="K24" s="115">
         <f>_xll.qlRateHelperLatestDate($C24,Trigger)</f>
-        <v>42236</v>
+        <v>42264</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5591,19 +5662,19 @@
         <v>0</v>
       </c>
       <c r="B25" s="112" t="str">
-        <v>M5</v>
+        <v>N5</v>
       </c>
       <c r="C25" s="112" t="str">
         <f>Futures!H7</f>
-        <v>obj_004e7#0002</v>
+        <v>obj_004c1#0003</v>
       </c>
       <c r="D25" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C25)</f>
-        <v>USDFUT3MM5_Quote</v>
+        <v>USDFUT3MN5_Quote</v>
       </c>
       <c r="E25" s="123">
         <f>_xll.qlRateHelperQuoteValue($C25,Trigger)</f>
-        <v>99.632499999999993</v>
+        <v>99.542500000000004</v>
       </c>
       <c r="F25" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C25,Trigger)</f>
@@ -5620,11 +5691,11 @@
       </c>
       <c r="J25" s="114">
         <f>_xll.qlRateHelperEarliestDate($C25,Trigger)</f>
-        <v>42172</v>
+        <v>42200</v>
       </c>
       <c r="K25" s="115">
         <f>_xll.qlRateHelperLatestDate($C25,Trigger)</f>
-        <v>42264</v>
+        <v>42292</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5632,19 +5703,19 @@
         <v>0</v>
       </c>
       <c r="B26" s="112" t="str">
-        <v>N5</v>
+        <v>Q5</v>
       </c>
       <c r="C26" s="112" t="str">
         <f>Futures!H8</f>
-        <v>obj_0050b#0002</v>
+        <v>obj_004c6#0003</v>
       </c>
       <c r="D26" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C26)</f>
-        <v>USDFUT3MN5_Quote</v>
+        <v>USDFUT3MQ5_Quote</v>
       </c>
       <c r="E26" s="123">
         <f>_xll.qlRateHelperQuoteValue($C26,Trigger)</f>
-        <v>99.59</v>
+        <v>99.475000000000009</v>
       </c>
       <c r="F26" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C26,Trigger)</f>
@@ -5661,11 +5732,11 @@
       </c>
       <c r="J26" s="114">
         <f>_xll.qlRateHelperEarliestDate($C26,Trigger)</f>
-        <v>42200</v>
+        <v>42235</v>
       </c>
       <c r="K26" s="115">
         <f>_xll.qlRateHelperLatestDate($C26,Trigger)</f>
-        <v>42292</v>
+        <v>42327</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5673,26 +5744,26 @@
         <v>0</v>
       </c>
       <c r="B27" s="112" t="str">
-        <v>Q5</v>
+        <v>U5</v>
       </c>
       <c r="C27" s="112" t="str">
         <f>Futures!H9</f>
-        <v>obj_004fc#0002</v>
+        <v>obj_004e1#0003</v>
       </c>
       <c r="D27" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C27)</f>
-        <v>USDFUT3MQ5_Quote</v>
-      </c>
-      <c r="E27" s="123" t="e">
+        <v>USDFUT3MU5_Quote</v>
+      </c>
+      <c r="E27" s="123">
         <f>_xll.qlRateHelperQuoteValue($C27,Trigger)</f>
-        <v>#NUM!</v>
+        <v>99.412500000000009</v>
       </c>
       <c r="F27" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C27,Trigger)</f>
-        <v>0</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="G27" s="62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="62">
         <v>60</v>
@@ -5702,11 +5773,11 @@
       </c>
       <c r="J27" s="114">
         <f>_xll.qlRateHelperEarliestDate($C27,Trigger)</f>
-        <v>42235</v>
+        <v>42263</v>
       </c>
       <c r="K27" s="115">
         <f>_xll.qlRateHelperLatestDate($C27,Trigger)</f>
-        <v>42327</v>
+        <v>42354</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5714,23 +5785,23 @@
         <v>0</v>
       </c>
       <c r="B28" s="112" t="str">
-        <v>U5</v>
+        <v>V5</v>
       </c>
       <c r="C28" s="112" t="str">
         <f>Futures!H10</f>
-        <v>obj_00505#0002</v>
+        <v>obj_004cf#0003</v>
       </c>
       <c r="D28" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C28)</f>
-        <v>USDFUT3MU5_Quote</v>
-      </c>
-      <c r="E28" s="123">
+        <v>USDFUT3MV5_Quote</v>
+      </c>
+      <c r="E28" s="123" t="e">
         <f>_xll.qlRateHelperQuoteValue($C28,Trigger)</f>
-        <v>99.477499999999992</v>
+        <v>#NUM!</v>
       </c>
       <c r="F28" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C28,Trigger)</f>
-        <v>4.8999999999999998E-5</v>
+        <v>0</v>
       </c>
       <c r="G28" s="62" t="b">
         <v>1</v>
@@ -5743,11 +5814,11 @@
       </c>
       <c r="J28" s="114">
         <f>_xll.qlRateHelperEarliestDate($C28,Trigger)</f>
-        <v>42263</v>
+        <v>42298</v>
       </c>
       <c r="K28" s="115">
         <f>_xll.qlRateHelperLatestDate($C28,Trigger)</f>
-        <v>42354</v>
+        <v>42390</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5755,15 +5826,15 @@
         <v>0</v>
       </c>
       <c r="B29" s="112" t="str">
-        <v>V5</v>
+        <v>X5</v>
       </c>
       <c r="C29" s="112" t="str">
         <f>Futures!H11</f>
-        <v>obj_00508#0002</v>
+        <v>obj_004df#0003</v>
       </c>
       <c r="D29" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C29)</f>
-        <v>USDFUT3MV5_Quote</v>
+        <v>USDFUT3MX5_Quote</v>
       </c>
       <c r="E29" s="123" t="e">
         <f>_xll.qlRateHelperQuoteValue($C29,Trigger)</f>
@@ -5784,11 +5855,11 @@
       </c>
       <c r="J29" s="114">
         <f>_xll.qlRateHelperEarliestDate($C29,Trigger)</f>
-        <v>42298</v>
+        <v>42326</v>
       </c>
       <c r="K29" s="115">
         <f>_xll.qlRateHelperLatestDate($C29,Trigger)</f>
-        <v>42390</v>
+        <v>42418</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5796,23 +5867,23 @@
         <v>0</v>
       </c>
       <c r="B30" s="112" t="str">
-        <v>X5</v>
+        <v>Z5</v>
       </c>
       <c r="C30" s="112" t="str">
         <f>Futures!H12</f>
-        <v>obj_004ff#0002</v>
+        <v>obj_004d4#0003</v>
       </c>
       <c r="D30" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C30)</f>
-        <v>USDFUT3MX5_Quote</v>
-      </c>
-      <c r="E30" s="123" t="e">
+        <v>USDFUT3MZ5_Quote</v>
+      </c>
+      <c r="E30" s="123">
         <f>_xll.qlRateHelperQuoteValue($C30,Trigger)</f>
-        <v>#NUM!</v>
+        <v>99.1875</v>
       </c>
       <c r="F30" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C30,Trigger)</f>
-        <v>0</v>
+        <v>7.9000000000000009E-5</v>
       </c>
       <c r="G30" s="62" t="b">
         <v>1</v>
@@ -5825,11 +5896,11 @@
       </c>
       <c r="J30" s="114">
         <f>_xll.qlRateHelperEarliestDate($C30,Trigger)</f>
-        <v>42326</v>
+        <v>42354</v>
       </c>
       <c r="K30" s="115">
         <f>_xll.qlRateHelperLatestDate($C30,Trigger)</f>
-        <v>42418</v>
+        <v>42445</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5837,23 +5908,23 @@
         <v>0</v>
       </c>
       <c r="B31" s="112" t="str">
-        <v>Z5</v>
+        <v>F6</v>
       </c>
       <c r="C31" s="112" t="str">
         <f>Futures!H13</f>
-        <v>obj_004f4#0002</v>
+        <v>obj_004e5#0003</v>
       </c>
       <c r="D31" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C31)</f>
-        <v>USDFUT3MZ5_Quote</v>
-      </c>
-      <c r="E31" s="123">
+        <v>USDFUT3MF6_Quote</v>
+      </c>
+      <c r="E31" s="123" t="e">
         <f>_xll.qlRateHelperQuoteValue($C31,Trigger)</f>
-        <v>99.277500000000003</v>
+        <v>#NUM!</v>
       </c>
       <c r="F31" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C31,Trigger)</f>
-        <v>7.9000000000000009E-5</v>
+        <v>0</v>
       </c>
       <c r="G31" s="62" t="b">
         <v>1</v>
@@ -5866,11 +5937,11 @@
       </c>
       <c r="J31" s="114">
         <f>_xll.qlRateHelperEarliestDate($C31,Trigger)</f>
-        <v>42354</v>
+        <v>42389</v>
       </c>
       <c r="K31" s="115">
         <f>_xll.qlRateHelperLatestDate($C31,Trigger)</f>
-        <v>42445</v>
+        <v>42480</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5878,15 +5949,15 @@
         <v>0</v>
       </c>
       <c r="B32" s="112" t="str">
-        <v>F6</v>
+        <v>G6</v>
       </c>
       <c r="C32" s="112" t="str">
         <f>Futures!H14</f>
-        <v>obj_004e6#0002</v>
+        <v>obj_004ca#0003</v>
       </c>
       <c r="D32" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C32)</f>
-        <v>USDFUT3MF6_Quote</v>
+        <v>USDFUT3MG6_Quote</v>
       </c>
       <c r="E32" s="123" t="e">
         <f>_xll.qlRateHelperQuoteValue($C32,Trigger)</f>
@@ -5907,11 +5978,11 @@
       </c>
       <c r="J32" s="114">
         <f>_xll.qlRateHelperEarliestDate($C32,Trigger)</f>
-        <v>42389</v>
+        <v>42417</v>
       </c>
       <c r="K32" s="115">
         <f>_xll.qlRateHelperLatestDate($C32,Trigger)</f>
-        <v>42480</v>
+        <v>42507</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5923,7 +5994,7 @@
       </c>
       <c r="C33" s="112" t="str">
         <f>Futures!H15</f>
-        <v>obj_00509#0002</v>
+        <v>obj_004c9#0003</v>
       </c>
       <c r="D33" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C33)</f>
@@ -5931,7 +6002,7 @@
       </c>
       <c r="E33" s="123">
         <f>_xll.qlRateHelperQuoteValue($C33,Trigger)</f>
-        <v>99.072499999999991</v>
+        <v>98.95750000000001</v>
       </c>
       <c r="F33" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C33,Trigger)</f>
@@ -5964,7 +6035,7 @@
       </c>
       <c r="C34" s="112" t="str">
         <f>Futures!H16</f>
-        <v>obj_00500#0002</v>
+        <v>obj_004d9#0003</v>
       </c>
       <c r="D34" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C34)</f>
@@ -5972,7 +6043,7 @@
       </c>
       <c r="E34" s="123">
         <f>_xll.qlRateHelperQuoteValue($C34,Trigger)</f>
-        <v>98.867500000000007</v>
+        <v>98.732500000000002</v>
       </c>
       <c r="F34" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C34,Trigger)</f>
@@ -6005,7 +6076,7 @@
       </c>
       <c r="C35" s="112" t="str">
         <f>Futures!H17</f>
-        <v>obj_0050d#0002</v>
+        <v>obj_004db#0003</v>
       </c>
       <c r="D35" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C35)</f>
@@ -6013,7 +6084,7 @@
       </c>
       <c r="E35" s="123">
         <f>_xll.qlRateHelperQuoteValue($C35,Trigger)</f>
-        <v>98.675000000000011</v>
+        <v>98.517500000000013</v>
       </c>
       <c r="F35" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C35,Trigger)</f>
@@ -6046,7 +6117,7 @@
       </c>
       <c r="C36" s="112" t="str">
         <f>Futures!H18</f>
-        <v>obj_0050c#0002</v>
+        <v>obj_004d0#0003</v>
       </c>
       <c r="D36" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C36)</f>
@@ -6054,7 +6125,7 @@
       </c>
       <c r="E36" s="123">
         <f>_xll.qlRateHelperQuoteValue($C36,Trigger)</f>
-        <v>98.502499999999998</v>
+        <v>98.322500000000005</v>
       </c>
       <c r="F36" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C36,Trigger)</f>
@@ -6087,7 +6158,7 @@
       </c>
       <c r="C37" s="112" t="str">
         <f>Futures!H19</f>
-        <v>obj_004ec#0002</v>
+        <v>obj_004e9#0003</v>
       </c>
       <c r="D37" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C37)</f>
@@ -6095,7 +6166,7 @@
       </c>
       <c r="E37" s="123">
         <f>_xll.qlRateHelperQuoteValue($C37,Trigger)</f>
-        <v>98.362499999999997</v>
+        <v>98.162500000000009</v>
       </c>
       <c r="F37" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C37,Trigger)</f>
@@ -6128,7 +6199,7 @@
       </c>
       <c r="C38" s="112" t="str">
         <f>Futures!H20</f>
-        <v>obj_004ed#0002</v>
+        <v>obj_004cb#0003</v>
       </c>
       <c r="D38" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C38)</f>
@@ -6136,7 +6207,7 @@
       </c>
       <c r="E38" s="123">
         <f>_xll.qlRateHelperQuoteValue($C38,Trigger)</f>
-        <v>98.232500000000002</v>
+        <v>98.012500000000003</v>
       </c>
       <c r="F38" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C38,Trigger)</f>
@@ -6169,7 +6240,7 @@
       </c>
       <c r="C39" s="112" t="str">
         <f>Futures!H21</f>
-        <v>obj_004fd#0002</v>
+        <v>obj_004ea#0003</v>
       </c>
       <c r="D39" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C39)</f>
@@ -6177,7 +6248,7 @@
       </c>
       <c r="E39" s="123">
         <f>_xll.qlRateHelperQuoteValue($C39,Trigger)</f>
-        <v>98.122500000000002</v>
+        <v>97.887500000000003</v>
       </c>
       <c r="F39" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C39,Trigger)</f>
@@ -6210,7 +6281,7 @@
       </c>
       <c r="C40" s="112" t="str">
         <f>Futures!H22</f>
-        <v>obj_004fa#0002</v>
+        <v>obj_004e3#0003</v>
       </c>
       <c r="D40" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C40)</f>
@@ -6218,7 +6289,7 @@
       </c>
       <c r="E40" s="123">
         <f>_xll.qlRateHelperQuoteValue($C40,Trigger)</f>
-        <v>98.022500000000008</v>
+        <v>97.772500000000008</v>
       </c>
       <c r="F40" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C40,Trigger)</f>
@@ -6251,7 +6322,7 @@
       </c>
       <c r="C41" s="112" t="str">
         <f>Futures!H23</f>
-        <v>obj_0050e#0002</v>
+        <v>obj_004c7#0003</v>
       </c>
       <c r="D41" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C41)</f>
@@ -6259,7 +6330,7 @@
       </c>
       <c r="E41" s="123">
         <f>_xll.qlRateHelperQuoteValue($C41,Trigger)</f>
-        <v>97.952500000000001</v>
+        <v>97.692499999999995</v>
       </c>
       <c r="F41" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C41,Trigger)</f>
@@ -6292,7 +6363,7 @@
       </c>
       <c r="C42" s="112" t="str">
         <f>Futures!H24</f>
-        <v>obj_0050a#0002</v>
+        <v>obj_004cc#0003</v>
       </c>
       <c r="D42" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C42)</f>
@@ -6300,7 +6371,7 @@
       </c>
       <c r="E42" s="123">
         <f>_xll.qlRateHelperQuoteValue($C42,Trigger)</f>
-        <v>97.882499999999993</v>
+        <v>97.612500000000011</v>
       </c>
       <c r="F42" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C42,Trigger)</f>
@@ -6333,7 +6404,7 @@
       </c>
       <c r="C43" s="112" t="str">
         <f>Futures!H25</f>
-        <v>obj_004fe#0002</v>
+        <v>obj_004c4#0003</v>
       </c>
       <c r="D43" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C43)</f>
@@ -6341,7 +6412,7 @@
       </c>
       <c r="E43" s="123">
         <f>_xll.qlRateHelperQuoteValue($C43,Trigger)</f>
-        <v>97.822499999999991</v>
+        <v>97.542500000000004</v>
       </c>
       <c r="F43" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C43,Trigger)</f>
@@ -6374,7 +6445,7 @@
       </c>
       <c r="C44" s="112" t="str">
         <f>Futures!H26</f>
-        <v>obj_004f0#0002</v>
+        <v>obj_004d2#0003</v>
       </c>
       <c r="D44" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C44)</f>
@@ -6382,7 +6453,7 @@
       </c>
       <c r="E44" s="123">
         <f>_xll.qlRateHelperQuoteValue($C44,Trigger)</f>
-        <v>97.762500000000003</v>
+        <v>97.472499999999997</v>
       </c>
       <c r="F44" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C44,Trigger)</f>
@@ -6415,7 +6486,7 @@
       </c>
       <c r="C45" s="112" t="str">
         <f>Futures!H27</f>
-        <v>obj_00503#0002</v>
+        <v>obj_004e6#0003</v>
       </c>
       <c r="D45" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C45)</f>
@@ -6423,7 +6494,7 @@
       </c>
       <c r="E45" s="123">
         <f>_xll.qlRateHelperQuoteValue($C45,Trigger)</f>
-        <v>97.717500000000001</v>
+        <v>97.422500000000014</v>
       </c>
       <c r="F45" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C45,Trigger)</f>
@@ -6456,7 +6527,7 @@
       </c>
       <c r="C46" s="112" t="str">
         <f>Futures!H28</f>
-        <v>obj_004ef#0002</v>
+        <v>obj_004cd#0003</v>
       </c>
       <c r="D46" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C46)</f>
@@ -6464,7 +6535,7 @@
       </c>
       <c r="E46" s="123">
         <f>_xll.qlRateHelperQuoteValue($C46,Trigger)</f>
-        <v>97.667500000000004</v>
+        <v>97.372500000000002</v>
       </c>
       <c r="F46" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C46,Trigger)</f>
@@ -6497,7 +6568,7 @@
       </c>
       <c r="C47" s="112" t="str">
         <f>Futures!H29</f>
-        <v>obj_004f7#0002</v>
+        <v>obj_004ce#0003</v>
       </c>
       <c r="D47" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C47)</f>
@@ -6505,7 +6576,7 @@
       </c>
       <c r="E47" s="123">
         <f>_xll.qlRateHelperQuoteValue($C47,Trigger)</f>
-        <v>97.622500000000002</v>
+        <v>97.322500000000005</v>
       </c>
       <c r="F47" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C47,Trigger)</f>
@@ -6538,7 +6609,7 @@
       </c>
       <c r="C48" s="112" t="str">
         <f>Futures!H30</f>
-        <v>obj_004e5#0002</v>
+        <v>obj_004e7#0003</v>
       </c>
       <c r="D48" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C48)</f>
@@ -6546,7 +6617,7 @@
       </c>
       <c r="E48" s="123">
         <f>_xll.qlRateHelperQuoteValue($C48,Trigger)</f>
-        <v>97.577500000000001</v>
+        <v>97.272500000000008</v>
       </c>
       <c r="F48" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C48,Trigger)</f>
@@ -6579,7 +6650,7 @@
       </c>
       <c r="C49" s="112" t="str">
         <f>Futures!H31</f>
-        <v>obj_00504#0002</v>
+        <v>obj_004c5#0003</v>
       </c>
       <c r="D49" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C49)</f>
@@ -6587,7 +6658,7 @@
       </c>
       <c r="E49" s="123">
         <f>_xll.qlRateHelperQuoteValue($C49,Trigger)</f>
-        <v>97.539999999999992</v>
+        <v>97.235000000000014</v>
       </c>
       <c r="F49" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C49,Trigger)</f>
@@ -6620,7 +6691,7 @@
       </c>
       <c r="C50" s="112" t="str">
         <f>Futures!H32</f>
-        <v>obj_004ee#0002</v>
+        <v>obj_004c2#0003</v>
       </c>
       <c r="D50" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C50)</f>
@@ -6628,7 +6699,7 @@
       </c>
       <c r="E50" s="123">
         <f>_xll.qlRateHelperQuoteValue($C50,Trigger)</f>
-        <v>97.5</v>
+        <v>97.192499999999995</v>
       </c>
       <c r="F50" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C50,Trigger)</f>
@@ -6661,7 +6732,7 @@
       </c>
       <c r="C51" s="112" t="str">
         <f>Futures!H33</f>
-        <v>obj_004f8#0002</v>
+        <v>obj_004d3#0003</v>
       </c>
       <c r="D51" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C51)</f>
@@ -6669,7 +6740,7 @@
       </c>
       <c r="E51" s="123">
         <f>_xll.qlRateHelperQuoteValue($C51,Trigger)</f>
-        <v>97.460000000000008</v>
+        <v>97.152500000000003</v>
       </c>
       <c r="F51" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C51,Trigger)</f>
@@ -6702,7 +6773,7 @@
       </c>
       <c r="C52" s="112" t="str">
         <f>Futures!H34</f>
-        <v>obj_004f5#0002</v>
+        <v>obj_004e2#0003</v>
       </c>
       <c r="D52" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C52)</f>
@@ -6710,7 +6781,7 @@
       </c>
       <c r="E52" s="123">
         <f>_xll.qlRateHelperQuoteValue($C52,Trigger)</f>
-        <v>97.422499999999999</v>
+        <v>97.110000000000014</v>
       </c>
       <c r="F52" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C52,Trigger)</f>
@@ -6743,7 +6814,7 @@
       </c>
       <c r="C53" s="112" t="str">
         <f>Futures!H35</f>
-        <v>obj_00506#0002</v>
+        <v>obj_004d5#0003</v>
       </c>
       <c r="D53" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C53)</f>
@@ -6751,7 +6822,7 @@
       </c>
       <c r="E53" s="123">
         <f>_xll.qlRateHelperQuoteValue($C53,Trigger)</f>
-        <v>97.392500000000013</v>
+        <v>97.087500000000006</v>
       </c>
       <c r="F53" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C53,Trigger)</f>
@@ -6784,7 +6855,7 @@
       </c>
       <c r="C54" s="112" t="str">
         <f>Futures!H36</f>
-        <v>obj_004f2#0002</v>
+        <v>obj_004dd#0003</v>
       </c>
       <c r="D54" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C54)</f>
@@ -6792,7 +6863,7 @@
       </c>
       <c r="E54" s="123">
         <f>_xll.qlRateHelperQuoteValue($C54,Trigger)</f>
-        <v>97.36</v>
+        <v>97.06</v>
       </c>
       <c r="F54" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C54,Trigger)</f>
@@ -6825,7 +6896,7 @@
       </c>
       <c r="C55" s="112" t="str">
         <f>Futures!H37</f>
-        <v>obj_004fb#0002</v>
+        <v>obj_004e4#0003</v>
       </c>
       <c r="D55" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C55)</f>
@@ -6833,7 +6904,7 @@
       </c>
       <c r="E55" s="123">
         <f>_xll.qlRateHelperQuoteValue($C55,Trigger)</f>
-        <v>97.337500000000006</v>
+        <v>97.03</v>
       </c>
       <c r="F55" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C55,Trigger)</f>
@@ -6866,7 +6937,7 @@
       </c>
       <c r="C56" s="112" t="str">
         <f>Futures!H38</f>
-        <v>obj_00502#0002</v>
+        <v>obj_004e8#0003</v>
       </c>
       <c r="D56" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C56)</f>
@@ -6874,7 +6945,7 @@
       </c>
       <c r="E56" s="123">
         <f>_xll.qlRateHelperQuoteValue($C56,Trigger)</f>
-        <v>97.31</v>
+        <v>97.004999999999995</v>
       </c>
       <c r="F56" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C56,Trigger)</f>
@@ -6907,7 +6978,7 @@
       </c>
       <c r="C57" s="112" t="str">
         <f>Futures!H39</f>
-        <v>obj_004f3#0002</v>
+        <v>obj_004e0#0003</v>
       </c>
       <c r="D57" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C57)</f>
@@ -6915,7 +6986,7 @@
       </c>
       <c r="E57" s="123">
         <f>_xll.qlRateHelperQuoteValue($C57,Trigger)</f>
-        <v>97.289999999999992</v>
+        <v>96.992500000000007</v>
       </c>
       <c r="F57" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C57,Trigger)</f>
@@ -6948,7 +7019,7 @@
       </c>
       <c r="C58" s="112" t="str">
         <f>Futures!H40</f>
-        <v>obj_004f6#0002</v>
+        <v>obj_004c3#0003</v>
       </c>
       <c r="D58" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C58)</f>
@@ -6956,7 +7027,7 @@
       </c>
       <c r="E58" s="123">
         <f>_xll.qlRateHelperQuoteValue($C58,Trigger)</f>
-        <v>97.267499999999998</v>
+        <v>96.977500000000006</v>
       </c>
       <c r="F58" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C58,Trigger)</f>
@@ -6989,7 +7060,7 @@
       </c>
       <c r="C59" s="112" t="str">
         <f>Futures!H41</f>
-        <v>obj_00507#0002</v>
+        <v>obj_004da#0003</v>
       </c>
       <c r="D59" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C59)</f>
@@ -6997,7 +7068,7 @@
       </c>
       <c r="E59" s="123">
         <f>_xll.qlRateHelperQuoteValue($C59,Trigger)</f>
-        <v>97.247500000000002</v>
+        <v>96.95750000000001</v>
       </c>
       <c r="F59" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C59,Trigger)</f>
@@ -7030,7 +7101,7 @@
       </c>
       <c r="C60" s="112" t="str">
         <f>Futures!H42</f>
-        <v>obj_004e9#0002</v>
+        <v>obj_004d6#0003</v>
       </c>
       <c r="D60" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C60)</f>
@@ -7038,7 +7109,7 @@
       </c>
       <c r="E60" s="123">
         <f>_xll.qlRateHelperQuoteValue($C60,Trigger)</f>
-        <v>97.22</v>
+        <v>96.932500000000005</v>
       </c>
       <c r="F60" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C60,Trigger)</f>
@@ -7071,7 +7142,7 @@
       </c>
       <c r="C61" s="112" t="str">
         <f>Futures!H43</f>
-        <v>obj_004eb#0002</v>
+        <v>obj_004c8#0003</v>
       </c>
       <c r="D61" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C61)</f>
@@ -7079,7 +7150,7 @@
       </c>
       <c r="E61" s="123">
         <f>_xll.qlRateHelperQuoteValue($C61,Trigger)</f>
-        <v>97.204999999999998</v>
+        <v>96.92</v>
       </c>
       <c r="F61" s="113">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C61,Trigger)</f>
@@ -7112,7 +7183,7 @@
       </c>
       <c r="C62" s="117" t="str">
         <f>Futures!H44</f>
-        <v>obj_00501#0002</v>
+        <v>obj_004de#0003</v>
       </c>
       <c r="D62" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(C62)</f>
@@ -7120,7 +7191,7 @@
       </c>
       <c r="E62" s="124">
         <f>_xll.qlRateHelperQuoteValue($C62,Trigger)</f>
-        <v>97.185000000000002</v>
+        <v>96.89500000000001</v>
       </c>
       <c r="F62" s="118">
         <f>_xll.qlFuturesRateHelperConvexityAdjustment($C62,Trigger)</f>
@@ -7152,7 +7223,7 @@
       </c>
       <c r="C63" s="189" t="str">
         <f>Swaps!K5</f>
-        <v>obj_0047e#0002</v>
+        <v>obj_0044e#0003</v>
       </c>
       <c r="D63" s="189" t="str">
         <f>_xll.qlRateHelperQuoteName(C63)</f>
@@ -7160,7 +7231,7 @@
       </c>
       <c r="E63" s="190">
         <f>_xll.qlRateHelperQuoteValue($C63,Trigger)</f>
-        <v>4.0200000000000001E-3</v>
+        <v>4.81E-3</v>
       </c>
       <c r="F63" s="190">
         <f>_xll.qlSwapRateHelperSpread($C63,Trigger)</f>
@@ -7177,11 +7248,11 @@
       </c>
       <c r="J63" s="192">
         <f>_xll.qlRateHelperEarliestDate($C63,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K63" s="193">
         <f>_xll.qlRateHelperLatestDate($C63,Trigger)</f>
-        <v>42398</v>
+        <v>42425</v>
       </c>
       <c r="M63" s="126"/>
     </row>
@@ -7192,7 +7263,7 @@
       </c>
       <c r="C64" s="112" t="str">
         <f>Swaps!K6</f>
-        <v>obj_0041b#0002</v>
+        <v>obj_00488#0003</v>
       </c>
       <c r="D64" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C64)</f>
@@ -7218,11 +7289,11 @@
       </c>
       <c r="J64" s="114">
         <f>_xll.qlRateHelperEarliestDate($C64,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K64" s="115">
         <f>_xll.qlRateHelperLatestDate($C64,Trigger)</f>
-        <v>42489</v>
+        <v>42515</v>
       </c>
       <c r="M64" s="126"/>
     </row>
@@ -7233,7 +7304,7 @@
       </c>
       <c r="C65" s="112" t="str">
         <f>Swaps!K7</f>
-        <v>obj_00476#0002</v>
+        <v>obj_0046d#0003</v>
       </c>
       <c r="D65" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C65)</f>
@@ -7259,11 +7330,11 @@
       </c>
       <c r="J65" s="114">
         <f>_xll.qlRateHelperEarliestDate($C65,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K65" s="115">
         <f>_xll.qlRateHelperLatestDate($C65,Trigger)</f>
-        <v>42580</v>
+        <v>42607</v>
       </c>
       <c r="M65" s="126"/>
     </row>
@@ -7274,7 +7345,7 @@
       </c>
       <c r="C66" s="112" t="str">
         <f>Swaps!K8</f>
-        <v>obj_00430#0002</v>
+        <v>obj_00474#0003</v>
       </c>
       <c r="D66" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C66)</f>
@@ -7300,11 +7371,11 @@
       </c>
       <c r="J66" s="114">
         <f>_xll.qlRateHelperEarliestDate($C66,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K66" s="115">
         <f>_xll.qlRateHelperLatestDate($C66,Trigger)</f>
-        <v>42674</v>
+        <v>42699</v>
       </c>
       <c r="M66" s="126"/>
     </row>
@@ -7315,7 +7386,7 @@
       </c>
       <c r="C67" s="112" t="str">
         <f>Swaps!K9</f>
-        <v>obj_00449#0002</v>
+        <v>obj_0046b#0003</v>
       </c>
       <c r="D67" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C67)</f>
@@ -7323,7 +7394,7 @@
       </c>
       <c r="E67" s="113">
         <f>_xll.qlRateHelperQuoteValue($C67,Trigger)</f>
-        <v>7.5500000000000003E-3</v>
+        <v>8.9300000000000004E-3</v>
       </c>
       <c r="F67" s="113">
         <f>_xll.qlSwapRateHelperSpread($C67,Trigger)</f>
@@ -7340,11 +7411,11 @@
       </c>
       <c r="J67" s="114">
         <f>_xll.qlRateHelperEarliestDate($C67,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K67" s="115">
         <f>_xll.qlRateHelperLatestDate($C67,Trigger)</f>
-        <v>42765</v>
+        <v>42793</v>
       </c>
       <c r="M67" s="126"/>
     </row>
@@ -7355,7 +7426,7 @@
       </c>
       <c r="C68" s="112" t="str">
         <f>Swaps!K10</f>
-        <v>obj_00481#0002</v>
+        <v>obj_0046e#0003</v>
       </c>
       <c r="D68" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C68)</f>
@@ -7363,7 +7434,7 @@
       </c>
       <c r="E68" s="113">
         <f>_xll.qlRateHelperQuoteValue($C68,Trigger)</f>
-        <v>1.069E-2</v>
+        <v>1.2469999999999998E-2</v>
       </c>
       <c r="F68" s="113">
         <f>_xll.qlSwapRateHelperSpread($C68,Trigger)</f>
@@ -7381,11 +7452,11 @@
       </c>
       <c r="J68" s="114">
         <f>_xll.qlRateHelperEarliestDate($C68,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K68" s="115">
         <f>_xll.qlRateHelperLatestDate($C68,Trigger)</f>
-        <v>43130</v>
+        <v>43157</v>
       </c>
       <c r="M68" s="126"/>
       <c r="O68" s="197"/>
@@ -7397,7 +7468,7 @@
       </c>
       <c r="C69" s="112" t="str">
         <f>Swaps!K11</f>
-        <v>obj_0041a#0002</v>
+        <v>obj_00485#0003</v>
       </c>
       <c r="D69" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C69)</f>
@@ -7405,7 +7476,7 @@
       </c>
       <c r="E69" s="113">
         <f>_xll.qlRateHelperQuoteValue($C69,Trigger)</f>
-        <v>1.306E-2</v>
+        <v>1.5089999999999999E-2</v>
       </c>
       <c r="F69" s="113">
         <f>_xll.qlSwapRateHelperSpread($C69,Trigger)</f>
@@ -7423,11 +7494,11 @@
       </c>
       <c r="J69" s="114">
         <f>_xll.qlRateHelperEarliestDate($C69,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K69" s="115">
         <f>_xll.qlRateHelperLatestDate($C69,Trigger)</f>
-        <v>43495</v>
+        <v>43521</v>
       </c>
       <c r="M69" s="126"/>
       <c r="O69" s="197"/>
@@ -7439,7 +7510,7 @@
       </c>
       <c r="C70" s="112" t="str">
         <f>Swaps!K12</f>
-        <v>obj_00412#0002</v>
+        <v>obj_00481#0003</v>
       </c>
       <c r="D70" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C70)</f>
@@ -7447,7 +7518,7 @@
       </c>
       <c r="E70" s="113">
         <f>_xll.qlRateHelperQuoteValue($C70,Trigger)</f>
-        <v>1.4809999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F70" s="113">
         <f>_xll.qlSwapRateHelperSpread($C70,Trigger)</f>
@@ -7465,11 +7536,11 @@
       </c>
       <c r="J70" s="114">
         <f>_xll.qlRateHelperEarliestDate($C70,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K70" s="115">
         <f>_xll.qlRateHelperLatestDate($C70,Trigger)</f>
-        <v>43860</v>
+        <v>43886</v>
       </c>
       <c r="M70" s="126"/>
       <c r="O70" s="197"/>
@@ -7481,7 +7552,7 @@
       </c>
       <c r="C71" s="112" t="str">
         <f>Swaps!K13</f>
-        <v>obj_0041f#0002</v>
+        <v>obj_00484#0003</v>
       </c>
       <c r="D71" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C71)</f>
@@ -7489,7 +7560,7 @@
       </c>
       <c r="E71" s="113">
         <f>_xll.qlRateHelperQuoteValue($C71,Trigger)</f>
-        <v>1.6120000000000002E-2</v>
+        <v>1.847E-2</v>
       </c>
       <c r="F71" s="113">
         <f>_xll.qlSwapRateHelperSpread($C71,Trigger)</f>
@@ -7507,11 +7578,11 @@
       </c>
       <c r="J71" s="114">
         <f>_xll.qlRateHelperEarliestDate($C71,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K71" s="115">
         <f>_xll.qlRateHelperLatestDate($C71,Trigger)</f>
-        <v>44225</v>
+        <v>44252</v>
       </c>
       <c r="M71" s="126"/>
       <c r="O71" s="197"/>
@@ -7523,7 +7594,7 @@
       </c>
       <c r="C72" s="112" t="str">
         <f>Swaps!K14</f>
-        <v>obj_00417#0002</v>
+        <v>obj_0047e#0003</v>
       </c>
       <c r="D72" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C72)</f>
@@ -7531,7 +7602,7 @@
       </c>
       <c r="E72" s="113">
         <f>_xll.qlRateHelperQuoteValue($C72,Trigger)</f>
-        <v>1.7170000000000001E-2</v>
+        <v>1.9620000000000002E-2</v>
       </c>
       <c r="F72" s="113">
         <f>_xll.qlSwapRateHelperSpread($C72,Trigger)</f>
@@ -7549,11 +7620,11 @@
       </c>
       <c r="J72" s="114">
         <f>_xll.qlRateHelperEarliestDate($C72,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K72" s="115">
         <f>_xll.qlRateHelperLatestDate($C72,Trigger)</f>
-        <v>44592</v>
+        <v>44617</v>
       </c>
       <c r="M72" s="126"/>
       <c r="O72" s="197"/>
@@ -7565,7 +7636,7 @@
       </c>
       <c r="C73" s="112" t="str">
         <f>Swaps!K15</f>
-        <v>obj_00420#0002</v>
+        <v>obj_0045d#0003</v>
       </c>
       <c r="D73" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C73)</f>
@@ -7573,7 +7644,7 @@
       </c>
       <c r="E73" s="113">
         <f>_xll.qlRateHelperQuoteValue($C73,Trigger)</f>
-        <v>1.8010000000000002E-2</v>
+        <v>2.0540000000000003E-2</v>
       </c>
       <c r="F73" s="113">
         <f>_xll.qlSwapRateHelperSpread($C73,Trigger)</f>
@@ -7591,11 +7662,11 @@
       </c>
       <c r="J73" s="114">
         <f>_xll.qlRateHelperEarliestDate($C73,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K73" s="115">
         <f>_xll.qlRateHelperLatestDate($C73,Trigger)</f>
-        <v>44956</v>
+        <v>44984</v>
       </c>
       <c r="M73" s="126"/>
       <c r="O73" s="197"/>
@@ -7607,7 +7678,7 @@
       </c>
       <c r="C74" s="112" t="str">
         <f>Swaps!K16</f>
-        <v>obj_00414#0002</v>
+        <v>obj_00470#0003</v>
       </c>
       <c r="D74" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C74)</f>
@@ -7615,7 +7686,7 @@
       </c>
       <c r="E74" s="113">
         <f>_xll.qlRateHelperQuoteValue($C74,Trigger)</f>
-        <v>1.8730000000000004E-2</v>
+        <v>2.129E-2</v>
       </c>
       <c r="F74" s="113">
         <f>_xll.qlSwapRateHelperSpread($C74,Trigger)</f>
@@ -7633,11 +7704,11 @@
       </c>
       <c r="J74" s="114">
         <f>_xll.qlRateHelperEarliestDate($C74,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K74" s="115">
         <f>_xll.qlRateHelperLatestDate($C74,Trigger)</f>
-        <v>45321</v>
+        <v>45348</v>
       </c>
       <c r="M74" s="126"/>
       <c r="O74" s="197"/>
@@ -7649,7 +7720,7 @@
       </c>
       <c r="C75" s="112" t="str">
         <f>Swaps!K17</f>
-        <v>obj_00442#0002</v>
+        <v>obj_00486#0003</v>
       </c>
       <c r="D75" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C75)</f>
@@ -7657,7 +7728,7 @@
       </c>
       <c r="E75" s="113">
         <f>_xll.qlRateHelperQuoteValue($C75,Trigger)</f>
-        <v>1.933E-2</v>
+        <v>2.1920000000000002E-2</v>
       </c>
       <c r="F75" s="113">
         <f>_xll.qlSwapRateHelperSpread($C75,Trigger)</f>
@@ -7675,11 +7746,11 @@
       </c>
       <c r="J75" s="114">
         <f>_xll.qlRateHelperEarliestDate($C75,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K75" s="115">
         <f>_xll.qlRateHelperLatestDate($C75,Trigger)</f>
-        <v>45687</v>
+        <v>45713</v>
       </c>
       <c r="M75" s="126"/>
       <c r="O75" s="197"/>
@@ -7691,7 +7762,7 @@
       </c>
       <c r="C76" s="112" t="str">
         <f>Swaps!K18</f>
-        <v>obj_00422#0002</v>
+        <v>obj_00450#0003</v>
       </c>
       <c r="D76" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C76)</f>
@@ -7717,11 +7788,11 @@
       </c>
       <c r="J76" s="114">
         <f>_xll.qlRateHelperEarliestDate($C76,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K76" s="115">
         <f>_xll.qlRateHelperLatestDate($C76,Trigger)</f>
-        <v>46052</v>
+        <v>46078</v>
       </c>
       <c r="M76" s="126"/>
       <c r="O76" s="197"/>
@@ -7733,7 +7804,7 @@
       </c>
       <c r="C77" s="112" t="str">
         <f>Swaps!K19</f>
-        <v>obj_00438#0002</v>
+        <v>obj_0047b#0003</v>
       </c>
       <c r="D77" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C77)</f>
@@ -7741,7 +7812,7 @@
       </c>
       <c r="E77" s="113">
         <f>_xll.qlRateHelperQuoteValue($C77,Trigger)</f>
-        <v>2.0279999999999999E-2</v>
+        <v>2.2969999999999997E-2</v>
       </c>
       <c r="F77" s="113">
         <f>_xll.qlSwapRateHelperSpread($C77,Trigger)</f>
@@ -7759,11 +7830,11 @@
       </c>
       <c r="J77" s="114">
         <f>_xll.qlRateHelperEarliestDate($C77,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K77" s="115">
         <f>_xll.qlRateHelperLatestDate($C77,Trigger)</f>
-        <v>46416</v>
+        <v>46443</v>
       </c>
       <c r="M77" s="126"/>
       <c r="O77" s="197"/>
@@ -7775,7 +7846,7 @@
       </c>
       <c r="C78" s="112" t="str">
         <f>Swaps!K20</f>
-        <v>obj_0045e#0002</v>
+        <v>obj_00477#0003</v>
       </c>
       <c r="D78" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C78)</f>
@@ -7801,11 +7872,11 @@
       </c>
       <c r="J78" s="114">
         <f>_xll.qlRateHelperEarliestDate($C78,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K78" s="115">
         <f>_xll.qlRateHelperLatestDate($C78,Trigger)</f>
-        <v>46783</v>
+        <v>46808</v>
       </c>
       <c r="M78" s="126"/>
       <c r="O78" s="197"/>
@@ -7817,7 +7888,7 @@
       </c>
       <c r="C79" s="112" t="str">
         <f>Swaps!K21</f>
-        <v>obj_00469#0002</v>
+        <v>obj_0047a#0003</v>
       </c>
       <c r="D79" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C79)</f>
@@ -7843,11 +7914,11 @@
       </c>
       <c r="J79" s="114">
         <f>_xll.qlRateHelperEarliestDate($C79,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K79" s="115">
         <f>_xll.qlRateHelperLatestDate($C79,Trigger)</f>
-        <v>47148</v>
+        <v>47175</v>
       </c>
       <c r="M79" s="126"/>
       <c r="O79" s="197"/>
@@ -7859,7 +7930,7 @@
       </c>
       <c r="C80" s="112" t="str">
         <f>Swaps!K22</f>
-        <v>obj_00431#0002</v>
+        <v>obj_00475#0003</v>
       </c>
       <c r="D80" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C80)</f>
@@ -7867,7 +7938,7 @@
       </c>
       <c r="E80" s="113">
         <f>_xll.qlRateHelperQuoteValue($C80,Trigger)</f>
-        <v>2.1269999999999997E-2</v>
+        <v>2.402E-2</v>
       </c>
       <c r="F80" s="113">
         <f>_xll.qlSwapRateHelperSpread($C80,Trigger)</f>
@@ -7885,11 +7956,11 @@
       </c>
       <c r="J80" s="114">
         <f>_xll.qlRateHelperEarliestDate($C80,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K80" s="115">
         <f>_xll.qlRateHelperLatestDate($C80,Trigger)</f>
-        <v>47513</v>
+        <v>47539</v>
       </c>
       <c r="M80" s="126"/>
       <c r="O80" s="197"/>
@@ -7901,7 +7972,7 @@
       </c>
       <c r="C81" s="112" t="str">
         <f>Swaps!K23</f>
-        <v>obj_0046a#0002</v>
+        <v>obj_00476#0003</v>
       </c>
       <c r="D81" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C81)</f>
@@ -7927,11 +7998,11 @@
       </c>
       <c r="J81" s="114">
         <f>_xll.qlRateHelperEarliestDate($C81,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K81" s="115">
         <f>_xll.qlRateHelperLatestDate($C81,Trigger)</f>
-        <v>47878</v>
+        <v>47904</v>
       </c>
       <c r="M81" s="126"/>
       <c r="O81" s="197"/>
@@ -7943,7 +8014,7 @@
       </c>
       <c r="C82" s="112" t="str">
         <f>Swaps!K24</f>
-        <v>obj_0047f#0002</v>
+        <v>obj_00478#0003</v>
       </c>
       <c r="D82" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C82)</f>
@@ -7969,11 +8040,11 @@
       </c>
       <c r="J82" s="114">
         <f>_xll.qlRateHelperEarliestDate($C82,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K82" s="115">
         <f>_xll.qlRateHelperLatestDate($C82,Trigger)</f>
-        <v>48243</v>
+        <v>48269</v>
       </c>
       <c r="M82" s="126"/>
       <c r="O82" s="197"/>
@@ -7985,7 +8056,7 @@
       </c>
       <c r="C83" s="112" t="str">
         <f>Swaps!K25</f>
-        <v>obj_00460#0002</v>
+        <v>obj_0047c#0003</v>
       </c>
       <c r="D83" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C83)</f>
@@ -8011,11 +8082,11 @@
       </c>
       <c r="J83" s="114">
         <f>_xll.qlRateHelperEarliestDate($C83,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K83" s="115">
         <f>_xll.qlRateHelperLatestDate($C83,Trigger)</f>
-        <v>48610</v>
+        <v>48635</v>
       </c>
       <c r="M83" s="126"/>
       <c r="O83" s="197"/>
@@ -8027,7 +8098,7 @@
       </c>
       <c r="C84" s="112" t="str">
         <f>Swaps!K26</f>
-        <v>obj_0044e#0002</v>
+        <v>obj_0045f#0003</v>
       </c>
       <c r="D84" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C84)</f>
@@ -8053,11 +8124,11 @@
       </c>
       <c r="J84" s="114">
         <f>_xll.qlRateHelperEarliestDate($C84,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K84" s="115">
         <f>_xll.qlRateHelperLatestDate($C84,Trigger)</f>
-        <v>48974</v>
+        <v>49002</v>
       </c>
       <c r="M84" s="126"/>
       <c r="O84" s="197"/>
@@ -8069,7 +8140,7 @@
       </c>
       <c r="C85" s="112" t="str">
         <f>Swaps!K27</f>
-        <v>obj_00416#0002</v>
+        <v>obj_00472#0003</v>
       </c>
       <c r="D85" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C85)</f>
@@ -8077,7 +8148,7 @@
       </c>
       <c r="E85" s="113">
         <f>_xll.qlRateHelperQuoteValue($C85,Trigger)</f>
-        <v>2.2240000000000003E-2</v>
+        <v>2.4990000000000002E-2</v>
       </c>
       <c r="F85" s="113">
         <f>_xll.qlSwapRateHelperSpread($C85,Trigger)</f>
@@ -8095,11 +8166,11 @@
       </c>
       <c r="J85" s="114">
         <f>_xll.qlRateHelperEarliestDate($C85,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K85" s="115">
         <f>_xll.qlRateHelperLatestDate($C85,Trigger)</f>
-        <v>49339</v>
+        <v>49366</v>
       </c>
       <c r="M85" s="126"/>
       <c r="O85" s="197"/>
@@ -8111,7 +8182,7 @@
       </c>
       <c r="C86" s="112" t="str">
         <f>Swaps!K28</f>
-        <v>obj_00475#0002</v>
+        <v>obj_00460#0003</v>
       </c>
       <c r="D86" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C86)</f>
@@ -8137,11 +8208,11 @@
       </c>
       <c r="J86" s="114">
         <f>_xll.qlRateHelperEarliestDate($C86,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K86" s="115">
         <f>_xll.qlRateHelperLatestDate($C86,Trigger)</f>
-        <v>49704</v>
+        <v>49730</v>
       </c>
       <c r="M86" s="126"/>
       <c r="O86" s="197"/>
@@ -8153,7 +8224,7 @@
       </c>
       <c r="C87" s="112" t="str">
         <f>Swaps!K29</f>
-        <v>obj_00411#0002</v>
+        <v>obj_00471#0003</v>
       </c>
       <c r="D87" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C87)</f>
@@ -8179,11 +8250,11 @@
       </c>
       <c r="J87" s="114">
         <f>_xll.qlRateHelperEarliestDate($C87,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K87" s="115">
         <f>_xll.qlRateHelperLatestDate($C87,Trigger)</f>
-        <v>50070</v>
+        <v>50096</v>
       </c>
       <c r="M87" s="126"/>
       <c r="O87" s="197"/>
@@ -8195,7 +8266,7 @@
       </c>
       <c r="C88" s="112" t="str">
         <f>Swaps!K30</f>
-        <v>obj_00415#0002</v>
+        <v>obj_00483#0003</v>
       </c>
       <c r="D88" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C88)</f>
@@ -8221,11 +8292,11 @@
       </c>
       <c r="J88" s="114">
         <f>_xll.qlRateHelperEarliestDate($C88,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K88" s="115">
         <f>_xll.qlRateHelperLatestDate($C88,Trigger)</f>
-        <v>50434</v>
+        <v>50461</v>
       </c>
       <c r="M88" s="126"/>
       <c r="O88" s="197"/>
@@ -8237,7 +8308,7 @@
       </c>
       <c r="C89" s="112" t="str">
         <f>Swaps!K31</f>
-        <v>obj_00465#0002</v>
+        <v>obj_00487#0003</v>
       </c>
       <c r="D89" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C89)</f>
@@ -8263,11 +8334,11 @@
       </c>
       <c r="J89" s="114">
         <f>_xll.qlRateHelperEarliestDate($C89,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K89" s="115">
         <f>_xll.qlRateHelperLatestDate($C89,Trigger)</f>
-        <v>50801</v>
+        <v>50826</v>
       </c>
       <c r="M89" s="126"/>
       <c r="O89" s="197"/>
@@ -8279,7 +8350,7 @@
       </c>
       <c r="C90" s="112" t="str">
         <f>Swaps!K32</f>
-        <v>obj_00454#0002</v>
+        <v>obj_00480#0003</v>
       </c>
       <c r="D90" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C90)</f>
@@ -8287,7 +8358,7 @@
       </c>
       <c r="E90" s="113">
         <f>_xll.qlRateHelperQuoteValue($C90,Trigger)</f>
-        <v>2.2679999999999999E-2</v>
+        <v>2.5419999999999998E-2</v>
       </c>
       <c r="F90" s="113">
         <f>_xll.qlSwapRateHelperSpread($C90,Trigger)</f>
@@ -8305,11 +8376,11 @@
       </c>
       <c r="J90" s="114">
         <f>_xll.qlRateHelperEarliestDate($C90,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K90" s="115">
         <f>_xll.qlRateHelperLatestDate($C90,Trigger)</f>
-        <v>51165</v>
+        <v>51193</v>
       </c>
       <c r="M90" s="126"/>
       <c r="O90" s="197"/>
@@ -8321,7 +8392,7 @@
       </c>
       <c r="C91" s="112" t="str">
         <f>Swaps!K33</f>
-        <v>obj_0042f#0002</v>
+        <v>obj_00473#0003</v>
       </c>
       <c r="D91" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C91)</f>
@@ -8347,11 +8418,11 @@
       </c>
       <c r="J91" s="114">
         <f>_xll.qlRateHelperEarliestDate($C91,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K91" s="115">
         <f>_xll.qlRateHelperLatestDate($C91,Trigger)</f>
-        <v>51531</v>
+        <v>51557</v>
       </c>
       <c r="M91" s="126"/>
       <c r="O91" s="197"/>
@@ -8363,7 +8434,7 @@
       </c>
       <c r="C92" s="112" t="str">
         <f>Swaps!K34</f>
-        <v>obj_0041d#0002</v>
+        <v>obj_0047f#0003</v>
       </c>
       <c r="D92" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C92)</f>
@@ -8389,11 +8460,11 @@
       </c>
       <c r="J92" s="114">
         <f>_xll.qlRateHelperEarliestDate($C92,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K92" s="115">
         <f>_xll.qlRateHelperLatestDate($C92,Trigger)</f>
-        <v>51896</v>
+        <v>51922</v>
       </c>
       <c r="M92" s="126"/>
       <c r="O92" s="197"/>
@@ -8405,7 +8476,7 @@
       </c>
       <c r="C93" s="112" t="str">
         <f>Swaps!K35</f>
-        <v>obj_0042e#0002</v>
+        <v>obj_00482#0003</v>
       </c>
       <c r="D93" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C93)</f>
@@ -8431,11 +8502,11 @@
       </c>
       <c r="J93" s="114">
         <f>_xll.qlRateHelperEarliestDate($C93,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K93" s="115">
         <f>_xll.qlRateHelperLatestDate($C93,Trigger)</f>
-        <v>52261</v>
+        <v>52287</v>
       </c>
       <c r="M93" s="126"/>
       <c r="O93" s="197"/>
@@ -8447,7 +8518,7 @@
       </c>
       <c r="C94" s="112" t="str">
         <f>Swaps!K36</f>
-        <v>obj_0042d#0002</v>
+        <v>obj_0046c#0003</v>
       </c>
       <c r="D94" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C94)</f>
@@ -8473,11 +8544,11 @@
       </c>
       <c r="J94" s="114">
         <f>_xll.qlRateHelperEarliestDate($C94,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K94" s="115">
         <f>_xll.qlRateHelperLatestDate($C94,Trigger)</f>
-        <v>52625</v>
+        <v>52652</v>
       </c>
       <c r="M94" s="126"/>
       <c r="O94" s="197"/>
@@ -8489,7 +8560,7 @@
       </c>
       <c r="C95" s="112" t="str">
         <f>Swaps!K37</f>
-        <v>obj_00464#0002</v>
+        <v>obj_0046f#0003</v>
       </c>
       <c r="D95" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C95)</f>
@@ -8497,7 +8568,7 @@
       </c>
       <c r="E95" s="113">
         <f>_xll.qlRateHelperQuoteValue($C95,Trigger)</f>
-        <v>2.2940000000000002E-2</v>
+        <v>2.5670000000000002E-2</v>
       </c>
       <c r="F95" s="113">
         <f>_xll.qlSwapRateHelperSpread($C95,Trigger)</f>
@@ -8515,11 +8586,11 @@
       </c>
       <c r="J95" s="114">
         <f>_xll.qlRateHelperEarliestDate($C95,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K95" s="115">
         <f>_xll.qlRateHelperLatestDate($C95,Trigger)</f>
-        <v>52992</v>
+        <v>53020</v>
       </c>
       <c r="M95" s="126"/>
       <c r="O95" s="197"/>
@@ -8531,7 +8602,7 @@
       </c>
       <c r="C96" s="112" t="str">
         <f>Swaps!K38</f>
-        <v>obj_00480#0002</v>
+        <v>obj_0044d#0003</v>
       </c>
       <c r="D96" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C96)</f>
@@ -8557,11 +8628,11 @@
       </c>
       <c r="J96" s="114">
         <f>_xll.qlRateHelperEarliestDate($C96,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K96" s="115">
         <f>_xll.qlRateHelperLatestDate($C96,Trigger)</f>
-        <v>54819</v>
+        <v>54844</v>
       </c>
       <c r="M96" s="126"/>
       <c r="O96" s="197"/>
@@ -8573,7 +8644,7 @@
       </c>
       <c r="C97" s="112" t="str">
         <f>Swaps!K39</f>
-        <v>obj_00439#0002</v>
+        <v>obj_0047d#0003</v>
       </c>
       <c r="D97" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C97)</f>
@@ -8581,7 +8652,7 @@
       </c>
       <c r="E97" s="113">
         <f>_xll.qlRateHelperQuoteValue($C97,Trigger)</f>
-        <v>2.3170000000000003E-2</v>
+        <v>2.589E-2</v>
       </c>
       <c r="F97" s="113">
         <f>_xll.qlSwapRateHelperSpread($C97,Trigger)</f>
@@ -8599,11 +8670,11 @@
       </c>
       <c r="J97" s="114">
         <f>_xll.qlRateHelperEarliestDate($C97,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K97" s="115">
         <f>_xll.qlRateHelperLatestDate($C97,Trigger)</f>
-        <v>56643</v>
+        <v>56670</v>
       </c>
       <c r="M97" s="126"/>
       <c r="O97" s="197"/>
@@ -8615,7 +8686,7 @@
       </c>
       <c r="C98" s="112" t="str">
         <f>Swaps!K40</f>
-        <v>obj_0046f#0002</v>
+        <v>obj_0045e#0003</v>
       </c>
       <c r="D98" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C98)</f>
@@ -8623,7 +8694,7 @@
       </c>
       <c r="E98" s="113">
         <f>_xll.qlRateHelperQuoteValue($C98,Trigger)</f>
-        <v>2.2940000000000002E-2</v>
+        <v>2.5670000000000002E-2</v>
       </c>
       <c r="F98" s="113">
         <f>_xll.qlSwapRateHelperSpread($C98,Trigger)</f>
@@ -8641,11 +8712,11 @@
       </c>
       <c r="J98" s="114">
         <f>_xll.qlRateHelperEarliestDate($C98,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K98" s="115">
         <f>_xll.qlRateHelperLatestDate($C98,Trigger)</f>
-        <v>60297</v>
+        <v>60323</v>
       </c>
       <c r="M98" s="126"/>
       <c r="O98" s="197"/>
@@ -8657,7 +8728,7 @@
       </c>
       <c r="C99" s="112" t="str">
         <f>Swaps!K41</f>
-        <v>obj_00413#0002</v>
+        <v>obj_00479#0003</v>
       </c>
       <c r="D99" s="112" t="str">
         <f>_xll.qlRateHelperQuoteName(C99)</f>
@@ -8683,11 +8754,11 @@
       </c>
       <c r="J99" s="114">
         <f>_xll.qlRateHelperEarliestDate($C99,Trigger)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="K99" s="115">
         <f>_xll.qlRateHelperLatestDate($C99,Trigger)</f>
-        <v>63949</v>
+        <v>63975</v>
       </c>
       <c r="M99" s="126"/>
     </row>
@@ -10251,7 +10322,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -10279,10 +10350,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="205"/>
+      <c r="B1" s="209"/>
       <c r="D1" s="166" t="s">
         <v>53</v>
       </c>
@@ -10301,7 +10372,7 @@
       </c>
       <c r="J1" s="72">
         <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>2.5347134211560463E-3</v>
+        <v>2.8388778488116942E-3</v>
       </c>
       <c r="O1" s="176"/>
     </row>
@@ -10314,7 +10385,7 @@
       </c>
       <c r="D2" s="73" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohFilter(MinDistance,RateHelpersIncluded),Trigger)</f>
-        <v>obj_004da</v>
+        <v>obj_004b0</v>
       </c>
       <c r="E2" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
@@ -10322,7 +10393,7 @@
       </c>
       <c r="F2" s="74">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>2.5000000000000001E-3</v>
+        <v>2.8000000000000004E-3</v>
       </c>
       <c r="G2" s="74" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -10330,14 +10401,14 @@
       </c>
       <c r="H2" s="82">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>42032</v>
+        <v>42058</v>
       </c>
       <c r="I2" s="83">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>42033</v>
+        <v>42059</v>
       </c>
       <c r="J2" s="72">
-        <v>2.5347134211560463E-3</v>
+        <v>2.8388778488116942E-3</v>
       </c>
       <c r="M2" s="182"/>
       <c r="O2" s="182"/>
@@ -10353,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="73" t="str">
-        <v>obj_004d3</v>
+        <v>obj_004af</v>
       </c>
       <c r="E3" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D3)</f>
@@ -10361,7 +10432,7 @@
       </c>
       <c r="F3" s="74">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>2.5000000000000001E-3</v>
+        <v>2.8000000000000004E-3</v>
       </c>
       <c r="G3" s="74" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -10369,14 +10440,14 @@
       </c>
       <c r="H3" s="82">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>42033</v>
+        <v>42059</v>
       </c>
       <c r="I3" s="83">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="J3" s="72">
-        <v>2.5347134211412131E-3</v>
+        <v>2.8388778488016657E-3</v>
       </c>
       <c r="M3" s="182"/>
       <c r="O3" s="182"/>
@@ -10392,7 +10463,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="73" t="str">
-        <v>obj_004d9</v>
+        <v>obj_004b7</v>
       </c>
       <c r="E4" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
@@ -10400,7 +10471,7 @@
       </c>
       <c r="F4" s="74">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>2.5000000000000001E-3</v>
+        <v>2.8000000000000004E-3</v>
       </c>
       <c r="G4" s="74" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -10408,14 +10479,14 @@
       </c>
       <c r="H4" s="82">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="I4" s="83">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>42037</v>
+        <v>42061</v>
       </c>
       <c r="J4" s="72">
-        <v>2.5347028599980435E-3</v>
+        <v>2.8388778487858581E-3</v>
       </c>
       <c r="M4" s="182"/>
       <c r="V4" s="126"/>
@@ -10430,7 +10501,7 @@
         <v>48</v>
       </c>
       <c r="D5" s="73" t="str">
-        <v>obj_004d5</v>
+        <v>obj_004b3</v>
       </c>
       <c r="E5" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D5)</f>
@@ -10438,7 +10509,7 @@
       </c>
       <c r="F5" s="74">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>1.3669999999999999E-3</v>
+        <v>1.4060000000000001E-3</v>
       </c>
       <c r="G5" s="74" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -10446,14 +10517,14 @@
       </c>
       <c r="H5" s="82">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="I5" s="83">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>42041</v>
+        <v>42067</v>
       </c>
       <c r="J5" s="72">
-        <v>1.6412445201462844E-3</v>
+        <v>1.7395904156963845E-3</v>
       </c>
       <c r="M5" s="182"/>
       <c r="V5" s="126"/>
@@ -10469,7 +10540,7 @@
         <v/>
       </c>
       <c r="D6" s="73" t="str">
-        <v>obj_004dc</v>
+        <v>obj_004b8</v>
       </c>
       <c r="E6" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D6)</f>
@@ -10477,7 +10548,7 @@
       </c>
       <c r="F6" s="74">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>1.4796666700000001E-3</v>
+        <v>1.5073333300000002E-3</v>
       </c>
       <c r="G6" s="74" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -10485,14 +10556,14 @@
       </c>
       <c r="H6" s="82">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="I6" s="83">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>42048</v>
+        <v>42074</v>
       </c>
       <c r="J6" s="72">
-        <v>1.6294918077622302E-3</v>
+        <v>1.6920554900146428E-3</v>
       </c>
       <c r="M6" s="182"/>
       <c r="V6" s="126"/>
@@ -10501,7 +10572,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D7" s="73" t="str">
-        <v>obj_004de</v>
+        <v>obj_004bb</v>
       </c>
       <c r="E7" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D7)</f>
@@ -10509,7 +10580,7 @@
       </c>
       <c r="F7" s="74">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>1.59233333E-3</v>
+        <v>1.6086666700000003E-3</v>
       </c>
       <c r="G7" s="74" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -10517,14 +10588,14 @@
       </c>
       <c r="H7" s="82">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="I7" s="83">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>42055</v>
+        <v>42081</v>
       </c>
       <c r="J7" s="72">
-        <v>1.6944036022160658E-3</v>
+        <v>1.7359714462101862E-3</v>
       </c>
       <c r="M7" s="182"/>
       <c r="V7" s="126"/>
@@ -10533,7 +10604,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D8" s="73" t="str">
-        <v>obj_004d4</v>
+        <v>obj_004b1</v>
       </c>
       <c r="E8" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D8)</f>
@@ -10541,7 +10612,7 @@
       </c>
       <c r="F8" s="74">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>1.7050000000000001E-3</v>
+        <v>1.7100000000000001E-3</v>
       </c>
       <c r="G8" s="74" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -10549,14 +10620,14 @@
       </c>
       <c r="H8" s="82">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="I8" s="83">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42062</v>
+        <v>42088</v>
       </c>
       <c r="J8" s="72">
-        <v>1.7823091097163618E-3</v>
+        <v>1.8073175914424004E-3</v>
       </c>
       <c r="M8" s="182"/>
       <c r="O8" s="182"/>
@@ -10566,7 +10637,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D9" s="73" t="str">
-        <v>obj_004db</v>
+        <v>obj_004b2</v>
       </c>
       <c r="E9" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
@@ -10574,7 +10645,7 @@
       </c>
       <c r="F9" s="74">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>2.1150000000000001E-3</v>
+        <v>2.1300000000000004E-3</v>
       </c>
       <c r="G9" s="74" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
@@ -10582,14 +10653,14 @@
       </c>
       <c r="H9" s="82">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="I9" s="83">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42094</v>
+        <v>42121</v>
       </c>
       <c r="J9" s="72">
-        <v>2.1566008936166874E-3</v>
+        <v>2.1807709864439142E-3</v>
       </c>
       <c r="M9" s="182"/>
       <c r="O9" s="182"/>
@@ -10599,7 +10670,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D10" s="73" t="str">
-        <v>obj_004d7</v>
+        <v>obj_004b5</v>
       </c>
       <c r="E10" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D10)</f>
@@ -10607,7 +10678,7 @@
       </c>
       <c r="F10" s="74">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>2.5460000000000005E-3</v>
+        <v>2.6159999999999998E-3</v>
       </c>
       <c r="G10" s="74" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
@@ -10615,14 +10686,14 @@
       </c>
       <c r="H10" s="82">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="I10" s="83">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42124</v>
+        <v>42150</v>
       </c>
       <c r="J10" s="72">
-        <v>2.5795437126681126E-3</v>
+        <v>2.6555405602638163E-3</v>
       </c>
       <c r="M10" s="182"/>
       <c r="O10" s="182"/>
@@ -10632,7 +10703,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D11" s="73" t="str">
-        <v>obj_004e4</v>
+        <v>obj_004c0</v>
       </c>
       <c r="E11" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D11)</f>
@@ -10640,7 +10711,7 @@
       </c>
       <c r="F11" s="74">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>2.8700434799999995E-3</v>
+        <v>3.0218241799999999E-3</v>
       </c>
       <c r="G11" s="74" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
@@ -10648,14 +10719,14 @@
       </c>
       <c r="H11" s="82">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="I11" s="83">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42153</v>
+        <v>42180</v>
       </c>
       <c r="J11" s="72">
-        <v>2.9023470250089133E-3</v>
+        <v>3.0585900839746388E-3</v>
       </c>
       <c r="M11" s="182"/>
       <c r="O11" s="182"/>
@@ -10665,7 +10736,7 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D12" s="73" t="str">
-        <v>obj_004df</v>
+        <v>obj_004bd</v>
       </c>
       <c r="E12" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D12)</f>
@@ -10673,7 +10744,7 @@
       </c>
       <c r="F12" s="74">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>3.2276086999999997E-3</v>
+        <v>3.4547033E-3</v>
       </c>
       <c r="G12" s="74" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
@@ -10681,14 +10752,14 @@
       </c>
       <c r="H12" s="82">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="I12" s="83">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42185</v>
+        <v>42212</v>
       </c>
       <c r="J12" s="72">
-        <v>3.2606089687962137E-3</v>
+        <v>3.4915454400439153E-3</v>
       </c>
       <c r="M12" s="182"/>
       <c r="O12" s="182"/>
@@ -10698,7 +10769,7 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D13" s="73" t="str">
-        <v>obj_004d6</v>
+        <v>obj_004b4</v>
       </c>
       <c r="E13" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
@@ -10706,7 +10777,7 @@
       </c>
       <c r="F13" s="74">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>3.5739999999999999E-3</v>
+        <v>3.8470000000000006E-3</v>
       </c>
       <c r="G13" s="74" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
@@ -10714,14 +10785,14 @@
       </c>
       <c r="H13" s="82">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="I13" s="83">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42216</v>
+        <v>42241</v>
       </c>
       <c r="J13" s="72">
-        <v>3.608568525393558E-3</v>
+        <v>3.8851028360695813E-3</v>
       </c>
       <c r="M13" s="182"/>
       <c r="O13" s="182"/>
@@ -10731,15 +10802,15 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D14" s="73" t="str">
-        <v>obj_004dd</v>
+        <v>obj_004b6</v>
       </c>
       <c r="E14" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D14)</f>
-        <v>USD7MD_Mx_Quote</v>
+        <v>USD_STUB_Quote</v>
       </c>
       <c r="F14" s="74">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>4.0177087900000004E-3</v>
+        <v>4.1981630400000003E-3</v>
       </c>
       <c r="G14" s="74" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
@@ -10747,14 +10818,14 @@
       </c>
       <c r="H14" s="82">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="I14" s="83">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42244</v>
+        <v>42263</v>
       </c>
       <c r="J14" s="72">
-        <v>4.0542722883158471E-3</v>
+        <v>4.2376595304278201E-3</v>
       </c>
       <c r="M14" s="182"/>
       <c r="O14" s="182"/>
@@ -10764,30 +10835,30 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D15" s="73" t="str">
-        <v>obj_004d8</v>
+        <v>obj_004e1</v>
       </c>
       <c r="E15" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D15)</f>
-        <v>USD_STUB_Quote</v>
+        <v>USDFUT3MU5_Quote</v>
       </c>
       <c r="F15" s="74">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>4.2467197799999998E-3</v>
-      </c>
-      <c r="G15" s="74" t="str">
+        <v>5.8259999999999632E-3</v>
+      </c>
+      <c r="G15" s="74">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
-        <v>--</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="H15" s="82">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>42034</v>
+        <v>42263</v>
       </c>
       <c r="I15" s="83">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42263</v>
+        <v>42354</v>
       </c>
       <c r="J15" s="72">
-        <v>4.2846137980950931E-3</v>
+        <v>4.7495074434826222E-3</v>
       </c>
       <c r="M15" s="182"/>
       <c r="O15" s="182"/>
@@ -10797,30 +10868,30 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="73" t="str">
-        <v>obj_00505</v>
+        <v>obj_004d4</v>
       </c>
       <c r="E16" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D16)</f>
-        <v>USDFUT3MU5_Quote</v>
+        <v>USDFUT3MZ5_Quote</v>
       </c>
       <c r="F16" s="74">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>5.1760000000000347E-3</v>
+        <v>8.0460000000000496E-3</v>
       </c>
       <c r="G16" s="74">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
-        <v>4.8999999999999998E-5</v>
+        <v>7.9000000000000009E-5</v>
       </c>
       <c r="H16" s="82">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>42263</v>
+        <v>42354</v>
       </c>
       <c r="I16" s="83">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="J16" s="72">
-        <v>4.5558743336161561E-3</v>
+        <v>5.5489807640696394E-3</v>
       </c>
       <c r="M16" s="182"/>
       <c r="V16" s="126"/>
@@ -10829,30 +10900,30 @@
     </row>
     <row r="17" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D17" s="73" t="str">
-        <v>obj_004f4</v>
+        <v>obj_004c9</v>
       </c>
       <c r="E17" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D17)</f>
-        <v>USDFUT3MZ5_Quote</v>
+        <v>USDFUT3MH6_Quote</v>
       </c>
       <c r="F17" s="74">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>7.1459999999999258E-3</v>
+        <v>1.0308999999999907E-2</v>
       </c>
       <c r="G17" s="74">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
-        <v>7.9000000000000009E-5</v>
+        <v>1.1599999999999999E-4</v>
       </c>
       <c r="H17" s="82">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="I17" s="83">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>42445</v>
+        <v>42537</v>
       </c>
       <c r="J17" s="72">
-        <v>5.1470085284297667E-3</v>
+        <v>6.4880828976705629E-3</v>
       </c>
       <c r="M17" s="182"/>
       <c r="O17" s="182"/>
@@ -10863,30 +10934,30 @@
     </row>
     <row r="18" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D18" s="73" t="str">
-        <v>obj_00509</v>
+        <v>obj_004d9</v>
       </c>
       <c r="E18" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D18)</f>
-        <v>USDFUT3MH6_Quote</v>
+        <v>USDFUT3MM6_Quote</v>
       </c>
       <c r="F18" s="74">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>9.1590000000001445E-3</v>
+        <v>1.2515999999999992E-2</v>
       </c>
       <c r="G18" s="74">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
-        <v>1.1599999999999999E-4</v>
+        <v>1.5900000000000002E-4</v>
       </c>
       <c r="H18" s="82">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>42445</v>
+        <v>42536</v>
       </c>
       <c r="I18" s="83">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>42537</v>
+        <v>42628</v>
       </c>
       <c r="J18" s="72">
-        <v>5.8991037790704368E-3</v>
+        <v>7.4772384704127554E-3</v>
       </c>
       <c r="M18" s="182"/>
       <c r="O18" s="182"/>
@@ -10897,30 +10968,30 @@
     </row>
     <row r="19" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D19" s="73" t="str">
-        <v>obj_00500</v>
+        <v>obj_004db</v>
       </c>
       <c r="E19" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D19)</f>
-        <v>USDFUT3MM6_Quote</v>
+        <v>USDFUT3MU6_Quote</v>
       </c>
       <c r="F19" s="74">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.1165999999999919E-2</v>
+        <v>1.4616999999999866E-2</v>
       </c>
       <c r="G19" s="74">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
-        <v>1.5900000000000002E-4</v>
+        <v>2.0799999999999999E-4</v>
       </c>
       <c r="H19" s="82">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="I19" s="83">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>42628</v>
+        <v>42725</v>
       </c>
       <c r="J19" s="72">
-        <v>6.7266519867914968E-3</v>
+        <v>8.5316218098464205E-3</v>
       </c>
       <c r="M19" s="182"/>
       <c r="O19" s="182"/>
@@ -10931,30 +11002,30 @@
     </row>
     <row r="20" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D20" s="73" t="str">
-        <v>obj_0050d</v>
+        <v>obj_004d0</v>
       </c>
       <c r="E20" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D20)</f>
-        <v>USDFUT3MU6_Quote</v>
+        <v>USDFUT3MZ6_Quote</v>
       </c>
       <c r="F20" s="74">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>1.3041999999999873E-2</v>
+        <v>1.6508999999999985E-2</v>
       </c>
       <c r="G20" s="74">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
-        <v>2.0799999999999999E-4</v>
+        <v>2.6599999999999996E-4</v>
       </c>
       <c r="H20" s="82">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>42634</v>
+        <v>42725</v>
       </c>
       <c r="I20" s="83">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>42725</v>
+        <v>42815</v>
       </c>
       <c r="J20" s="72">
-        <v>7.6251492685992864E-3</v>
+        <v>9.5032203227645631E-3</v>
       </c>
       <c r="M20" s="182"/>
       <c r="O20" s="182"/>
@@ -10965,30 +11036,30 @@
     </row>
     <row r="21" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D21" s="73" t="str">
-        <v>obj_0050c</v>
+        <v>obj_0046e</v>
       </c>
       <c r="E21" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D21)</f>
-        <v>USDFUT3MZ6_Quote</v>
+        <v>USDAM3L3Y_Quote</v>
       </c>
       <c r="F21" s="74">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>1.4709000000000071E-2</v>
+        <v>1.2469999999999998E-2</v>
       </c>
       <c r="G21" s="74">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
-        <v>2.6599999999999996E-4</v>
+        <v>0</v>
       </c>
       <c r="H21" s="82">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>42725</v>
+        <v>42060</v>
       </c>
       <c r="I21" s="83">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>42815</v>
+        <v>43157</v>
       </c>
       <c r="J21" s="72">
-        <v>8.4597227723166718E-3</v>
+        <v>1.2604709901519805E-2</v>
       </c>
       <c r="M21" s="182"/>
       <c r="O21" s="182"/>
@@ -10999,15 +11070,15 @@
     </row>
     <row r="22" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D22" s="73" t="str">
-        <v>obj_00481</v>
+        <v>obj_00485</v>
       </c>
       <c r="E22" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D22)</f>
-        <v>USDAM3L3Y_Quote</v>
+        <v>USDAM3L4Y_Quote</v>
       </c>
       <c r="F22" s="74">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>1.069E-2</v>
+        <v>1.5089999999999999E-2</v>
       </c>
       <c r="G22" s="74">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -11015,14 +11086,14 @@
       </c>
       <c r="H22" s="82">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="I22" s="83">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>43130</v>
+        <v>43521</v>
       </c>
       <c r="J22" s="72">
-        <v>1.0806762372881484E-2</v>
+        <v>1.5281515734448614E-2</v>
       </c>
       <c r="M22" s="182"/>
       <c r="O22" s="182"/>
@@ -11033,15 +11104,15 @@
     </row>
     <row r="23" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D23" s="73" t="str">
-        <v>obj_0041a</v>
+        <v>obj_00481</v>
       </c>
       <c r="E23" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D23)</f>
-        <v>USDAM3L4Y_Quote</v>
+        <v>USDAM3L5Y_Quote</v>
       </c>
       <c r="F23" s="74">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>1.306E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G23" s="74">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -11049,14 +11120,14 @@
       </c>
       <c r="H23" s="82">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="I23" s="83">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>43495</v>
+        <v>43886</v>
       </c>
       <c r="J23" s="72">
-        <v>1.3226108738162943E-2</v>
+        <v>1.7244885074883767E-2</v>
       </c>
       <c r="M23" s="182"/>
       <c r="O23" s="182"/>
@@ -11066,15 +11137,15 @@
     </row>
     <row r="24" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D24" s="73" t="str">
-        <v>obj_00412</v>
+        <v>obj_00484</v>
       </c>
       <c r="E24" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D24)</f>
-        <v>USDAM3L5Y_Quote</v>
+        <v>USDAM3L6Y_Quote</v>
       </c>
       <c r="F24" s="74">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>1.4809999999999999E-2</v>
+        <v>1.847E-2</v>
       </c>
       <c r="G24" s="74">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -11082,14 +11153,14 @@
       </c>
       <c r="H24" s="82">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="I24" s="83">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>43860</v>
+        <v>44252</v>
       </c>
       <c r="J24" s="72">
-        <v>1.5022753869113108E-2</v>
+        <v>1.8765573445433316E-2</v>
       </c>
       <c r="M24" s="182"/>
       <c r="O24" s="182"/>
@@ -11099,15 +11170,15 @@
     </row>
     <row r="25" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D25" s="73" t="str">
-        <v>obj_0041f</v>
+        <v>obj_0047e</v>
       </c>
       <c r="E25" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D25)</f>
-        <v>USDAM3L6Y_Quote</v>
+        <v>USDAM3L7Y_Quote</v>
       </c>
       <c r="F25" s="74">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>1.6120000000000002E-2</v>
+        <v>1.9620000000000002E-2</v>
       </c>
       <c r="G25" s="74">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -11115,14 +11186,14 @@
       </c>
       <c r="H25" s="82">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="I25" s="83">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>44225</v>
+        <v>44617</v>
       </c>
       <c r="J25" s="72">
-        <v>1.6374808696043509E-2</v>
+        <v>1.9962698252033454E-2</v>
       </c>
       <c r="M25" s="182"/>
       <c r="O25" s="182"/>
@@ -11132,15 +11203,15 @@
     </row>
     <row r="26" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D26" s="73" t="str">
-        <v>obj_00417</v>
+        <v>obj_0045d</v>
       </c>
       <c r="E26" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D26)</f>
-        <v>USDAM3L7Y_Quote</v>
+        <v>USDAM3L8Y_Quote</v>
       </c>
       <c r="F26" s="74">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>1.7170000000000001E-2</v>
+        <v>2.0540000000000003E-2</v>
       </c>
       <c r="G26" s="74">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -11148,14 +11219,14 @@
       </c>
       <c r="H26" s="82">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="I26" s="83">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>44592</v>
+        <v>44984</v>
       </c>
       <c r="J26" s="72">
-        <v>1.7464655515139444E-2</v>
+        <v>2.0925640429044122E-2</v>
       </c>
       <c r="M26" s="182"/>
       <c r="O26" s="182"/>
@@ -11165,15 +11236,15 @@
     </row>
     <row r="27" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D27" s="73" t="str">
-        <v>obj_00420</v>
+        <v>obj_00470</v>
       </c>
       <c r="E27" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D27)</f>
-        <v>USDAM3L8Y_Quote</v>
+        <v>USDAM3L9Y_Quote</v>
       </c>
       <c r="F27" s="74">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>1.8010000000000002E-2</v>
+        <v>2.129E-2</v>
       </c>
       <c r="G27" s="74">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -11181,14 +11252,14 @@
       </c>
       <c r="H27" s="82">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="I27" s="83">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>44956</v>
+        <v>45348</v>
       </c>
       <c r="J27" s="72">
-        <v>1.8341480748801618E-2</v>
+        <v>2.1715595345520255E-2</v>
       </c>
       <c r="M27" s="182"/>
       <c r="O27" s="182"/>
@@ -11198,15 +11269,15 @@
     </row>
     <row r="28" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D28" s="73" t="str">
-        <v>obj_00414</v>
+        <v>obj_00486</v>
       </c>
       <c r="E28" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D28)</f>
-        <v>USDAM3L9Y_Quote</v>
+        <v>USDAM3L10Y_Quote</v>
       </c>
       <c r="F28" s="74">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>1.8730000000000004E-2</v>
+        <v>2.1920000000000002E-2</v>
       </c>
       <c r="G28" s="74">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -11214,14 +11285,14 @@
       </c>
       <c r="H28" s="82">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="I28" s="83">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>45321</v>
+        <v>45713</v>
       </c>
       <c r="J28" s="72">
-        <v>1.9098068883461963E-2</v>
+        <v>2.2383017532991715E-2</v>
       </c>
       <c r="M28" s="182"/>
       <c r="O28" s="182"/>
@@ -11231,15 +11302,15 @@
     </row>
     <row r="29" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D29" s="73" t="str">
-        <v>obj_00442</v>
+        <v>obj_0047b</v>
       </c>
       <c r="E29" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D29)</f>
-        <v>USDAM3L10Y_Quote</v>
+        <v>USDAM3L12Y_Quote</v>
       </c>
       <c r="F29" s="74">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>1.933E-2</v>
+        <v>2.2969999999999997E-2</v>
       </c>
       <c r="G29" s="74">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -11247,14 +11318,14 @@
       </c>
       <c r="H29" s="82">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="I29" s="83">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>45687</v>
+        <v>46443</v>
       </c>
       <c r="J29" s="72">
-        <v>1.9731640914311916E-2</v>
+        <v>2.3509871063036532E-2</v>
       </c>
       <c r="M29" s="182"/>
       <c r="O29" s="182"/>
@@ -11263,15 +11334,15 @@
     </row>
     <row r="30" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D30" s="73" t="str">
-        <v>obj_00438</v>
+        <v>obj_00475</v>
       </c>
       <c r="E30" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D30)</f>
-        <v>USDAM3L12Y_Quote</v>
+        <v>USDAM3L15Y_Quote</v>
       </c>
       <c r="F30" s="74">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>2.0279999999999999E-2</v>
+        <v>2.402E-2</v>
       </c>
       <c r="G30" s="74">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -11279,14 +11350,14 @@
       </c>
       <c r="H30" s="82">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="I30" s="83">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>46416</v>
+        <v>47539</v>
       </c>
       <c r="J30" s="72">
-        <v>2.0743702231039038E-2</v>
+        <v>2.4647846303651244E-2</v>
       </c>
       <c r="M30" s="182"/>
       <c r="O30" s="182"/>
@@ -11295,15 +11366,15 @@
     </row>
     <row r="31" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D31" s="73" t="str">
-        <v>obj_00431</v>
+        <v>obj_00472</v>
       </c>
       <c r="E31" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D31)</f>
-        <v>USDAM3L15Y_Quote</v>
+        <v>USDAM3L20Y_Quote</v>
       </c>
       <c r="F31" s="74">
         <f>_xll.qlRateHelperRate($D31)</f>
-        <v>2.1269999999999997E-2</v>
+        <v>2.4990000000000002E-2</v>
       </c>
       <c r="G31" s="74">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D31)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D31)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D31)),_xll.qlSwapRateHelperSpread($D31))</f>
@@ -11311,14 +11382,14 @@
       </c>
       <c r="H31" s="82">
         <f>_xll.qlRateHelperEarliestDate($D31)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="I31" s="83">
         <f>_xll.qlRateHelperLatestDate($D31)</f>
-        <v>47513</v>
+        <v>49366</v>
       </c>
       <c r="J31" s="72">
-        <v>2.1810329812049917E-2</v>
+        <v>2.5704629020218632E-2</v>
       </c>
       <c r="M31" s="182"/>
       <c r="O31" s="182"/>
@@ -11327,15 +11398,15 @@
     </row>
     <row r="32" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D32" s="73" t="str">
-        <v>obj_00416</v>
+        <v>obj_00480</v>
       </c>
       <c r="E32" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D32)</f>
-        <v>USDAM3L20Y_Quote</v>
+        <v>USDAM3L25Y_Quote</v>
       </c>
       <c r="F32" s="74">
         <f>_xll.qlRateHelperRate($D32)</f>
-        <v>2.2240000000000003E-2</v>
+        <v>2.5419999999999998E-2</v>
       </c>
       <c r="G32" s="74">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D32)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D32)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D32)),_xll.qlSwapRateHelperSpread($D32))</f>
@@ -11343,14 +11414,14 @@
       </c>
       <c r="H32" s="82">
         <f>_xll.qlRateHelperEarliestDate($D32)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="I32" s="83">
         <f>_xll.qlRateHelperLatestDate($D32)</f>
-        <v>49339</v>
+        <v>51193</v>
       </c>
       <c r="J32" s="72">
-        <v>2.2868040843862767E-2</v>
+        <v>2.6144268214116698E-2</v>
       </c>
       <c r="M32" s="182"/>
       <c r="O32" s="182"/>
@@ -11359,15 +11430,15 @@
     </row>
     <row r="33" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D33" s="73" t="str">
-        <v>obj_00454</v>
+        <v>obj_0046f</v>
       </c>
       <c r="E33" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D33)</f>
-        <v>USDAM3L25Y_Quote</v>
+        <v>USDAM3L30Y_Quote</v>
       </c>
       <c r="F33" s="74">
         <f>_xll.qlRateHelperRate($D33)</f>
-        <v>2.2679999999999999E-2</v>
+        <v>2.5670000000000002E-2</v>
       </c>
       <c r="G33" s="74">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D33)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D33)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D33)),_xll.qlSwapRateHelperSpread($D33))</f>
@@ -11375,14 +11446,14 @@
       </c>
       <c r="H33" s="82">
         <f>_xll.qlRateHelperEarliestDate($D33)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="I33" s="83">
         <f>_xll.qlRateHelperLatestDate($D33)</f>
-        <v>51165</v>
+        <v>53020</v>
       </c>
       <c r="J33" s="72">
-        <v>2.3326021305779914E-2</v>
+        <v>2.6389723720194859E-2</v>
       </c>
       <c r="M33" s="182"/>
       <c r="O33" s="182"/>
@@ -11391,15 +11462,15 @@
     </row>
     <row r="34" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D34" s="73" t="str">
-        <v>obj_00464</v>
+        <v>obj_0047d</v>
       </c>
       <c r="E34" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D34)</f>
-        <v>USDAM3L30Y_Quote</v>
+        <v>USDAM3L40Y_Quote</v>
       </c>
       <c r="F34" s="74">
         <f>_xll.qlRateHelperRate($D34)</f>
-        <v>2.2940000000000002E-2</v>
+        <v>2.589E-2</v>
       </c>
       <c r="G34" s="74">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D34)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D34)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D34)),_xll.qlSwapRateHelperSpread($D34))</f>
@@ -11407,14 +11478,14 @@
       </c>
       <c r="H34" s="82">
         <f>_xll.qlRateHelperEarliestDate($D34)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="I34" s="83">
         <f>_xll.qlRateHelperLatestDate($D34)</f>
-        <v>52992</v>
+        <v>56670</v>
       </c>
       <c r="J34" s="72">
-        <v>2.3589306494031351E-2</v>
+        <v>2.6563660086807699E-2</v>
       </c>
       <c r="M34" s="182"/>
       <c r="O34" s="182"/>
@@ -11423,15 +11494,15 @@
     </row>
     <row r="35" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D35" s="73" t="str">
-        <v>obj_00439</v>
+        <v>obj_0045e</v>
       </c>
       <c r="E35" s="73" t="str">
         <f>_xll.qlRateHelperQuoteName(D35)</f>
-        <v>USDAM3L40Y_Quote</v>
+        <v>USDAM3L50Y_Quote</v>
       </c>
       <c r="F35" s="74">
         <f>_xll.qlRateHelperRate($D35)</f>
-        <v>2.3170000000000003E-2</v>
+        <v>2.5670000000000002E-2</v>
       </c>
       <c r="G35" s="74">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D35)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D35)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D35)),_xll.qlSwapRateHelperSpread($D35))</f>
@@ -11439,14 +11510,14 @@
       </c>
       <c r="H35" s="82">
         <f>_xll.qlRateHelperEarliestDate($D35)</f>
-        <v>42034</v>
+        <v>42060</v>
       </c>
       <c r="I35" s="83">
         <f>_xll.qlRateHelperLatestDate($D35)</f>
-        <v>56643</v>
+        <v>60323</v>
       </c>
       <c r="J35" s="72">
-        <v>2.3786437133934357E-2</v>
+        <v>2.6027655613215791E-2</v>
       </c>
       <c r="M35" s="182"/>
       <c r="O35" s="182"/>
@@ -11454,31 +11525,31 @@
       <c r="Y35" s="199"/>
     </row>
     <row r="36" spans="4:25" x14ac:dyDescent="0.2">
-      <c r="D36" s="73" t="str">
-        <v>obj_0046f</v>
-      </c>
-      <c r="E36" s="73" t="str">
+      <c r="D36" s="73" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E36" s="73" t="e">
         <f>_xll.qlRateHelperQuoteName(D36)</f>
-        <v>USDAM3L50Y_Quote</v>
-      </c>
-      <c r="F36" s="74">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F36" s="74" t="e">
         <f>_xll.qlRateHelperRate($D36)</f>
-        <v>2.2940000000000002E-2</v>
-      </c>
-      <c r="G36" s="74">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G36" s="74" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D36)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D36)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D36)),_xll.qlSwapRateHelperSpread($D36))</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="82">
+        <v>--</v>
+      </c>
+      <c r="H36" s="82" t="e">
         <f>_xll.qlRateHelperEarliestDate($D36)</f>
-        <v>42034</v>
-      </c>
-      <c r="I36" s="83">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I36" s="83" t="e">
         <f>_xll.qlRateHelperLatestDate($D36)</f>
-        <v>60297</v>
-      </c>
-      <c r="J36" s="72">
-        <v>2.3277219612156393E-2</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J36" s="72" t="e">
+        <v>#N/A</v>
       </c>
       <c r="M36" s="182"/>
       <c r="O36" s="182"/>
@@ -14195,7 +14266,7 @@
       </c>
       <c r="J3" s="170" t="str">
         <f>_xll.qlDepositRateHelper(,I3,H3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004da#0002</v>
+        <v>obj_004b0#0003</v>
       </c>
       <c r="K3" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J3)</f>
@@ -14226,7 +14297,7 @@
       </c>
       <c r="H4" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,"1D",C4,Currency,Calendar,E4,F4,G4,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_004d2#0003</v>
+        <v>obj_004ab#0003</v>
       </c>
       <c r="I4" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14234,7 +14305,7 @@
       </c>
       <c r="J4" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,I4,H4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004d3#0003</v>
+        <v>obj_004af#0003</v>
       </c>
       <c r="K4" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J4)</f>
@@ -14265,7 +14336,7 @@
       </c>
       <c r="H5" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,"1D",C5,Currency,Calendar,E5,F5,G5,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_004c2#0003</v>
+        <v>obj_004a5#0003</v>
       </c>
       <c r="I5" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14273,7 +14344,7 @@
       </c>
       <c r="J5" s="51" t="str">
         <f>_xll.qlDepositRateHelper(,I5,H5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004d9#0003</v>
+        <v>obj_004b7#0003</v>
       </c>
       <c r="K5" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J5)</f>
@@ -14312,7 +14383,7 @@
       </c>
       <c r="J6" s="171" t="str">
         <f>_xll.qlDepositRateHelper(,I6,H6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004d5#0002</v>
+        <v>obj_004b3#0003</v>
       </c>
       <c r="K6" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J6)</f>
@@ -14345,7 +14416,7 @@
       </c>
       <c r="H7" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B7,C7,Currency,Calendar,E7,F7,G7,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_004cb#0003</v>
+        <v>obj_004a1#0003</v>
       </c>
       <c r="I7" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14353,7 +14424,7 @@
       </c>
       <c r="J7" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I7,H7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004dc#0003</v>
+        <v>obj_004b8#0003</v>
       </c>
       <c r="K7" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J7)</f>
@@ -14386,7 +14457,7 @@
       </c>
       <c r="H8" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B8,C8,Currency,Calendar,E8,F8,G8,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_004ce#0003</v>
+        <v>obj_004ad#0003</v>
       </c>
       <c r="I8" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14394,7 +14465,7 @@
       </c>
       <c r="J8" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I8,H8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004de#0003</v>
+        <v>obj_004bb#0003</v>
       </c>
       <c r="K8" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J8)</f>
@@ -14433,7 +14504,7 @@
       </c>
       <c r="J9" s="171" t="str">
         <f>_xll.qlDepositRateHelper(,I9,H9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004d4#0002</v>
+        <v>obj_004b1#0003</v>
       </c>
       <c r="K9" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J9)</f>
@@ -14472,7 +14543,7 @@
       </c>
       <c r="J10" s="171" t="str">
         <f>_xll.qlDepositRateHelper(,I10,H10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004db#0002</v>
+        <v>obj_004b2#0003</v>
       </c>
       <c r="K10" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J10)</f>
@@ -14511,7 +14582,7 @@
       </c>
       <c r="J11" s="171" t="str">
         <f>_xll.qlDepositRateHelper(,I11,H11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004d7#0002</v>
+        <v>obj_004b5#0003</v>
       </c>
       <c r="K11" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J11)</f>
@@ -14544,7 +14615,7 @@
       </c>
       <c r="H12" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B12,C12,Currency,Calendar,E12,F12,G12,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_004ca#0003</v>
+        <v>obj_004a2#0003</v>
       </c>
       <c r="I12" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14552,7 +14623,7 @@
       </c>
       <c r="J12" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I12,H12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e4#0003</v>
+        <v>obj_004c0#0003</v>
       </c>
       <c r="K12" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J12)</f>
@@ -14585,7 +14656,7 @@
       </c>
       <c r="H13" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B13,C13,Currency,Calendar,E13,F13,G13,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_004c6#0003</v>
+        <v>obj_004ae#0003</v>
       </c>
       <c r="I13" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14593,7 +14664,7 @@
       </c>
       <c r="J13" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I13,H13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004df#0003</v>
+        <v>obj_004bd#0003</v>
       </c>
       <c r="K13" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J13)</f>
@@ -14632,7 +14703,7 @@
       </c>
       <c r="J14" s="171" t="str">
         <f>_xll.qlDepositRateHelper(,I14,H14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004d6#0002</v>
+        <v>obj_004b4#0003</v>
       </c>
       <c r="K14" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J14)</f>
@@ -14665,7 +14736,7 @@
       </c>
       <c r="H15" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B15,C15,Currency,Calendar,E15,F15,G15,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_004c8#0003</v>
+        <v>obj_004a3#0003</v>
       </c>
       <c r="I15" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14673,7 +14744,7 @@
       </c>
       <c r="J15" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I15,H15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004dd#0003</v>
+        <v>obj_004b9#0003</v>
       </c>
       <c r="K15" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J15)</f>
@@ -14706,7 +14777,7 @@
       </c>
       <c r="H16" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B16,C16,Currency,Calendar,E16,F16,G16,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_004cd#0003</v>
+        <v>obj_0049c#0003</v>
       </c>
       <c r="I16" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14714,7 +14785,7 @@
       </c>
       <c r="J16" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I16,H16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e2#0003</v>
+        <v>obj_004ba#0003</v>
       </c>
       <c r="K16" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J16)</f>
@@ -14747,7 +14818,7 @@
       </c>
       <c r="H17" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B17,C17,Currency,Calendar,E17,F17,G17,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_004c4#0003</v>
+        <v>obj_004a9#0003</v>
       </c>
       <c r="I17" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14755,7 +14826,7 @@
       </c>
       <c r="J17" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I17,H17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e3#0003</v>
+        <v>obj_004bc#0003</v>
       </c>
       <c r="K17" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J17)</f>
@@ -14788,7 +14859,7 @@
       </c>
       <c r="H18" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B18,C18,Currency,Calendar,E18,F18,G18,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_004c3#0003</v>
+        <v>obj_004a6#0003</v>
       </c>
       <c r="I18" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14796,7 +14867,7 @@
       </c>
       <c r="J18" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I18,H18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e1#0003</v>
+        <v>obj_004bf#0003</v>
       </c>
       <c r="K18" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J18)</f>
@@ -14829,7 +14900,7 @@
       </c>
       <c r="H19" s="51" t="str">
         <f>_xll.qlIborIndex(,FamilyName,B19,C19,Currency,Calendar,E19,F19,G19,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_004c9#0003</v>
+        <v>obj_004a8#0003</v>
       </c>
       <c r="I19" s="51" t="str">
         <f t="shared" si="1"/>
@@ -14837,7 +14908,7 @@
       </c>
       <c r="J19" s="50" t="str">
         <f>_xll.qlDepositRateHelper(,I19,H19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e0#0003</v>
+        <v>obj_004be#0003</v>
       </c>
       <c r="K19" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J19)</f>
@@ -14876,7 +14947,7 @@
       </c>
       <c r="J20" s="171" t="str">
         <f>_xll.qlDepositRateHelper(,I20,H20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0040f#0002</v>
+        <v>obj_00443#0003</v>
       </c>
       <c r="K20" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J20)</f>
@@ -14888,7 +14959,7 @@
       <c r="A21" s="53"/>
       <c r="B21" s="175" t="str">
         <f>(_xll.qlCalendarBusinessDaysBetween(Calendar,_xll.qlCalendarAdvance(Calendar,_xll.qlSettingsEvaluationDate(Trigger),C21&amp;"D",,,Trigger),D25,Trigger)-1)&amp;"D"</f>
-        <v>158D</v>
+        <v>140D</v>
       </c>
       <c r="C21" s="173">
         <v>2</v>
@@ -14913,7 +14984,7 @@
       </c>
       <c r="J21" s="171" t="str">
         <f>_xll.qlDepositRateHelper2(,I21,B21,C20,Deposits!D21,E21,F21,G21)</f>
-        <v>obj_004d8#0003</v>
+        <v>obj_004b6#0003</v>
       </c>
       <c r="K21" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(J21)</f>
@@ -15080,7 +15151,7 @@
       </c>
       <c r="D3" s="137" t="str">
         <f t="array" ref="D3:D44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$C3:$C44)</f>
-        <v>G5</v>
+        <v>H5</v>
       </c>
       <c r="E3" s="137" t="str">
         <f t="shared" ref="E3:E34" si="0">PROPER(Currency)&amp;FamilyName&amp;$E$1</f>
@@ -15088,7 +15159,7 @@
       </c>
       <c r="F3" s="138" t="str">
         <f t="shared" ref="F3:F34" si="1">Currency&amp;"FUT"&amp;$E$1&amp;$D3&amp;QuoteSuffix</f>
-        <v>USDFUT3MG5_Quote</v>
+        <v>USDFUT3MH5_Quote</v>
       </c>
       <c r="G3" s="177">
         <f>IFERROR(INDEX($N$3:$N$8,MATCH(D3,$M$3:$M$8,0))/100,0)</f>
@@ -15096,7 +15167,7 @@
       </c>
       <c r="H3" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F3,$D3,$E3,$G3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e8#0002</v>
+        <v>obj_004d1#0003</v>
       </c>
       <c r="I3" s="54" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -15124,7 +15195,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="141" t="str">
-        <v>H5</v>
+        <v>J5</v>
       </c>
       <c r="E4" s="137" t="str">
         <f t="shared" si="0"/>
@@ -15132,7 +15203,7 @@
       </c>
       <c r="F4" s="138" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MH5_Quote</v>
+        <v>USDFUT3MJ5_Quote</v>
       </c>
       <c r="G4" s="177">
         <f t="shared" ref="G4:G44" si="2">IFERROR(INDEX($N$3:$N$8,MATCH(D4,$M$3:$M$8,0))/100,0)</f>
@@ -15140,7 +15211,7 @@
       </c>
       <c r="H4" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F4,$D4,$E4,$G4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004f9#0002</v>
+        <v>obj_004d8#0003</v>
       </c>
       <c r="I4" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -15168,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="141" t="str">
-        <v>J5</v>
+        <v>K5</v>
       </c>
       <c r="E5" s="137" t="str">
         <f t="shared" si="0"/>
@@ -15176,7 +15247,7 @@
       </c>
       <c r="F5" s="138" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MJ5_Quote</v>
+        <v>USDFUT3MK5_Quote</v>
       </c>
       <c r="G5" s="177">
         <f t="shared" si="2"/>
@@ -15184,7 +15255,7 @@
       </c>
       <c r="H5" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F5,$D5,$E5,$G5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004f1#0002</v>
+        <v>obj_004d7#0003</v>
       </c>
       <c r="I5" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -15209,7 +15280,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="141" t="str">
-        <v>K5</v>
+        <v>M5</v>
       </c>
       <c r="E6" s="137" t="str">
         <f t="shared" si="0"/>
@@ -15217,7 +15288,7 @@
       </c>
       <c r="F6" s="138" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MK5_Quote</v>
+        <v>USDFUT3MM5_Quote</v>
       </c>
       <c r="G6" s="177">
         <f t="shared" si="2"/>
@@ -15225,7 +15296,7 @@
       </c>
       <c r="H6" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F6,$D6,$E6,$G6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004ea#0002</v>
+        <v>obj_004dc#0003</v>
       </c>
       <c r="I6" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -15250,7 +15321,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="141" t="str">
-        <v>M5</v>
+        <v>N5</v>
       </c>
       <c r="E7" s="137" t="str">
         <f t="shared" si="0"/>
@@ -15258,7 +15329,7 @@
       </c>
       <c r="F7" s="138" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MM5_Quote</v>
+        <v>USDFUT3MN5_Quote</v>
       </c>
       <c r="G7" s="177">
         <f t="shared" si="2"/>
@@ -15266,7 +15337,7 @@
       </c>
       <c r="H7" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F7,$D7,$E7,$G7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e7#0002</v>
+        <v>obj_004c1#0003</v>
       </c>
       <c r="I7" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -15291,7 +15362,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="141" t="str">
-        <v>N5</v>
+        <v>Q5</v>
       </c>
       <c r="E8" s="137" t="str">
         <f t="shared" si="0"/>
@@ -15299,7 +15370,7 @@
       </c>
       <c r="F8" s="138" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MN5_Quote</v>
+        <v>USDFUT3MQ5_Quote</v>
       </c>
       <c r="G8" s="177">
         <f t="shared" si="2"/>
@@ -15307,7 +15378,7 @@
       </c>
       <c r="H8" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F8,$D8,$E8,$G8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0050b#0002</v>
+        <v>obj_004c6#0003</v>
       </c>
       <c r="I8" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -15332,7 +15403,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="141" t="str">
-        <v>Q5</v>
+        <v>U5</v>
       </c>
       <c r="E9" s="137" t="str">
         <f t="shared" si="0"/>
@@ -15340,15 +15411,15 @@
       </c>
       <c r="F9" s="138" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MQ5_Quote</v>
+        <v>USDFUT3MU5_Quote</v>
       </c>
       <c r="G9" s="177">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="H9" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F9,$D9,$E9,$G9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004fc#0002</v>
+        <v>obj_004e1#0003</v>
       </c>
       <c r="I9" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -15366,7 +15437,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="141" t="str">
-        <v>U5</v>
+        <v>V5</v>
       </c>
       <c r="E10" s="137" t="str">
         <f t="shared" si="0"/>
@@ -15374,15 +15445,15 @@
       </c>
       <c r="F10" s="138" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MU5_Quote</v>
+        <v>USDFUT3MV5_Quote</v>
       </c>
       <c r="G10" s="177">
         <f t="shared" si="2"/>
-        <v>4.8999999999999998E-5</v>
+        <v>0</v>
       </c>
       <c r="H10" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F10,$D10,$E10,$G10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00505#0002</v>
+        <v>obj_004cf#0003</v>
       </c>
       <c r="I10" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -15400,7 +15471,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="141" t="str">
-        <v>V5</v>
+        <v>X5</v>
       </c>
       <c r="E11" s="137" t="str">
         <f t="shared" si="0"/>
@@ -15408,7 +15479,7 @@
       </c>
       <c r="F11" s="138" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MV5_Quote</v>
+        <v>USDFUT3MX5_Quote</v>
       </c>
       <c r="G11" s="177">
         <f t="shared" si="2"/>
@@ -15416,7 +15487,7 @@
       </c>
       <c r="H11" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F11,$D11,$E11,$G11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00508#0002</v>
+        <v>obj_004df#0003</v>
       </c>
       <c r="I11" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -15434,7 +15505,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="141" t="str">
-        <v>X5</v>
+        <v>Z5</v>
       </c>
       <c r="E12" s="137" t="str">
         <f t="shared" si="0"/>
@@ -15442,15 +15513,15 @@
       </c>
       <c r="F12" s="138" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MX5_Quote</v>
+        <v>USDFUT3MZ5_Quote</v>
       </c>
       <c r="G12" s="177">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.9000000000000009E-5</v>
       </c>
       <c r="H12" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F12,$D12,$E12,$G12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004ff#0002</v>
+        <v>obj_004d4#0003</v>
       </c>
       <c r="I12" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -15468,7 +15539,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="141" t="str">
-        <v>Z5</v>
+        <v>F6</v>
       </c>
       <c r="E13" s="137" t="str">
         <f t="shared" si="0"/>
@@ -15476,15 +15547,15 @@
       </c>
       <c r="F13" s="138" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MZ5_Quote</v>
+        <v>USDFUT3MF6_Quote</v>
       </c>
       <c r="G13" s="177">
         <f t="shared" si="2"/>
-        <v>7.9000000000000009E-5</v>
+        <v>0</v>
       </c>
       <c r="H13" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F13,$D13,$E13,$G13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004f4#0002</v>
+        <v>obj_004e5#0003</v>
       </c>
       <c r="I13" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -15502,7 +15573,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="141" t="str">
-        <v>F6</v>
+        <v>G6</v>
       </c>
       <c r="E14" s="137" t="str">
         <f t="shared" si="0"/>
@@ -15510,7 +15581,7 @@
       </c>
       <c r="F14" s="138" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MF6_Quote</v>
+        <v>USDFUT3MG6_Quote</v>
       </c>
       <c r="G14" s="177">
         <f t="shared" si="2"/>
@@ -15518,7 +15589,7 @@
       </c>
       <c r="H14" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F14,$D14,$E14,$G14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e6#0002</v>
+        <v>obj_004ca#0003</v>
       </c>
       <c r="I14" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -15552,7 +15623,7 @@
       </c>
       <c r="H15" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F15,$D15,$E15,$G15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00509#0002</v>
+        <v>obj_004c9#0003</v>
       </c>
       <c r="I15" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -15586,7 +15657,7 @@
       </c>
       <c r="H16" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F16,$D16,$E16,$G16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00500#0002</v>
+        <v>obj_004d9#0003</v>
       </c>
       <c r="I16" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -15620,7 +15691,7 @@
       </c>
       <c r="H17" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F17,$D17,$E17,$G17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0050d#0002</v>
+        <v>obj_004db#0003</v>
       </c>
       <c r="I17" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -15654,7 +15725,7 @@
       </c>
       <c r="H18" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F18,$D18,$E18,$G18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0050c#0002</v>
+        <v>obj_004d0#0003</v>
       </c>
       <c r="I18" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -15688,7 +15759,7 @@
       </c>
       <c r="H19" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F19,$D19,$E19,$G19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004ec#0002</v>
+        <v>obj_004e9#0003</v>
       </c>
       <c r="I19" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -15722,7 +15793,7 @@
       </c>
       <c r="H20" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F20,$D20,$E20,$G20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004ed#0002</v>
+        <v>obj_004cb#0003</v>
       </c>
       <c r="I20" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -15756,7 +15827,7 @@
       </c>
       <c r="H21" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F21,$D21,$E21,$G21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004fd#0002</v>
+        <v>obj_004ea#0003</v>
       </c>
       <c r="I21" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H21)</f>
@@ -15790,7 +15861,7 @@
       </c>
       <c r="H22" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F22,$D22,$E22,$G22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004fa#0002</v>
+        <v>obj_004e3#0003</v>
       </c>
       <c r="I22" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H22)</f>
@@ -15824,7 +15895,7 @@
       </c>
       <c r="H23" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F23,$D23,$E23,$G23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0050e#0002</v>
+        <v>obj_004c7#0003</v>
       </c>
       <c r="I23" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H23)</f>
@@ -15858,7 +15929,7 @@
       </c>
       <c r="H24" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F24,$D24,$E24,$G24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0050a#0002</v>
+        <v>obj_004cc#0003</v>
       </c>
       <c r="I24" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H24)</f>
@@ -15892,7 +15963,7 @@
       </c>
       <c r="H25" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F25,$D25,$E25,$G25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004fe#0002</v>
+        <v>obj_004c4#0003</v>
       </c>
       <c r="I25" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H25)</f>
@@ -15926,7 +15997,7 @@
       </c>
       <c r="H26" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F26,$D26,$E26,$G26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004f0#0002</v>
+        <v>obj_004d2#0003</v>
       </c>
       <c r="I26" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H26)</f>
@@ -15960,7 +16031,7 @@
       </c>
       <c r="H27" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F27,$D27,$E27,$G27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00503#0002</v>
+        <v>obj_004e6#0003</v>
       </c>
       <c r="I27" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H27)</f>
@@ -15994,7 +16065,7 @@
       </c>
       <c r="H28" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F28,$D28,$E28,$G28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004ef#0002</v>
+        <v>obj_004cd#0003</v>
       </c>
       <c r="I28" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H28)</f>
@@ -16028,7 +16099,7 @@
       </c>
       <c r="H29" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F29,$D29,$E29,$G29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004f7#0002</v>
+        <v>obj_004ce#0003</v>
       </c>
       <c r="I29" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H29)</f>
@@ -16062,7 +16133,7 @@
       </c>
       <c r="H30" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F30,$D30,$E30,$G30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e5#0002</v>
+        <v>obj_004e7#0003</v>
       </c>
       <c r="I30" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H30)</f>
@@ -16096,7 +16167,7 @@
       </c>
       <c r="H31" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F31,$D31,$E31,$G31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00504#0002</v>
+        <v>obj_004c5#0003</v>
       </c>
       <c r="I31" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H31)</f>
@@ -16130,7 +16201,7 @@
       </c>
       <c r="H32" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F32,$D32,$E32,$G32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004ee#0002</v>
+        <v>obj_004c2#0003</v>
       </c>
       <c r="I32" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H32)</f>
@@ -16164,7 +16235,7 @@
       </c>
       <c r="H33" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F33,$D33,$E33,$G33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004f8#0002</v>
+        <v>obj_004d3#0003</v>
       </c>
       <c r="I33" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H33)</f>
@@ -16198,7 +16269,7 @@
       </c>
       <c r="H34" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F34,$D34,$E34,$G34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004f5#0002</v>
+        <v>obj_004e2#0003</v>
       </c>
       <c r="I34" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H34)</f>
@@ -16232,7 +16303,7 @@
       </c>
       <c r="H35" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F35,$D35,$E35,$G35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00506#0002</v>
+        <v>obj_004d5#0003</v>
       </c>
       <c r="I35" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H35)</f>
@@ -16266,7 +16337,7 @@
       </c>
       <c r="H36" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F36,$D36,$E36,$G36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004f2#0002</v>
+        <v>obj_004dd#0003</v>
       </c>
       <c r="I36" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H36)</f>
@@ -16300,7 +16371,7 @@
       </c>
       <c r="H37" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F37,$D37,$E37,$G37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004fb#0002</v>
+        <v>obj_004e4#0003</v>
       </c>
       <c r="I37" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H37)</f>
@@ -16334,7 +16405,7 @@
       </c>
       <c r="H38" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F38,$D38,$E38,$G38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00502#0002</v>
+        <v>obj_004e8#0003</v>
       </c>
       <c r="I38" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H38)</f>
@@ -16368,7 +16439,7 @@
       </c>
       <c r="H39" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F39,$D39,$E39,$G39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004f3#0002</v>
+        <v>obj_004e0#0003</v>
       </c>
       <c r="I39" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H39)</f>
@@ -16402,7 +16473,7 @@
       </c>
       <c r="H40" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F40,$D40,$E40,$G40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004f6#0002</v>
+        <v>obj_004c3#0003</v>
       </c>
       <c r="I40" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H40)</f>
@@ -16435,7 +16506,7 @@
       </c>
       <c r="H41" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F41,$D41,$E41,$G41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00507#0002</v>
+        <v>obj_004da#0003</v>
       </c>
       <c r="I41" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H41)</f>
@@ -16468,7 +16539,7 @@
       </c>
       <c r="H42" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F42,$D42,$E42,$G42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004e9#0002</v>
+        <v>obj_004d6#0003</v>
       </c>
       <c r="I42" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H42)</f>
@@ -16501,7 +16572,7 @@
       </c>
       <c r="H43" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F43,$D43,$E43,$G43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004eb#0002</v>
+        <v>obj_004c8#0003</v>
       </c>
       <c r="I43" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H43)</f>
@@ -16534,7 +16605,7 @@
       </c>
       <c r="H44" s="139" t="str">
         <f>_xll.qlFuturesRateHelper(,$F44,$D44,$E44,$G44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00501#0002</v>
+        <v>obj_004de#0003</v>
       </c>
       <c r="I44" s="49" t="str">
         <f>_xll.ohRangeRetrieveError(H44)</f>
@@ -16660,7 +16731,7 @@
       <c r="J3" s="63"/>
       <c r="K3" s="148" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor(,$H$1,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor(,Currency,$H$1,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>obj_0040e#0002</v>
+        <v>obj_00445#0003</v>
       </c>
       <c r="L3" s="149" t="str">
         <f>_xll.ohRangeRetrieveError(K3)</f>
@@ -16719,7 +16790,7 @@
       </c>
       <c r="K5" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J5,$C5,Calendar,$F5,$G5,$H5,$K$3,$I5,B5,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0047e#0002</v>
+        <v>obj_0044e#0003</v>
       </c>
       <c r="L5" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K5)</f>
@@ -16766,7 +16837,7 @@
       </c>
       <c r="K6" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J6,$C6,Calendar,$F6,$G6,$H6,$K$3,$I6,B6,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0041b#0002</v>
+        <v>obj_00488#0003</v>
       </c>
       <c r="L6" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K6)</f>
@@ -16817,7 +16888,7 @@
       </c>
       <c r="K7" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J7,$C7,Calendar,$F7,$G7,$H7,$K$3,$I7,B7,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00476#0002</v>
+        <v>obj_0046d#0003</v>
       </c>
       <c r="L7" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K7)</f>
@@ -16868,7 +16939,7 @@
       </c>
       <c r="K8" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J8,$C8,Calendar,$F8,$G8,$H8,$K$3,$I8,B8,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00430#0002</v>
+        <v>obj_00474#0003</v>
       </c>
       <c r="L8" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K8)</f>
@@ -16915,7 +16986,7 @@
       </c>
       <c r="K9" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J9,$C9,Calendar,$F9,$G9,$H9,$K$3,$I9,B9,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00449#0002</v>
+        <v>obj_0046b#0003</v>
       </c>
       <c r="L9" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K9)</f>
@@ -16966,7 +17037,7 @@
       </c>
       <c r="K10" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J10,$C10,Calendar,$F10,$G10,$H10,$K$3,$I10,B10,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00481#0002</v>
+        <v>obj_0046e#0003</v>
       </c>
       <c r="L10" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K10)</f>
@@ -17008,7 +17079,7 @@
       </c>
       <c r="K11" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J11,$C11,Calendar,$F11,$G11,$H11,$K$3,$I11,B11,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0041a#0002</v>
+        <v>obj_00485#0003</v>
       </c>
       <c r="L11" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K11)</f>
@@ -17050,7 +17121,7 @@
       </c>
       <c r="K12" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J12,$C12,Calendar,$F12,$G12,$H12,$K$3,$I12,B12,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00412#0002</v>
+        <v>obj_00481#0003</v>
       </c>
       <c r="L12" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K12)</f>
@@ -17092,7 +17163,7 @@
       </c>
       <c r="K13" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J13,$C13,Calendar,$F13,$G13,$H13,$K$3,$I13,B13,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0041f#0002</v>
+        <v>obj_00484#0003</v>
       </c>
       <c r="L13" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K13)</f>
@@ -17134,7 +17205,7 @@
       </c>
       <c r="K14" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J14,$C14,Calendar,$F14,$G14,$H14,$K$3,$I14,B14,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00417#0002</v>
+        <v>obj_0047e#0003</v>
       </c>
       <c r="L14" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K14)</f>
@@ -17176,7 +17247,7 @@
       </c>
       <c r="K15" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J15,$C15,Calendar,$F15,$G15,$H15,$K$3,$I15,B15,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00420#0002</v>
+        <v>obj_0045d#0003</v>
       </c>
       <c r="L15" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K15)</f>
@@ -17218,7 +17289,7 @@
       </c>
       <c r="K16" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J16,$C16,Calendar,$F16,$G16,$H16,$K$3,$I16,B16,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00414#0002</v>
+        <v>obj_00470#0003</v>
       </c>
       <c r="L16" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K16)</f>
@@ -17260,7 +17331,7 @@
       </c>
       <c r="K17" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J17,$C17,Calendar,$F17,$G17,$H17,$K$3,$I17,B17,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00442#0002</v>
+        <v>obj_00486#0003</v>
       </c>
       <c r="L17" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K17)</f>
@@ -17302,7 +17373,7 @@
       </c>
       <c r="K18" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J18,$C18,Calendar,$F18,$G18,$H18,$K$3,$I18,B18,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00422#0002</v>
+        <v>obj_00450#0003</v>
       </c>
       <c r="L18" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K18)</f>
@@ -17344,7 +17415,7 @@
       </c>
       <c r="K19" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J19,$C19,Calendar,$F19,$G19,$H19,$K$3,$I19,B19,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00438#0002</v>
+        <v>obj_0047b#0003</v>
       </c>
       <c r="L19" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K19)</f>
@@ -17386,7 +17457,7 @@
       </c>
       <c r="K20" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J20,$C20,Calendar,$F20,$G20,$H20,$K$3,$I20,B20,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0045e#0002</v>
+        <v>obj_00477#0003</v>
       </c>
       <c r="L20" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K20)</f>
@@ -17428,7 +17499,7 @@
       </c>
       <c r="K21" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J21,$C21,Calendar,$F21,$G21,$H21,$K$3,$I21,B21,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00469#0002</v>
+        <v>obj_0047a#0003</v>
       </c>
       <c r="L21" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K21)</f>
@@ -17470,7 +17541,7 @@
       </c>
       <c r="K22" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J22,$C22,Calendar,$F22,$G22,$H22,$K$3,$I22,B22,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00431#0002</v>
+        <v>obj_00475#0003</v>
       </c>
       <c r="L22" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K22)</f>
@@ -17512,7 +17583,7 @@
       </c>
       <c r="K23" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J23,$C23,Calendar,$F23,$G23,$H23,$K$3,$I23,B23,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0046a#0002</v>
+        <v>obj_00476#0003</v>
       </c>
       <c r="L23" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K23)</f>
@@ -17554,7 +17625,7 @@
       </c>
       <c r="K24" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J24,$C24,Calendar,$F24,$G24,$H24,$K$3,$I24,B24,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0047f#0002</v>
+        <v>obj_00478#0003</v>
       </c>
       <c r="L24" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K24)</f>
@@ -17596,7 +17667,7 @@
       </c>
       <c r="K25" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J25,$C25,Calendar,$F25,$G25,$H25,$K$3,$I25,B25,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00460#0002</v>
+        <v>obj_0047c#0003</v>
       </c>
       <c r="L25" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K25)</f>
@@ -17638,7 +17709,7 @@
       </c>
       <c r="K26" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J26,$C26,Calendar,$F26,$G26,$H26,$K$3,$I26,B26,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0044e#0002</v>
+        <v>obj_0045f#0003</v>
       </c>
       <c r="L26" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K26)</f>
@@ -17680,7 +17751,7 @@
       </c>
       <c r="K27" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J27,$C27,Calendar,$F27,$G27,$H27,$K$3,$I27,B27,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00416#0002</v>
+        <v>obj_00472#0003</v>
       </c>
       <c r="L27" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K27)</f>
@@ -17722,7 +17793,7 @@
       </c>
       <c r="K28" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J28,$C28,Calendar,$F28,$G28,$H28,$K$3,$I28,B28,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00475#0002</v>
+        <v>obj_00460#0003</v>
       </c>
       <c r="L28" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K28)</f>
@@ -17764,7 +17835,7 @@
       </c>
       <c r="K29" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J29,$C29,Calendar,$F29,$G29,$H29,$K$3,$I29,B29,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00411#0002</v>
+        <v>obj_00471#0003</v>
       </c>
       <c r="L29" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K29)</f>
@@ -17806,7 +17877,7 @@
       </c>
       <c r="K30" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J30,$C30,Calendar,$F30,$G30,$H30,$K$3,$I30,B30,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00415#0002</v>
+        <v>obj_00483#0003</v>
       </c>
       <c r="L30" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K30)</f>
@@ -17848,7 +17919,7 @@
       </c>
       <c r="K31" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J31,$C31,Calendar,$F31,$G31,$H31,$K$3,$I31,B31,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00465#0002</v>
+        <v>obj_00487#0003</v>
       </c>
       <c r="L31" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K31)</f>
@@ -17890,7 +17961,7 @@
       </c>
       <c r="K32" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J32,$C32,Calendar,$F32,$G32,$H32,$K$3,$I32,B32,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00454#0002</v>
+        <v>obj_00480#0003</v>
       </c>
       <c r="L32" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K32)</f>
@@ -17932,7 +18003,7 @@
       </c>
       <c r="K33" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J33,$C33,Calendar,$F33,$G33,$H33,$K$3,$I33,B33,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0042f#0002</v>
+        <v>obj_00473#0003</v>
       </c>
       <c r="L33" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K33)</f>
@@ -17974,7 +18045,7 @@
       </c>
       <c r="K34" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J34,$C34,Calendar,$F34,$G34,$H34,$K$3,$I34,B34,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0041d#0002</v>
+        <v>obj_0047f#0003</v>
       </c>
       <c r="L34" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K34)</f>
@@ -18016,7 +18087,7 @@
       </c>
       <c r="K35" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J35,$C35,Calendar,$F35,$G35,$H35,$K$3,$I35,B35,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0042e#0002</v>
+        <v>obj_00482#0003</v>
       </c>
       <c r="L35" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K35)</f>
@@ -18058,7 +18129,7 @@
       </c>
       <c r="K36" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J36,$C36,Calendar,$F36,$G36,$H36,$K$3,$I36,B36,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0042d#0002</v>
+        <v>obj_0046c#0003</v>
       </c>
       <c r="L36" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K36)</f>
@@ -18100,7 +18171,7 @@
       </c>
       <c r="K37" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J37,$C37,Calendar,$F37,$G37,$H37,$K$3,$I37,B37,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00464#0002</v>
+        <v>obj_0046f#0003</v>
       </c>
       <c r="L37" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K37)</f>
@@ -18142,7 +18213,7 @@
       </c>
       <c r="K38" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J38,$C38,Calendar,$F38,$G38,$H38,$K$3,$I38,B38,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00480#0002</v>
+        <v>obj_0044d#0003</v>
       </c>
       <c r="L38" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K38)</f>
@@ -18184,7 +18255,7 @@
       </c>
       <c r="K39" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J39,$C39,Calendar,$F39,$G39,$H39,$K$3,$I39,B39,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00439#0002</v>
+        <v>obj_0047d#0003</v>
       </c>
       <c r="L39" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K39)</f>
@@ -18226,7 +18297,7 @@
       </c>
       <c r="K40" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J40,$C40,Calendar,$F40,$G40,$H40,$K$3,$I40,B40,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_0046f#0002</v>
+        <v>obj_0045e#0003</v>
       </c>
       <c r="L40" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K40)</f>
@@ -18268,7 +18339,7 @@
       </c>
       <c r="K41" s="153" t="str">
         <f>_xll.qlSwapRateHelper2(,$J41,$C41,Calendar,$F41,$G41,$H41,$K$3,$I41,B41,DiscountingCurve,Permanent,,ObjectOverwrite)</f>
-        <v>obj_00413#0002</v>
+        <v>obj_00479#0003</v>
       </c>
       <c r="L41" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(K41)</f>
@@ -18331,7 +18402,7 @@
       </c>
       <c r="L43" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K43)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M43" s="147"/>
     </row>
@@ -18373,7 +18444,7 @@
       </c>
       <c r="L44" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K44)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M44" s="147"/>
     </row>
@@ -18415,7 +18486,7 @@
       </c>
       <c r="L45" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K45)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M45" s="147"/>
     </row>
@@ -18457,7 +18528,7 @@
       </c>
       <c r="L46" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K46)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M46" s="147"/>
     </row>
@@ -18499,7 +18570,7 @@
       </c>
       <c r="L47" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K47)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M47" s="147"/>
     </row>
@@ -18541,7 +18612,7 @@
       </c>
       <c r="L48" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K48)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M48" s="147"/>
     </row>
@@ -18583,7 +18654,7 @@
       </c>
       <c r="L49" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K49)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M49" s="147"/>
     </row>
@@ -18625,7 +18696,7 @@
       </c>
       <c r="L50" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K50)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M50" s="147"/>
     </row>
@@ -18667,7 +18738,7 @@
       </c>
       <c r="L51" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K51)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M51" s="147"/>
     </row>
@@ -18709,7 +18780,7 @@
       </c>
       <c r="L52" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K52)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M52" s="147"/>
     </row>
@@ -18751,7 +18822,7 @@
       </c>
       <c r="L53" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K53)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M53" s="147"/>
     </row>
@@ -18793,7 +18864,7 @@
       </c>
       <c r="L54" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K54)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M54" s="147"/>
     </row>
@@ -18835,7 +18906,7 @@
       </c>
       <c r="L55" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K55)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M55" s="147"/>
     </row>
@@ -18877,7 +18948,7 @@
       </c>
       <c r="L56" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K56)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M56" s="147"/>
     </row>
@@ -18919,7 +18990,7 @@
       </c>
       <c r="L57" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K57)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M57" s="147"/>
     </row>
@@ -18961,7 +19032,7 @@
       </c>
       <c r="L58" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K58)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M58" s="147"/>
     </row>
@@ -19003,7 +19074,7 @@
       </c>
       <c r="L59" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K59)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M59" s="147"/>
     </row>
@@ -19045,7 +19116,7 @@
       </c>
       <c r="L60" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K60)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M60" s="147"/>
     </row>
@@ -19087,7 +19158,7 @@
       </c>
       <c r="L61" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K61)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M61" s="147"/>
     </row>
@@ -19129,7 +19200,7 @@
       </c>
       <c r="L62" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K62)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M62" s="147"/>
     </row>
@@ -19171,7 +19242,7 @@
       </c>
       <c r="L63" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K63)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M63" s="147"/>
     </row>
@@ -19213,7 +19284,7 @@
       </c>
       <c r="L64" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K64)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M64" s="147"/>
     </row>
@@ -19255,7 +19326,7 @@
       </c>
       <c r="L65" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K65)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M65" s="147"/>
     </row>
@@ -19297,7 +19368,7 @@
       </c>
       <c r="L66" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K66)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M66" s="147"/>
     </row>
@@ -19339,7 +19410,7 @@
       </c>
       <c r="L67" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K67)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M67" s="147"/>
     </row>
@@ -19381,7 +19452,7 @@
       </c>
       <c r="L68" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K68)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M68" s="147"/>
     </row>
@@ -19423,7 +19494,7 @@
       </c>
       <c r="L69" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K69)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M69" s="147"/>
     </row>
@@ -19465,7 +19536,7 @@
       </c>
       <c r="L70" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K70)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M70" s="147"/>
     </row>
@@ -19507,7 +19578,7 @@
       </c>
       <c r="L71" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K71)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M71" s="147"/>
     </row>
@@ -19549,7 +19620,7 @@
       </c>
       <c r="L72" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K72)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M72" s="147"/>
     </row>
@@ -19591,7 +19662,7 @@
       </c>
       <c r="L73" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K73)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M73" s="147"/>
     </row>
@@ -19633,7 +19704,7 @@
       </c>
       <c r="L74" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K74)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M74" s="147"/>
     </row>
@@ -19675,7 +19746,7 @@
       </c>
       <c r="L75" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K75)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M75" s="147"/>
     </row>
@@ -19717,7 +19788,7 @@
       </c>
       <c r="L76" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K76)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M76" s="147"/>
     </row>
@@ -19759,7 +19830,7 @@
       </c>
       <c r="L77" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K77)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M77" s="147"/>
     </row>
@@ -19801,7 +19872,7 @@
       </c>
       <c r="L78" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K78)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M78" s="147"/>
     </row>
@@ -19843,7 +19914,7 @@
       </c>
       <c r="L79" s="146" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(K79)</f>
-        <v>qlSwapRateHelper2 - the string 'JoinHolidays' is not a valid joint calendar identifier</v>
+        <v/>
       </c>
       <c r="M79" s="147"/>
     </row>
@@ -19975,7 +20046,7 @@
       <c r="K3" s="63"/>
       <c r="L3" s="148" t="str">
         <f>_xll.qlLibor(,Currency,$F$1,K1,,Trigger)</f>
-        <v>obj_00427#0002</v>
+        <v>obj_0040e#0003</v>
       </c>
       <c r="M3" s="149" t="str">
         <f>_xll.ohRangeRetrieveError(L3)</f>
@@ -20021,23 +20092,23 @@
       </c>
       <c r="H5" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C5,2,Currency,Calendar,D5,E5,F5,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004ab#0003</v>
-      </c>
-      <c r="I5" s="151">
+        <v>obj_00417#0003</v>
+      </c>
+      <c r="I5" s="151" t="e">
         <f>_xll.qlIndexFixing(H5,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H5)</f>
-        <v>4.0175643679979701E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="J5" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C5&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L1Y_Quote#0002</v>
+        <v>USD3L1Y_Quote#0003</v>
       </c>
       <c r="K5" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J5,I5,I5)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L5" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J5,$C5,Calendar,"Annual",$E5,$F5,$L$3,$G5,B5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004b6#0003</v>
+        <v>obj_0048c#0003</v>
       </c>
       <c r="M5" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L5)</f>
@@ -20069,23 +20140,23 @@
       </c>
       <c r="H6" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C6,2,Currency,Calendar,D6,E6,F6,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0045c#0003</v>
-      </c>
-      <c r="I6" s="151">
+        <v>obj_00437#0003</v>
+      </c>
+      <c r="I6" s="151" t="e">
         <f>_xll.qlIndexFixing(H6,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H6)</f>
-        <v>4.8452625439425788E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="J6" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C6&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L15M_Quote#0002</v>
+        <v>USD3L15M_Quote#0003</v>
       </c>
       <c r="K6" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J6,I6,I6)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L6" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J6,$C6,Calendar,"Annual",$E6,$F6,$L$3,$G6,B6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004bd#0003</v>
+        <v>obj_00499#0003</v>
       </c>
       <c r="M6" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L6)</f>
@@ -20117,23 +20188,23 @@
       </c>
       <c r="H7" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C7,2,Currency,Calendar,D7,E7,F7,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00441#0003</v>
-      </c>
-      <c r="I7" s="151">
+        <v>obj_0041e#0003</v>
+      </c>
+      <c r="I7" s="151" t="e">
         <f>_xll.qlIndexFixing(H7,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H7)</f>
-        <v>5.73585263275154E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="J7" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C7&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L18M_Quote#0002</v>
+        <v>USD3L18M_Quote#0003</v>
       </c>
       <c r="K7" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J7,I7,I7)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L7" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J7,$C7,Calendar,"Annual",$E7,$F7,$L$3,$G7,B7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00472#0003</v>
+        <v>obj_00491#0003</v>
       </c>
       <c r="M7" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L7)</f>
@@ -20165,23 +20236,23 @@
       </c>
       <c r="H8" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C8,2,Currency,Calendar,D8,E8,F8,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00428#0003</v>
-      </c>
-      <c r="I8" s="151">
+        <v>obj_0041c#0003</v>
+      </c>
+      <c r="I8" s="151" t="e">
         <f>_xll.qlIndexFixing(H8,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H8)</f>
-        <v>6.6728405116944604E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="J8" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C8&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L21M_Quote#0002</v>
+        <v>USD3L21M_Quote#0003</v>
       </c>
       <c r="K8" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J8,I8,I8)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L8" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J8,$C8,Calendar,"Annual",$E8,$F8,$L$3,$G8,B8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004d1#0003</v>
+        <v>obj_004aa#0003</v>
       </c>
       <c r="M8" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L8)</f>
@@ -20213,23 +20284,23 @@
       </c>
       <c r="H9" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C9,2,Currency,Calendar,D9,E9,F9,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0045b#0003</v>
-      </c>
-      <c r="I9" s="151">
+        <v>obj_0044b#0003</v>
+      </c>
+      <c r="I9" s="151" t="e">
         <f>_xll.qlIndexFixing(H9,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H9)</f>
-        <v>7.5712729568738323E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="J9" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C9&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L2Y_Quote#0002</v>
+        <v>USD3L2Y_Quote#0003</v>
       </c>
       <c r="K9" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J9,I9,I9)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L9" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J9,$C9,Calendar,"Annual",$E9,$F9,$L$3,$G9,B9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004bf#0003</v>
+        <v>obj_0049a#0003</v>
       </c>
       <c r="M9" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -20261,23 +20332,23 @@
       </c>
       <c r="H10" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C10,2,Currency,Calendar,D10,E10,F10,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00474#0003</v>
-      </c>
-      <c r="I10" s="151">
+        <v>obj_00438#0003</v>
+      </c>
+      <c r="I10" s="151" t="e">
         <f>_xll.qlIndexFixing(H10,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H10)</f>
-        <v>1.0690000000023014E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J10" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C10&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L3Y_Quote#0002</v>
+        <v>USD3L3Y_Quote#0003</v>
       </c>
       <c r="K10" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J10,I10,I10)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L10" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J10,$C10,Calendar,"Annual",$E10,$F10,$L$3,$G10,B10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004bb#0003</v>
+        <v>obj_00490#0003</v>
       </c>
       <c r="M10" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -20310,23 +20381,23 @@
       </c>
       <c r="H11" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C11,2,Currency,Calendar,D11,E11,F11,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00436#0003</v>
-      </c>
-      <c r="I11" s="151">
+        <v>obj_0042c#0003</v>
+      </c>
+      <c r="I11" s="151" t="e">
         <f>_xll.qlIndexFixing(H11,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H11)</f>
-        <v>1.3060000000042676E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J11" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C11&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L4Y_Quote#0002</v>
+        <v>USD3L4Y_Quote#0003</v>
       </c>
       <c r="K11" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J11,I11,I11)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L11" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J11,$C11,Calendar,"Annual",$E11,$F11,$L$3,$G11,B11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00448#0003</v>
+        <v>obj_00457#0003</v>
       </c>
       <c r="M11" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -20359,23 +20430,23 @@
       </c>
       <c r="H12" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C12,2,Currency,Calendar,D12,E12,F12,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0045a#0003</v>
-      </c>
-      <c r="I12" s="151">
+        <v>obj_0043f#0003</v>
+      </c>
+      <c r="I12" s="151" t="e">
         <f>_xll.qlIndexFixing(H12,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H12)</f>
-        <v>1.4810000000032564E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J12" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C12&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L5Y_Quote#0002</v>
+        <v>USD3L5Y_Quote#0003</v>
       </c>
       <c r="K12" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J12,I12,I12)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L12" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J12,$C12,Calendar,"Annual",$E12,$F12,$L$3,$G12,B12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004a7#0003</v>
+        <v>obj_00463#0003</v>
       </c>
       <c r="M12" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -20408,23 +20479,23 @@
       </c>
       <c r="H13" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C13,2,Currency,Calendar,D13,E13,F13,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004b5#0003</v>
-      </c>
-      <c r="I13" s="151">
+        <v>obj_00444#0003</v>
+      </c>
+      <c r="I13" s="151" t="e">
         <f>_xll.qlIndexFixing(H13,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H13)</f>
-        <v>1.612000000003274E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J13" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C13&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L6Y_Quote#0002</v>
+        <v>USD3L6Y_Quote#0003</v>
       </c>
       <c r="K13" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J13,I13,I13)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L13" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J13,$C13,Calendar,"Annual",$E13,$F13,$L$3,$G13,B13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004c0#0003</v>
+        <v>obj_0049f#0003</v>
       </c>
       <c r="M13" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -20457,23 +20528,23 @@
       </c>
       <c r="H14" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C14,2,Currency,Calendar,D14,E14,F14,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00463#0003</v>
-      </c>
-      <c r="I14" s="151">
+        <v>obj_00430#0003</v>
+      </c>
+      <c r="I14" s="151" t="e">
         <f>_xll.qlIndexFixing(H14,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H14)</f>
-        <v>1.717000000002613E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J14" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C14&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L7Y_Quote#0002</v>
+        <v>USD3L7Y_Quote#0003</v>
       </c>
       <c r="K14" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J14,I14,I14)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L14" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J14,$C14,Calendar,"Annual",$E14,$F14,$L$3,$G14,B14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0043d#0003</v>
+        <v>obj_00493#0003</v>
       </c>
       <c r="M14" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -20506,23 +20577,23 @@
       </c>
       <c r="H15" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C15,2,Currency,Calendar,D15,E15,F15,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00429#0003</v>
-      </c>
-      <c r="I15" s="151">
+        <v>obj_0042b#0003</v>
+      </c>
+      <c r="I15" s="151" t="e">
         <f>_xll.qlIndexFixing(H15,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H15)</f>
-        <v>1.8010000000027792E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J15" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C15&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L8Y_Quote#0002</v>
+        <v>USD3L8Y_Quote#0003</v>
       </c>
       <c r="K15" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J15,I15,I15)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L15" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J15,$C15,Calendar,"Annual",$E15,$F15,$L$3,$G15,B15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00478#0003</v>
+        <v>obj_0048b#0003</v>
       </c>
       <c r="M15" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -20555,23 +20626,23 @@
       </c>
       <c r="H16" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C16,2,Currency,Calendar,D16,E16,F16,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00440#0003</v>
-      </c>
-      <c r="I16" s="151">
+        <v>obj_00410#0003</v>
+      </c>
+      <c r="I16" s="151" t="e">
         <f>_xll.qlIndexFixing(H16,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H16)</f>
-        <v>1.8729999999997058E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J16" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C16&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L9Y_Quote#0002</v>
+        <v>USD3L9Y_Quote#0003</v>
       </c>
       <c r="K16" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J16,I16,I16)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L16" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J16,$C16,Calendar,"Annual",$E16,$F16,$L$3,$G16,B16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0044d#0003</v>
+        <v>obj_0042e#0003</v>
       </c>
       <c r="M16" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -20604,23 +20675,23 @@
       </c>
       <c r="H17" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C17,2,Currency,Calendar,D17,E17,F17,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0042a#0003</v>
-      </c>
-      <c r="I17" s="151">
+        <v>obj_0043b#0003</v>
+      </c>
+      <c r="I17" s="151" t="e">
         <f>_xll.qlIndexFixing(H17,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H17)</f>
-        <v>1.9330000000004087E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J17" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C17&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L10Y_Quote#0002</v>
+        <v>USD3L10Y_Quote#0003</v>
       </c>
       <c r="K17" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J17,I17,I17)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L17" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J17,$C17,Calendar,"Annual",$E17,$F17,$L$3,$G17,B17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00451#0003</v>
+        <v>obj_00452#0003</v>
       </c>
       <c r="M17" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -20653,23 +20724,23 @@
       </c>
       <c r="H18" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C18,2,Currency,Calendar,D18,E18,F18,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00447#0003</v>
-      </c>
-      <c r="I18" s="151">
+        <v>obj_0044f#0003</v>
+      </c>
+      <c r="I18" s="151" t="e">
         <f>_xll.qlIndexFixing(H18,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H18)</f>
-        <v>1.9841224533825013E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J18" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C18&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L11Y_Quote#0002</v>
+        <v>USD3L11Y_Quote#0003</v>
       </c>
       <c r="K18" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J18,I18,I18)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L18" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J18,$C18,Calendar,"Annual",$E18,$F18,$L$3,$G18,B18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004b7#0003</v>
+        <v>obj_00492#0003</v>
       </c>
       <c r="M18" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L18)</f>
@@ -20702,23 +20773,23 @@
       </c>
       <c r="H19" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C19,2,Currency,Calendar,D19,E19,F19,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00452#0003</v>
-      </c>
-      <c r="I19" s="151">
+        <v>obj_00458#0003</v>
+      </c>
+      <c r="I19" s="151" t="e">
         <f>_xll.qlIndexFixing(H19,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H19)</f>
-        <v>2.0280000000016757E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J19" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C19&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L12Y_Quote#0002</v>
+        <v>USD3L12Y_Quote#0003</v>
       </c>
       <c r="K19" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J19,I19,I19)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L19" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J19,$C19,Calendar,"Annual",$E19,$F19,$L$3,$G19,B19,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004be#0003</v>
+        <v>obj_004ac#0003</v>
       </c>
       <c r="M19" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -20751,23 +20822,23 @@
       </c>
       <c r="H20" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C20,2,Currency,Calendar,D20,E20,F20,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0045d#0003</v>
-      </c>
-      <c r="I20" s="151">
+        <v>obj_00459#0003</v>
+      </c>
+      <c r="I20" s="151" t="e">
         <f>_xll.qlIndexFixing(H20,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H20)</f>
-        <v>2.0659150602021899E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J20" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C20&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L13Y_Quote#0002</v>
+        <v>USD3L13Y_Quote#0003</v>
       </c>
       <c r="K20" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J20,I20,I20)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L20" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J20,$C20,Calendar,"Annual",$E20,$F20,$L$3,$G20,B20,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004c1#0003</v>
+        <v>obj_0049b#0003</v>
       </c>
       <c r="M20" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L20)</f>
@@ -20800,23 +20871,23 @@
       </c>
       <c r="H21" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C21,2,Currency,Calendar,D21,E21,F21,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0046d#0003</v>
-      </c>
-      <c r="I21" s="151">
+        <v>obj_00414#0003</v>
+      </c>
+      <c r="I21" s="151" t="e">
         <f>_xll.qlIndexFixing(H21,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H21)</f>
-        <v>2.0985020870918865E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J21" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C21&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L14Y_Quote#0002</v>
+        <v>USD3L14Y_Quote#0003</v>
       </c>
       <c r="K21" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J21,I21,I21)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L21" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J21,$C21,Calendar,"Annual",$E21,$F21,$L$3,$G21,B21,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00473#0003</v>
+        <v>obj_00468#0003</v>
       </c>
       <c r="M21" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L21)</f>
@@ -20849,23 +20920,23 @@
       </c>
       <c r="H22" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C22,2,Currency,Calendar,D22,E22,F22,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0044c#0003</v>
-      </c>
-      <c r="I22" s="151">
+        <v>obj_0041f#0003</v>
+      </c>
+      <c r="I22" s="151" t="e">
         <f>_xll.qlIndexFixing(H22,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H22)</f>
-        <v>2.1270000000167457E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J22" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C22&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L15Y_Quote#0002</v>
+        <v>USD3L15Y_Quote#0003</v>
       </c>
       <c r="K22" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J22,I22,I22)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L22" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J22,$C22,Calendar,"Annual",$E22,$F22,$L$3,$G22,B22,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004cf#0003</v>
+        <v>obj_0049e#0003</v>
       </c>
       <c r="M22" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -20898,23 +20969,23 @@
       </c>
       <c r="H23" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C23,2,Currency,Calendar,D23,E23,F23,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004b3#0003</v>
-      </c>
-      <c r="I23" s="151">
+        <v>obj_00428#0003</v>
+      </c>
+      <c r="I23" s="151" t="e">
         <f>_xll.qlIndexFixing(H23,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H23)</f>
-        <v>2.1521058235063319E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J23" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C23&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L16Y_Quote#0002</v>
+        <v>USD3L16Y_Quote#0003</v>
       </c>
       <c r="K23" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J23,I23,I23)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L23" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J23,$C23,Calendar,"Annual",$E23,$F23,$L$3,$G23,B23,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0043b#0003</v>
+        <v>obj_0048e#0003</v>
       </c>
       <c r="M23" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L23)</f>
@@ -20947,23 +21018,23 @@
       </c>
       <c r="H24" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C24,2,Currency,Calendar,D24,E24,F24,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004af#0003</v>
-      </c>
-      <c r="I24" s="151">
+        <v>obj_00424#0003</v>
+      </c>
+      <c r="I24" s="151" t="e">
         <f>_xll.qlIndexFixing(H24,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H24)</f>
-        <v>2.1741526308705982E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J24" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C24&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L17Y_Quote#0002</v>
+        <v>USD3L17Y_Quote#0003</v>
       </c>
       <c r="K24" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J24,I24,I24)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L24" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J24,$C24,Calendar,"Annual",$E24,$F24,$L$3,$G24,B24,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004c5#0003</v>
+        <v>obj_004a4#0003</v>
       </c>
       <c r="M24" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L24)</f>
@@ -20996,23 +21067,23 @@
       </c>
       <c r="H25" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C25,2,Currency,Calendar,D25,E25,F25,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004b0#0003</v>
-      </c>
-      <c r="I25" s="151">
+        <v>obj_00434#0003</v>
+      </c>
+      <c r="I25" s="151" t="e">
         <f>_xll.qlIndexFixing(H25,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H25)</f>
-        <v>2.1934652770871962E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J25" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C25&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L18Y_Quote#0002</v>
+        <v>USD3L18Y_Quote#0003</v>
       </c>
       <c r="K25" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J25,I25,I25)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L25" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J25,$C25,Calendar,"Annual",$E25,$F25,$L$3,$G25,B25,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004d0#0003</v>
+        <v>obj_0049d#0003</v>
       </c>
       <c r="M25" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L25)</f>
@@ -21045,23 +21116,23 @@
       </c>
       <c r="H26" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C26,2,Currency,Calendar,D26,E26,F26,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004b4#0003</v>
-      </c>
-      <c r="I26" s="151">
+        <v>obj_0045c#0003</v>
+      </c>
+      <c r="I26" s="151" t="e">
         <f>_xll.qlIndexFixing(H26,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H26)</f>
-        <v>2.2099578888368231E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J26" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C26&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L19Y_Quote#0002</v>
+        <v>USD3L19Y_Quote#0003</v>
       </c>
       <c r="K26" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J26,I26,I26)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L26" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J26,$C26,Calendar,"Annual",$E26,$F26,$L$3,$G26,B26,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004b1#0003</v>
+        <v>obj_00442#0003</v>
       </c>
       <c r="M26" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L26)</f>
@@ -21094,23 +21165,23 @@
       </c>
       <c r="H27" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C27,2,Currency,Calendar,D27,E27,F27,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004aa#0003</v>
-      </c>
-      <c r="I27" s="151">
+        <v>obj_00425#0003</v>
+      </c>
+      <c r="I27" s="151" t="e">
         <f>_xll.qlIndexFixing(H27,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H27)</f>
-        <v>2.2239999999961395E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J27" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C27&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L20Y_Quote#0002</v>
+        <v>USD3L20Y_Quote#0003</v>
       </c>
       <c r="K27" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J27,I27,I27)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L27" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J27,$C27,Calendar,"Annual",$E27,$F27,$L$3,$G27,B27,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00444#0003</v>
+        <v>obj_00498#0003</v>
       </c>
       <c r="M27" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -21143,23 +21214,23 @@
       </c>
       <c r="H28" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C28,2,Currency,Calendar,D28,E28,F28,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004ad#0003</v>
-      </c>
-      <c r="I28" s="151">
+        <v>obj_0041a#0003</v>
+      </c>
+      <c r="I28" s="151" t="e">
         <f>_xll.qlIndexFixing(H28,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H28)</f>
-        <v>2.2357418601128345E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J28" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C28&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L21Y_Quote#0002</v>
+        <v>USD3L21Y_Quote#0003</v>
       </c>
       <c r="K28" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J28,I28,I28)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L28" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J28,$C28,Calendar,"Annual",$E28,$F28,$L$3,$G28,B28,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0044b#0003</v>
+        <v>obj_0048a#0003</v>
       </c>
       <c r="M28" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L28)</f>
@@ -21192,23 +21263,23 @@
       </c>
       <c r="H29" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C29,2,Currency,Calendar,D29,E29,F29,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00468#0003</v>
-      </c>
-      <c r="I29" s="151">
+        <v>obj_00427#0003</v>
+      </c>
+      <c r="I29" s="151" t="e">
         <f>_xll.qlIndexFixing(H29,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H29)</f>
-        <v>2.2456509198119787E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J29" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C29&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L22Y_Quote#0002</v>
+        <v>USD3L22Y_Quote#0003</v>
       </c>
       <c r="K29" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J29,I29,I29)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L29" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J29,$C29,Calendar,"Annual",$E29,$F29,$L$3,$G29,B29,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00467#0003</v>
+        <v>obj_0044c#0003</v>
       </c>
       <c r="M29" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L29)</f>
@@ -21241,23 +21312,23 @@
       </c>
       <c r="H30" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C30,2,Currency,Calendar,D30,E30,F30,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004a9#0003</v>
-      </c>
-      <c r="I30" s="151">
+        <v>obj_00433#0003</v>
+      </c>
+      <c r="I30" s="151" t="e">
         <f>_xll.qlIndexFixing(H30,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H30)</f>
-        <v>2.2540684371693469E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J30" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C30&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L23Y_Quote#0002</v>
+        <v>USD3L23Y_Quote#0003</v>
       </c>
       <c r="K30" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J30,I30,I30)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L30" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J30,$C30,Calendar,"Annual",$E30,$F30,$L$3,$G30,B30,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0047d#0003</v>
+        <v>obj_00432#0003</v>
       </c>
       <c r="M30" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L30)</f>
@@ -21290,23 +21361,23 @@
       </c>
       <c r="H31" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C31,2,Currency,Calendar,D31,E31,F31,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004b2#0003</v>
-      </c>
-      <c r="I31" s="151">
+        <v>obj_00435#0003</v>
+      </c>
+      <c r="I31" s="151" t="e">
         <f>_xll.qlIndexFixing(H31,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H31)</f>
-        <v>2.2614672666689525E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J31" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C31&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L24Y_Quote#0002</v>
+        <v>USD3L24Y_Quote#0003</v>
       </c>
       <c r="K31" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J31,I31,I31)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L31" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J31,$C31,Calendar,"Annual",$E31,$F31,$L$3,$G31,B31,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004b9#0003</v>
+        <v>obj_0048f#0003</v>
       </c>
       <c r="M31" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L31)</f>
@@ -21339,23 +21410,23 @@
       </c>
       <c r="H32" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C32,2,Currency,Calendar,D32,E32,F32,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0047c#0003</v>
-      </c>
-      <c r="I32" s="151">
+        <v>obj_00423#0003</v>
+      </c>
+      <c r="I32" s="151" t="e">
         <f>_xll.qlIndexFixing(H32,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H32)</f>
-        <v>2.2679999999926412E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J32" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C32&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L25Y_Quote#0002</v>
+        <v>USD3L25Y_Quote#0003</v>
       </c>
       <c r="K32" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J32,I32,I32)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L32" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J32,$C32,Calendar,"Annual",$E32,$F32,$L$3,$G32,B32,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00462#0003</v>
+        <v>obj_00421#0003</v>
       </c>
       <c r="M32" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -21388,23 +21459,23 @@
       </c>
       <c r="H33" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C33,2,Currency,Calendar,D33,E33,F33,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0042b#0003</v>
-      </c>
-      <c r="I33" s="151">
+        <v>obj_00447#0003</v>
+      </c>
+      <c r="I33" s="151" t="e">
         <f>_xll.qlIndexFixing(H33,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H33)</f>
-        <v>2.2739926795594712E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J33" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C33&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L26Y_Quote#0002</v>
+        <v>USD3L26Y_Quote#0003</v>
       </c>
       <c r="K33" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J33,I33,I33)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L33" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J33,$C33,Calendar,"Annual",$E33,$F33,$L$3,$G33,B33,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004a8#0003</v>
+        <v>obj_00454#0003</v>
       </c>
       <c r="M33" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L33)</f>
@@ -21437,23 +21508,23 @@
       </c>
       <c r="H34" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C34,2,Currency,Calendar,D34,E34,F34,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0046e#0003</v>
-      </c>
-      <c r="I34" s="151">
+        <v>obj_00422#0003</v>
+      </c>
+      <c r="I34" s="151" t="e">
         <f>_xll.qlIndexFixing(H34,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H34)</f>
-        <v>2.2795018835150001E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J34" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C34&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L27Y_Quote#0002</v>
+        <v>USD3L27Y_Quote#0003</v>
       </c>
       <c r="K34" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J34,I34,I34)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L34" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J34,$C34,Calendar,"Annual",$E34,$F34,$L$3,$G34,B34,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00459#0003</v>
+        <v>obj_00497#0003</v>
       </c>
       <c r="M34" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L34)</f>
@@ -21486,23 +21557,23 @@
       </c>
       <c r="H35" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C35,2,Currency,Calendar,D35,E35,F35,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0043f#0003</v>
-      </c>
-      <c r="I35" s="151">
+        <v>obj_00465#0003</v>
+      </c>
+      <c r="I35" s="151" t="e">
         <f>_xll.qlIndexFixing(H35,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H35)</f>
-        <v>2.284626731113255E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J35" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C35&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L28Y_Quote#0002</v>
+        <v>USD3L28Y_Quote#0003</v>
       </c>
       <c r="K35" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J35,I35,I35)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L35" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J35,$C35,Calendar,"Annual",$E35,$F35,$L$3,$G35,B35,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004ba#0003</v>
+        <v>obj_0048d#0003</v>
       </c>
       <c r="M35" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L35)</f>
@@ -21535,23 +21606,23 @@
       </c>
       <c r="H36" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C36,2,Currency,Calendar,D36,E36,F36,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00437#0003</v>
-      </c>
-      <c r="I36" s="151">
+        <v>obj_0043c#0003</v>
+      </c>
+      <c r="I36" s="151" t="e">
         <f>_xll.qlIndexFixing(H36,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H36)</f>
-        <v>2.2894208168942057E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J36" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C36&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L29Y_Quote#0002</v>
+        <v>USD3L29Y_Quote#0003</v>
       </c>
       <c r="K36" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J36,I36,I36)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L36" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J36,$C36,Calendar,"Annual",$E36,$F36,$L$3,$G36,B36,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00457#0003</v>
+        <v>obj_00495#0003</v>
       </c>
       <c r="M36" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L36)</f>
@@ -21584,23 +21655,23 @@
       </c>
       <c r="H37" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C37,2,Currency,Calendar,D37,E37,F37,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004ac#0003</v>
-      </c>
-      <c r="I37" s="151">
+        <v>obj_00419#0003</v>
+      </c>
+      <c r="I37" s="151" t="e">
         <f>_xll.qlIndexFixing(H37,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H37)</f>
-        <v>2.2940000000055482E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J37" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C37&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L30Y_Quote#0002</v>
+        <v>USD3L30Y_Quote#0003</v>
       </c>
       <c r="K37" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J37,I37,I37)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L37" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J37,$C37,Calendar,"Annual",$E37,$F37,$L$3,$G37,B37,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004b8#0003</v>
+        <v>obj_00494#0003</v>
       </c>
       <c r="M37" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -21633,23 +21704,23 @@
       </c>
       <c r="H38" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C38,2,Currency,Calendar,D38,E38,F38,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00453#0003</v>
-      </c>
-      <c r="I38" s="151">
+        <v>obj_00466#0003</v>
+      </c>
+      <c r="I38" s="151" t="e">
         <f>_xll.qlIndexFixing(H38,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H38)</f>
-        <v>2.3119872738076315E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J38" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C38&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L35Y_Quote#0002</v>
+        <v>USD3L35Y_Quote#0003</v>
       </c>
       <c r="K38" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J38,I38,I38)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L38" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J38,$C38,Calendar,"Annual",$E38,$F38,$L$3,$G38,B38,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004c7#0003</v>
+        <v>obj_004a0#0003</v>
       </c>
       <c r="M38" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L38)</f>
@@ -21682,23 +21753,23 @@
       </c>
       <c r="H39" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C39,2,Currency,Calendar,D39,E39,F39,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00446#0003</v>
-      </c>
-      <c r="I39" s="151">
+        <v>obj_00449#0003</v>
+      </c>
+      <c r="I39" s="151" t="e">
         <f>_xll.qlIndexFixing(H39,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H39)</f>
-        <v>2.3170000000006432E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J39" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C39&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L40Y_Quote#0002</v>
+        <v>USD3L40Y_Quote#0003</v>
       </c>
       <c r="K39" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J39,I39,I39)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L39" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J39,$C39,Calendar,"Annual",$E39,$F39,$L$3,$G39,B39,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0047a#0003</v>
+        <v>obj_00489#0003</v>
       </c>
       <c r="M39" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -21731,23 +21802,23 @@
       </c>
       <c r="H40" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C40,2,Currency,Calendar,D40,E40,F40,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0042c#0003</v>
-      </c>
-      <c r="I40" s="151">
+        <v>obj_00418#0003</v>
+      </c>
+      <c r="I40" s="151" t="e">
         <f>_xll.qlIndexFixing(H40,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H40)</f>
-        <v>2.2940000000011489E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J40" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C40&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L50Y_Quote#0002</v>
+        <v>USD3L50Y_Quote#0003</v>
       </c>
       <c r="K40" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J40,I40,I40)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L40" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J40,$C40,Calendar,"Annual",$E40,$F40,$L$3,$G40,B40,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004cc#0003</v>
+        <v>obj_004a7#0003</v>
       </c>
       <c r="M40" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -21780,23 +21851,23 @@
       </c>
       <c r="H41" s="151" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",C41,2,Currency,Calendar,D41,E41,F41,$L$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_004ae#0003</v>
-      </c>
-      <c r="I41" s="151">
+        <v>obj_00416#0003</v>
+      </c>
+      <c r="I41" s="151" t="e">
         <f>_xll.qlIndexFixing(H41,_xll.qlSettingsEvaluationDate(Trigger),TRUE,H41)</f>
-        <v>2.2715430872463905E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="J41" s="152" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;C41&amp;QuoteSuffix,,,,Trigger)</f>
-        <v>USD3L60Y_Quote#0002</v>
+        <v>USD3L60Y_Quote#0003</v>
       </c>
       <c r="K41" s="152" t="e">
         <f>_xll.qlSimpleQuoteSetValue(J41,I41,I41)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="L41" s="187" t="str">
         <f>_xll.qlSwapRateHelper2(,J41,$C41,Calendar,"Annual",$E41,$F41,$L$3,$G41,B41,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_004bc#0003</v>
+        <v>obj_00496#0003</v>
       </c>
       <c r="M41" s="146" t="str">
         <f>_xll.ohRangeRetrieveError(L41)</f>

--- a/QuantLibXL/Data2/XLS/USD/USD_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL/Data2/XLS/USD/USD_YCSTDBootstrapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="9600" windowHeight="11895" tabRatio="726" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="9600" windowHeight="11895" tabRatio="726"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="6" r:id="rId1"/>
@@ -650,9 +650,6 @@
     <t>JoinHolidays</t>
   </si>
   <si>
-    <t>NullCalendar</t>
-  </si>
-  <si>
     <t>Futures Type</t>
   </si>
   <si>
@@ -669,6 +666,9 @@
   </si>
   <si>
     <t>AllDepos</t>
+  </si>
+  <si>
+    <t>UnitedKingdom::Exchange</t>
   </si>
 </sst>
 </file>
@@ -1938,7 +1938,9 @@
       <sheetName val="General Settings"/>
       <sheetName val="Libor"/>
       <sheetName val="Deposits"/>
-      <sheetName val="FRA"/>
+      <sheetName val="FRA3M"/>
+      <sheetName val="FRA6M"/>
+      <sheetName val="FRA12M"/>
       <sheetName val="OIS"/>
       <sheetName val="Futures3M"/>
       <sheetName val="Swap1M"/>
@@ -1971,6 +1973,8 @@
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2266,7 +2270,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2289,7 +2293,7 @@
     <row r="1" spans="1:33" s="3" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - May  8 2015 13:08:40</v>
+        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - Aug 28 2015 08:15:35</v>
       </c>
     </row>
     <row r="2" spans="1:33" s="3" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2776,7 +2780,7 @@
       </c>
       <c r="D14" s="21" t="str">
         <f>_xll.qlPiecewiseYieldCurve(D16,NDays,Calendar,_xll.ohPack(Selected!D2:D126),,,,Accuracy,TraitsID,InterpolatorID,Permanent,,ObjectOverwrite)</f>
-        <v>_USDYCSTD#0012</v>
+        <v>_USDYCSTD#0004</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2942,8 +2946,8 @@
         <v>59</v>
       </c>
       <c r="D18" s="16" t="str">
-        <f>JoinCalendar</f>
-        <v>JoinHolidays(UnitedStates::Settlement,NullCalendar)</v>
+        <f>LocalCalendar</f>
+        <v>UnitedStates::Settlement</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -3039,7 +3043,7 @@
         <v>137</v>
       </c>
       <c r="M20" s="35" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="N20" s="31"/>
       <c r="O20" s="3"/>
@@ -3122,7 +3126,7 @@
       </c>
       <c r="M22" s="32" t="str">
         <f>M21&amp;"("&amp;LocalCalendar&amp;","&amp;LiborCalendar&amp;")"</f>
-        <v>JoinHolidays(UnitedStates::Settlement,NullCalendar)</v>
+        <v>JoinHolidays(UnitedStates::Settlement,UnitedKingdom::Exchange)</v>
       </c>
       <c r="N22" s="39"/>
       <c r="O22" s="3"/>
@@ -3150,11 +3154,11 @@
       <c r="B23" s="5"/>
       <c r="C23" s="9">
         <f>_xll.qlTermStructureReferenceDate(YieldCurve)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="D23" s="8">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>2.8814711606645043E-2</v>
+        <v>2.7353754023797524E-2</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -3191,11 +3195,11 @@
       <c r="B24" s="5"/>
       <c r="C24" s="7">
         <f>MAX(_xll.ohPack(Selected!I2:I126))</f>
-        <v>60405</v>
+        <v>60512</v>
       </c>
       <c r="D24" s="6">
         <f>MIN(_xll.ohPack(Selected!J1:J126))</f>
-        <v>1.931433179556636E-3</v>
+        <v>2.0948396339226468E-3</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -4746,7 +4750,7 @@
       </c>
       <c r="C2" s="107" t="str">
         <f>Deposits!J3</f>
-        <v>obj_0034e#0004</v>
+        <v>obj_002b6#0001</v>
       </c>
       <c r="D2" s="232" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C2),"--")</f>
@@ -4754,7 +4758,7 @@
       </c>
       <c r="E2" s="165">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C2,Trigger),"--")</f>
-        <v>2.7999999999999995E-3</v>
+        <v>2.8000000000000004E-3</v>
       </c>
       <c r="F2" s="165"/>
       <c r="G2" s="166" t="b">
@@ -4768,11 +4772,11 @@
       </c>
       <c r="J2" s="167">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C2,Trigger),"--")</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="K2" s="168">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C2,Trigger),"--")</f>
-        <v>42139</v>
+        <v>42247</v>
       </c>
       <c r="L2" s="56">
         <v>10</v>
@@ -4789,7 +4793,7 @@
       </c>
       <c r="C3" s="107" t="str">
         <f>Deposits!J4</f>
-        <v>obj_00349#0004</v>
+        <v>obj_0033c#0002</v>
       </c>
       <c r="D3" s="233" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C3),"--")</f>
@@ -4797,7 +4801,7 @@
       </c>
       <c r="E3" s="108">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C3,Trigger),"--")</f>
-        <v>2.7999999999999995E-3</v>
+        <v>2.8000000000000004E-3</v>
       </c>
       <c r="F3" s="108"/>
       <c r="G3" s="58" t="b">
@@ -4811,11 +4815,11 @@
       </c>
       <c r="J3" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C3,Trigger),"--")</f>
-        <v>42139</v>
+        <v>42247</v>
       </c>
       <c r="K3" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C3,Trigger),"--")</f>
-        <v>42142</v>
+        <v>42248</v>
       </c>
       <c r="L3" s="56">
         <v>40</v>
@@ -4832,7 +4836,7 @@
       </c>
       <c r="C4" s="107" t="str">
         <f>Deposits!J5</f>
-        <v>obj_00351#0004</v>
+        <v>obj_0033b#0002</v>
       </c>
       <c r="D4" s="233" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C4),"--")</f>
@@ -4840,7 +4844,7 @@
       </c>
       <c r="E4" s="108">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C4,Trigger),"--")</f>
-        <v>2.8999999999999998E-3</v>
+        <v>2.8000000000000004E-3</v>
       </c>
       <c r="F4" s="108"/>
       <c r="G4" s="58" t="b">
@@ -4854,11 +4858,11 @@
       </c>
       <c r="J4" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C4,Trigger),"--")</f>
-        <v>42142</v>
+        <v>42248</v>
       </c>
       <c r="K4" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C4,Trigger),"--")</f>
-        <v>42143</v>
+        <v>42249</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4869,7 +4873,7 @@
       </c>
       <c r="C5" s="107" t="str">
         <f>Deposits!J6</f>
-        <v>obj_0034a#0004</v>
+        <v>obj_002b5#0001</v>
       </c>
       <c r="D5" s="233" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C5),"--")</f>
@@ -4877,7 +4881,7 @@
       </c>
       <c r="E5" s="108">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C5,Trigger),"--")</f>
-        <v>1.4574999999999998E-3</v>
+        <v>1.542E-3</v>
       </c>
       <c r="F5" s="108"/>
       <c r="G5" s="58" t="b">
@@ -4891,11 +4895,11 @@
       </c>
       <c r="J5" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C5,Trigger),"--")</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="K5" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C5,Trigger),"--")</f>
-        <v>42150</v>
+        <v>42256</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4906,7 +4910,7 @@
       </c>
       <c r="C6" s="107" t="str">
         <f>Deposits!J7</f>
-        <v>obj_0034b#0004</v>
+        <v>obj_002b4#0001</v>
       </c>
       <c r="D6" s="233" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C6),"--")</f>
@@ -4914,7 +4918,7 @@
       </c>
       <c r="E6" s="108">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C6,Trigger),"--")</f>
-        <v>1.8560000000000002E-3</v>
+        <v>1.9854999999999999E-3</v>
       </c>
       <c r="F6" s="108"/>
       <c r="G6" s="58" t="b">
@@ -4928,11 +4932,11 @@
       </c>
       <c r="J6" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C6,Trigger),"--")</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="K6" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C6,Trigger),"--")</f>
-        <v>42173</v>
+        <v>42279</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4943,7 +4947,7 @@
       </c>
       <c r="C7" s="107" t="str">
         <f>Deposits!J8</f>
-        <v>obj_0034d#0004</v>
+        <v>obj_002b3#0001</v>
       </c>
       <c r="D7" s="233" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C7),"--")</f>
@@ -4951,7 +4955,7 @@
       </c>
       <c r="E7" s="108">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C7,Trigger),"--")</f>
-        <v>2.2465000000000002E-3</v>
+        <v>2.6625000000000004E-3</v>
       </c>
       <c r="F7" s="108"/>
       <c r="G7" s="58" t="b">
@@ -4965,11 +4969,11 @@
       </c>
       <c r="J7" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C7,Trigger),"--")</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="K7" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C7,Trigger),"--")</f>
-        <v>42205</v>
+        <v>42310</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4980,7 +4984,7 @@
       </c>
       <c r="C8" s="107" t="str">
         <f>Deposits!J9</f>
-        <v>obj_00350#0004</v>
+        <v>obj_002b2#0001</v>
       </c>
       <c r="D8" s="233" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C8),"--")</f>
@@ -4988,7 +4992,7 @@
       </c>
       <c r="E8" s="108">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C8,Trigger),"--")</f>
-        <v>2.7389999999999997E-3</v>
+        <v>3.29E-3</v>
       </c>
       <c r="F8" s="108"/>
       <c r="G8" s="58" t="b">
@@ -5002,11 +5006,11 @@
       </c>
       <c r="J8" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C8,Trigger),"--")</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="K8" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C8,Trigger),"--")</f>
-        <v>42234</v>
+        <v>42340</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5017,7 +5021,7 @@
       </c>
       <c r="C9" s="107" t="str">
         <f>Deposits!J10</f>
-        <v>obj_0034c#0004</v>
+        <v>obj_002b1#0001</v>
       </c>
       <c r="D9" s="233" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C9),"--")</f>
@@ -5025,7 +5029,7 @@
       </c>
       <c r="E9" s="108">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C9,Trigger),"--")</f>
-        <v>4.1414999999999993E-3</v>
+        <v>5.3425E-3</v>
       </c>
       <c r="F9" s="108"/>
       <c r="G9" s="58" t="b">
@@ -5039,11 +5043,11 @@
       </c>
       <c r="J9" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C9,Trigger),"--")</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="K9" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C9,Trigger),"--")</f>
-        <v>42326</v>
+        <v>42431</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5054,7 +5058,7 @@
       </c>
       <c r="C10" s="107" t="str">
         <f>Deposits!J11</f>
-        <v>obj_0034f#0004</v>
+        <v>obj_002b0#0001</v>
       </c>
       <c r="D10" s="234" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C10),"--")</f>
@@ -5062,7 +5066,7 @@
       </c>
       <c r="E10" s="112">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C10,Trigger),"--")</f>
-        <v>7.3034999999999992E-3</v>
+        <v>8.4330000000000013E-3</v>
       </c>
       <c r="F10" s="112"/>
       <c r="G10" s="113" t="b">
@@ -5076,11 +5080,11 @@
       </c>
       <c r="J10" s="114">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C10,Trigger),"--")</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="K10" s="115">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C10,Trigger),"--")</f>
-        <v>42508</v>
+        <v>42615</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5089,23 +5093,23 @@
       </c>
       <c r="B11" s="107" t="str">
         <f t="array" ref="B11:B52">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A11:$A52)</f>
-        <v>K5</v>
+        <v>U5</v>
       </c>
       <c r="C11" s="107" t="str">
         <f>Futures!J3</f>
-        <v>obj_0036f#0003</v>
+        <v>obj_00349#0001</v>
       </c>
       <c r="D11" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C11),"--")</f>
-        <v>USDFUT3MK5_Quote</v>
+        <v>USDFUT3MU5_Quote</v>
       </c>
       <c r="E11" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C11,Trigger),"--")</f>
-        <v>99.723749999999995</v>
+        <v>99.651250000000005</v>
       </c>
       <c r="F11" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C11,Trigger),"--")</f>
-        <v>3.7044655643880106E-7</v>
+        <v>1.2333438972790692E-6</v>
       </c>
       <c r="G11" s="58" t="b">
         <v>1</v>
@@ -5118,11 +5122,11 @@
       </c>
       <c r="J11" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C11,Trigger),"--")</f>
-        <v>42144</v>
+        <v>42263</v>
       </c>
       <c r="K11" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C11,Trigger),"--")</f>
-        <v>42236</v>
+        <v>42354</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5130,23 +5134,23 @@
         <v>0</v>
       </c>
       <c r="B12" s="107" t="str">
-        <v>M5</v>
+        <v>V5</v>
       </c>
       <c r="C12" s="107" t="str">
         <f>Futures!J4</f>
-        <v>obj_0036c#0003</v>
+        <v>obj_0035b#0001</v>
       </c>
       <c r="D12" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C12),"--")</f>
-        <v>USDFUT3MM5_Quote</v>
+        <v>USDFUT3MV5_Quote</v>
       </c>
       <c r="E12" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C12,Trigger),"--")</f>
-        <v>99.712500000000006</v>
+        <v>99.612500000000011</v>
       </c>
       <c r="F12" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C12,Trigger),"--")</f>
-        <v>2.4041574934877678E-6</v>
+        <v>4.140690429243516E-6</v>
       </c>
       <c r="G12" s="58" t="b">
         <v>1</v>
@@ -5159,11 +5163,11 @@
       </c>
       <c r="J12" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C12,Trigger),"--")</f>
-        <v>42172</v>
+        <v>42298</v>
       </c>
       <c r="K12" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C12,Trigger),"--")</f>
-        <v>42264</v>
+        <v>42390</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5171,23 +5175,23 @@
         <v>0</v>
       </c>
       <c r="B13" s="107" t="str">
-        <v>N5</v>
+        <v>X5</v>
       </c>
       <c r="C13" s="107" t="str">
         <f>Futures!J5</f>
-        <v>obj_00369#0003</v>
+        <v>obj_00352#0001</v>
       </c>
       <c r="D13" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C13),"--")</f>
-        <v>USDFUT3MN5_Quote</v>
+        <v>USDFUT3MX5_Quote</v>
       </c>
       <c r="E13" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C13,Trigger),"--")</f>
-        <v>99.68</v>
+        <v>99.580000000000013</v>
       </c>
       <c r="F13" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C13,Trigger),"--")</f>
-        <v>4.93785139563062E-6</v>
+        <v>7.0138605735129537E-6</v>
       </c>
       <c r="G13" s="58" t="b">
         <v>1</v>
@@ -5200,11 +5204,11 @@
       </c>
       <c r="J13" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C13,Trigger),"--")</f>
-        <v>42200</v>
+        <v>42326</v>
       </c>
       <c r="K13" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C13,Trigger),"--")</f>
-        <v>42292</v>
+        <v>42418</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5212,23 +5216,23 @@
         <v>0</v>
       </c>
       <c r="B14" s="107" t="str">
-        <v>Q5</v>
+        <v>Z5</v>
       </c>
       <c r="C14" s="107" t="str">
         <f>Futures!J6</f>
-        <v>obj_00379#0003</v>
+        <v>obj_00356#0001</v>
       </c>
       <c r="D14" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C14),"--")</f>
-        <v>USDFUT3MQ5_Quote</v>
+        <v>USDFUT3MZ5_Quote</v>
       </c>
       <c r="E14" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C14,Trigger),"--")</f>
-        <v>99.642499999999998</v>
+        <v>99.552500000000009</v>
       </c>
       <c r="F14" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C14,Trigger),"--")</f>
-        <v>8.802809265384314E-6</v>
+        <v>1.0308466768619883E-5</v>
       </c>
       <c r="G14" s="58" t="b">
         <v>1</v>
@@ -5241,11 +5245,11 @@
       </c>
       <c r="J14" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C14,Trigger),"--")</f>
-        <v>42235</v>
+        <v>42354</v>
       </c>
       <c r="K14" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C14,Trigger),"--")</f>
-        <v>42327</v>
+        <v>42445</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5253,23 +5257,23 @@
         <v>0</v>
       </c>
       <c r="B15" s="107" t="str">
-        <v>U5</v>
+        <v>F6</v>
       </c>
       <c r="C15" s="107" t="str">
         <f>Futures!J7</f>
-        <v>obj_0035f#0003</v>
+        <v>obj_00347#0001</v>
       </c>
       <c r="D15" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C15),"--")</f>
-        <v>USDFUT3MU5_Quote</v>
+        <v>USDFUT3MF6_Quote</v>
       </c>
       <c r="E15" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C15,Trigger),"--")</f>
-        <v>99.607500000000002</v>
+        <v>99.507500000000007</v>
       </c>
       <c r="F15" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C15,Trigger),"--")</f>
-        <v>1.2369336978464258E-5</v>
+        <v>1.5178532571197184E-5</v>
       </c>
       <c r="G15" s="58" t="b">
         <v>1</v>
@@ -5282,11 +5286,11 @@
       </c>
       <c r="J15" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C15,Trigger),"--")</f>
-        <v>42263</v>
+        <v>42389</v>
       </c>
       <c r="K15" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C15,Trigger),"--")</f>
-        <v>42354</v>
+        <v>42480</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5294,23 +5298,23 @@
         <v>0</v>
       </c>
       <c r="B16" s="107" t="str">
-        <v>V5</v>
+        <v>G6</v>
       </c>
       <c r="C16" s="107" t="str">
         <f>Futures!J8</f>
-        <v>obj_0036b#0003</v>
+        <v>obj_00358#0001</v>
       </c>
       <c r="D16" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C16),"--")</f>
-        <v>USDFUT3MV5_Quote</v>
-      </c>
-      <c r="E16" s="116" t="str">
+        <v>USDFUT3MG6_Quote</v>
+      </c>
+      <c r="E16" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C16,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="F16" s="108" t="str">
+        <v>99.472499999999997</v>
+      </c>
+      <c r="F16" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C16,Trigger),"--")</f>
-        <v>--</v>
+        <v>1.9510144098460325E-5</v>
       </c>
       <c r="G16" s="58" t="b">
         <v>1</v>
@@ -5323,11 +5327,11 @@
       </c>
       <c r="J16" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C16,Trigger),"--")</f>
-        <v>42298</v>
+        <v>42417</v>
       </c>
       <c r="K16" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C16,Trigger),"--")</f>
-        <v>42390</v>
+        <v>42507</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5335,23 +5339,23 @@
         <v>0</v>
       </c>
       <c r="B17" s="107" t="str">
-        <v>X5</v>
+        <v>H6</v>
       </c>
       <c r="C17" s="107" t="str">
         <f>Futures!J9</f>
-        <v>obj_00352#0003</v>
+        <v>obj_00350#0001</v>
       </c>
       <c r="D17" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C17),"--")</f>
-        <v>USDFUT3MX5_Quote</v>
-      </c>
-      <c r="E17" s="116" t="str">
+        <v>USDFUT3MH6_Quote</v>
+      </c>
+      <c r="E17" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C17,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="F17" s="108" t="str">
+        <v>99.422500000000014</v>
+      </c>
+      <c r="F17" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C17,Trigger),"--")</f>
-        <v>--</v>
+        <v>2.4669096741986899E-5</v>
       </c>
       <c r="G17" s="58" t="b">
         <v>1</v>
@@ -5364,11 +5368,11 @@
       </c>
       <c r="J17" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C17,Trigger),"--")</f>
-        <v>42326</v>
+        <v>42445</v>
       </c>
       <c r="K17" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C17,Trigger),"--")</f>
-        <v>42418</v>
+        <v>42537</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5376,23 +5380,23 @@
         <v>0</v>
       </c>
       <c r="B18" s="107" t="str">
-        <v>Z5</v>
+        <v>J6</v>
       </c>
       <c r="C18" s="107" t="str">
         <f>Futures!J10</f>
-        <v>obj_00377#0003</v>
+        <v>obj_0034f#0001</v>
       </c>
       <c r="D18" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C18),"--")</f>
-        <v>USDFUT3MZ5_Quote</v>
-      </c>
-      <c r="E18" s="116">
+        <v>USDFUT3MJ6_Quote</v>
+      </c>
+      <c r="E18" s="116" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C18,Trigger),"--")</f>
-        <v>99.442499999999995</v>
-      </c>
-      <c r="F18" s="108">
+        <v>--</v>
+      </c>
+      <c r="F18" s="108" t="str">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C18,Trigger),"--")</f>
-        <v>2.752678283723802E-5</v>
+        <v>--</v>
       </c>
       <c r="G18" s="58" t="b">
         <v>1</v>
@@ -5405,11 +5409,11 @@
       </c>
       <c r="J18" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C18,Trigger),"--")</f>
-        <v>42354</v>
+        <v>42480</v>
       </c>
       <c r="K18" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C18,Trigger),"--")</f>
-        <v>42445</v>
+        <v>42571</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5417,15 +5421,15 @@
         <v>0</v>
       </c>
       <c r="B19" s="107" t="str">
-        <v>F6</v>
+        <v>K6</v>
       </c>
       <c r="C19" s="107" t="str">
         <f>Futures!J11</f>
-        <v>obj_0036e#0003</v>
+        <v>obj_00344#0001</v>
       </c>
       <c r="D19" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C19),"--")</f>
-        <v>USDFUT3MF6_Quote</v>
+        <v>USDFUT3MK6_Quote</v>
       </c>
       <c r="E19" s="116" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C19,Trigger),"--")</f>
@@ -5446,11 +5450,11 @@
       </c>
       <c r="J19" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C19,Trigger),"--")</f>
-        <v>42389</v>
+        <v>42508</v>
       </c>
       <c r="K19" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C19,Trigger),"--")</f>
-        <v>42480</v>
+        <v>42600</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5458,23 +5462,23 @@
         <v>0</v>
       </c>
       <c r="B20" s="107" t="str">
-        <v>G6</v>
+        <v>M6</v>
       </c>
       <c r="C20" s="107" t="str">
         <f>Futures!J12</f>
-        <v>obj_00368#0003</v>
+        <v>obj_0034d#0001</v>
       </c>
       <c r="D20" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C20),"--")</f>
-        <v>USDFUT3MG6_Quote</v>
-      </c>
-      <c r="E20" s="116" t="str">
+        <v>USDFUT3MM6_Quote</v>
+      </c>
+      <c r="E20" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C20,Trigger),"--")</f>
-        <v>--</v>
-      </c>
-      <c r="F20" s="108" t="str">
+        <v>99.262500000000003</v>
+      </c>
+      <c r="F20" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C20,Trigger),"--")</f>
-        <v>--</v>
+        <v>4.4008416552300407E-5</v>
       </c>
       <c r="G20" s="58" t="b">
         <v>1</v>
@@ -5487,11 +5491,11 @@
       </c>
       <c r="J20" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C20,Trigger),"--")</f>
-        <v>42417</v>
+        <v>42536</v>
       </c>
       <c r="K20" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C20,Trigger),"--")</f>
-        <v>42507</v>
+        <v>42628</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5499,23 +5503,23 @@
         <v>0</v>
       </c>
       <c r="B21" s="107" t="str">
-        <v>H6</v>
+        <v>N6</v>
       </c>
       <c r="C21" s="107" t="str">
         <f>Futures!J13</f>
-        <v>obj_00365#0003</v>
+        <v>obj_0033f#0001</v>
       </c>
       <c r="D21" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C21),"--")</f>
-        <v>USDFUT3MH6_Quote</v>
-      </c>
-      <c r="E21" s="116">
+        <v>USDFUT3MN6_Quote</v>
+      </c>
+      <c r="E21" s="116" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C21,Trigger),"--")</f>
-        <v>99.257499999999993</v>
-      </c>
-      <c r="F21" s="108">
+        <v>--</v>
+      </c>
+      <c r="F21" s="108" t="str">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C21,Trigger),"--")</f>
-        <v>4.7938239702326456E-5</v>
+        <v>--</v>
       </c>
       <c r="G21" s="58" t="b">
         <v>1</v>
@@ -5528,11 +5532,11 @@
       </c>
       <c r="J21" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C21,Trigger),"--")</f>
-        <v>42445</v>
+        <v>42571</v>
       </c>
       <c r="K21" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C21,Trigger),"--")</f>
-        <v>42537</v>
+        <v>42663</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5540,15 +5544,15 @@
         <v>0</v>
       </c>
       <c r="B22" s="107" t="str">
-        <v>J6</v>
+        <v>Q6</v>
       </c>
       <c r="C22" s="107" t="str">
         <f>Futures!J14</f>
-        <v>obj_00373#0003</v>
+        <v>obj_00366#0001</v>
       </c>
       <c r="D22" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C22),"--")</f>
-        <v>USDFUT3MJ6_Quote</v>
+        <v>USDFUT3MQ6_Quote</v>
       </c>
       <c r="E22" s="116" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C22,Trigger),"--")</f>
@@ -5569,11 +5573,11 @@
       </c>
       <c r="J22" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C22,Trigger),"--")</f>
-        <v>42480</v>
+        <v>42599</v>
       </c>
       <c r="K22" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C22,Trigger),"--")</f>
-        <v>42571</v>
+        <v>42691</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5581,23 +5585,23 @@
         <v>1</v>
       </c>
       <c r="B23" s="107" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="C23" s="107" t="str">
         <f>Futures!J15</f>
-        <v>obj_00372#0003</v>
+        <v>obj_00361#0001</v>
       </c>
       <c r="D23" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C23),"--")</f>
-        <v>USDFUT3MM6_Quote</v>
+        <v>USDFUT3MU6_Quote</v>
       </c>
       <c r="E23" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C23,Trigger),"--")</f>
-        <v>99.042500000000004</v>
+        <v>99.072500000000005</v>
       </c>
       <c r="F23" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C23,Trigger),"--")</f>
-        <v>7.316928797271935E-5</v>
+        <v>7.0115794601614679E-5</v>
       </c>
       <c r="G23" s="58" t="b">
         <v>1</v>
@@ -5610,11 +5614,11 @@
       </c>
       <c r="J23" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C23,Trigger),"--")</f>
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="K23" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C23,Trigger),"--")</f>
-        <v>42628</v>
+        <v>42725</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5622,23 +5626,23 @@
         <v>1</v>
       </c>
       <c r="B24" s="107" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="C24" s="107" t="str">
         <f>Futures!J16</f>
-        <v>obj_00370#0003</v>
+        <v>obj_0034e#0001</v>
       </c>
       <c r="D24" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C24),"--")</f>
-        <v>USDFUT3MU6_Quote</v>
+        <v>USDFUT3MZ6_Quote</v>
       </c>
       <c r="E24" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C24,Trigger),"--")</f>
-        <v>98.8125</v>
+        <v>98.882500000000007</v>
       </c>
       <c r="F24" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C24,Trigger),"--")</f>
-        <v>1.0545185414297318E-4</v>
+        <v>9.9248376459104527E-5</v>
       </c>
       <c r="G24" s="58" t="b">
         <v>1</v>
@@ -5651,11 +5655,11 @@
       </c>
       <c r="J24" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C24,Trigger),"--")</f>
-        <v>42634</v>
+        <v>42725</v>
       </c>
       <c r="K24" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C24,Trigger),"--")</f>
-        <v>42725</v>
+        <v>42815</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5663,23 +5667,23 @@
         <v>1</v>
       </c>
       <c r="B25" s="107" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="C25" s="107" t="str">
         <f>Futures!J17</f>
-        <v>obj_00378#0003</v>
+        <v>obj_0035e#0001</v>
       </c>
       <c r="D25" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C25),"--")</f>
-        <v>USDFUT3MZ6_Quote</v>
+        <v>USDFUT3MH7_Quote</v>
       </c>
       <c r="E25" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C25,Trigger),"--")</f>
-        <v>98.592500000000001</v>
+        <v>98.722499999999997</v>
       </c>
       <c r="F25" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C25,Trigger),"--")</f>
-        <v>1.402203959428807E-4</v>
+        <v>1.3124821352393349E-4</v>
       </c>
       <c r="G25" s="58" t="b">
         <v>1</v>
@@ -5692,11 +5696,11 @@
       </c>
       <c r="J25" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C25,Trigger),"--")</f>
-        <v>42725</v>
+        <v>42809</v>
       </c>
       <c r="K25" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C25,Trigger),"--")</f>
-        <v>42815</v>
+        <v>42901</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5704,23 +5708,23 @@
         <v>1</v>
       </c>
       <c r="B26" s="107" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="C26" s="107" t="str">
         <f>Futures!J18</f>
-        <v>obj_00362#0003</v>
+        <v>obj_00360#0001</v>
       </c>
       <c r="D26" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C26),"--")</f>
-        <v>USDFUT3MH7_Quote</v>
+        <v>USDFUT3MM7_Quote</v>
       </c>
       <c r="E26" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C26,Trigger),"--")</f>
-        <v>98.412499999999994</v>
+        <v>98.5625</v>
       </c>
       <c r="F26" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C26,Trigger),"--")</f>
-        <v>1.7753143317690952E-4</v>
+        <v>1.7285015052784084E-4</v>
       </c>
       <c r="G26" s="58" t="b">
         <v>1</v>
@@ -5733,11 +5737,11 @@
       </c>
       <c r="J26" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C26,Trigger),"--")</f>
-        <v>42809</v>
+        <v>42907</v>
       </c>
       <c r="K26" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C26,Trigger),"--")</f>
-        <v>42901</v>
+        <v>42999</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5745,23 +5749,23 @@
         <v>1</v>
       </c>
       <c r="B27" s="107" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="C27" s="107" t="str">
         <f>Futures!J19</f>
-        <v>obj_00371#0003</v>
+        <v>obj_00353#0001</v>
       </c>
       <c r="D27" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C27),"--")</f>
-        <v>USDFUT3MM7_Quote</v>
+        <v>USDFUT3MU7_Quote</v>
       </c>
       <c r="E27" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C27,Trigger),"--")</f>
-        <v>98.232500000000002</v>
+        <v>98.422500000000014</v>
       </c>
       <c r="F27" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C27,Trigger),"--")</f>
-        <v>2.2507745518759751E-4</v>
+        <v>2.1570282970981145E-4</v>
       </c>
       <c r="G27" s="58" t="b">
         <v>1</v>
@@ -5774,11 +5778,11 @@
       </c>
       <c r="J27" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C27,Trigger),"--")</f>
-        <v>42907</v>
+        <v>42998</v>
       </c>
       <c r="K27" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C27,Trigger),"--")</f>
-        <v>42999</v>
+        <v>43089</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5786,23 +5790,23 @@
         <v>1</v>
       </c>
       <c r="B28" s="107" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="C28" s="107" t="str">
         <f>Futures!J20</f>
-        <v>obj_00358#0003</v>
+        <v>obj_0034b#0001</v>
       </c>
       <c r="D28" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C28),"--")</f>
-        <v>USDFUT3MU7_Quote</v>
+        <v>USDFUT3MZ7_Quote</v>
       </c>
       <c r="E28" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C28,Trigger),"--")</f>
-        <v>98.082499999999996</v>
+        <v>98.282499999999999</v>
       </c>
       <c r="F28" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C28,Trigger),"--")</f>
-        <v>2.7328672378083038E-4</v>
+        <v>2.6285625202192081E-4</v>
       </c>
       <c r="G28" s="58" t="b">
         <v>1</v>
@@ -5815,11 +5819,11 @@
       </c>
       <c r="J28" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C28,Trigger),"--")</f>
-        <v>42998</v>
+        <v>43089</v>
       </c>
       <c r="K28" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C28,Trigger),"--")</f>
-        <v>43089</v>
+        <v>43179</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5827,23 +5831,23 @@
         <v>1</v>
       </c>
       <c r="B29" s="107" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="C29" s="107" t="str">
         <f>Futures!J21</f>
-        <v>obj_0035e#0003</v>
+        <v>obj_00342#0001</v>
       </c>
       <c r="D29" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C29),"--")</f>
-        <v>USDFUT3MZ7_Quote</v>
+        <v>USDFUT3MH8_Quote</v>
       </c>
       <c r="E29" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C29,Trigger),"--")</f>
-        <v>97.942499999999995</v>
+        <v>98.167500000000004</v>
       </c>
       <c r="F29" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C29,Trigger),"--")</f>
-        <v>3.2570108126550183E-4</v>
+        <v>3.1588208741491729E-4</v>
       </c>
       <c r="G29" s="58" t="b">
         <v>1</v>
@@ -5856,11 +5860,11 @@
       </c>
       <c r="J29" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C29,Trigger),"--")</f>
-        <v>43089</v>
+        <v>43180</v>
       </c>
       <c r="K29" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C29,Trigger),"--")</f>
-        <v>43179</v>
+        <v>43272</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5868,23 +5872,23 @@
         <v>1</v>
       </c>
       <c r="B30" s="107" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="C30" s="107" t="str">
         <f>Futures!J22</f>
-        <v>obj_00353#0003</v>
+        <v>obj_0035f#0001</v>
       </c>
       <c r="D30" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C30),"--")</f>
-        <v>USDFUT3MH8_Quote</v>
+        <v>USDFUT3MM8_Quote</v>
       </c>
       <c r="E30" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C30,Trigger),"--")</f>
-        <v>97.827500000000001</v>
+        <v>98.052500000000009</v>
       </c>
       <c r="F30" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C30,Trigger),"--")</f>
-        <v>3.8409364301385983E-4</v>
+        <v>3.720880530821233E-4</v>
       </c>
       <c r="G30" s="58" t="b">
         <v>1</v>
@@ -5897,11 +5901,11 @@
       </c>
       <c r="J30" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C30,Trigger),"--")</f>
-        <v>43180</v>
+        <v>43271</v>
       </c>
       <c r="K30" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C30,Trigger),"--")</f>
-        <v>43272</v>
+        <v>43363</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5909,23 +5913,23 @@
         <v>1</v>
       </c>
       <c r="B31" s="107" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="C31" s="107" t="str">
         <f>Futures!J23</f>
-        <v>obj_0036a#0003</v>
+        <v>obj_00355#0001</v>
       </c>
       <c r="D31" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C31),"--")</f>
-        <v>USDFUT3MM8_Quote</v>
+        <v>USDFUT3MU8_Quote</v>
       </c>
       <c r="E31" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C31,Trigger),"--")</f>
-        <v>97.717500000000001</v>
+        <v>97.942499999999995</v>
       </c>
       <c r="F31" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C31,Trigger),"--")</f>
-        <v>4.4544111421503189E-4</v>
+        <v>4.3172759746941994E-4</v>
       </c>
       <c r="G31" s="58" t="b">
         <v>1</v>
@@ -5938,11 +5942,11 @@
       </c>
       <c r="J31" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C31,Trigger),"--")</f>
-        <v>43271</v>
+        <v>43362</v>
       </c>
       <c r="K31" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C31,Trigger),"--")</f>
-        <v>43363</v>
+        <v>43453</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5950,23 +5954,23 @@
         <v>1</v>
       </c>
       <c r="B32" s="107" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="C32" s="107" t="str">
         <f>Futures!J24</f>
-        <v>obj_00357#0003</v>
+        <v>obj_00346#0001</v>
       </c>
       <c r="D32" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C32),"--")</f>
-        <v>USDFUT3MU8_Quote</v>
+        <v>USDFUT3MZ8_Quote</v>
       </c>
       <c r="E32" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C32,Trigger),"--")</f>
-        <v>97.617500000000007</v>
+        <v>97.837500000000006</v>
       </c>
       <c r="F32" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C32,Trigger),"--")</f>
-        <v>5.1006023804124449E-4</v>
+        <v>4.9526733508011705E-4</v>
       </c>
       <c r="G32" s="58" t="b">
         <v>1</v>
@@ -5979,11 +5983,11 @@
       </c>
       <c r="J32" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C32,Trigger),"--")</f>
-        <v>43362</v>
+        <v>43453</v>
       </c>
       <c r="K32" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C32,Trigger),"--")</f>
-        <v>43453</v>
+        <v>43543</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5991,23 +5995,23 @@
         <v>1</v>
       </c>
       <c r="B33" s="107" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="C33" s="107" t="str">
         <f>Futures!J25</f>
-        <v>obj_00364#0003</v>
+        <v>obj_00365#0001</v>
       </c>
       <c r="D33" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C33),"--")</f>
-        <v>USDFUT3MZ8_Quote</v>
+        <v>USDFUT3MH9_Quote</v>
       </c>
       <c r="E33" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C33,Trigger),"--")</f>
-        <v>97.517499999999998</v>
+        <v>97.742500000000007</v>
       </c>
       <c r="F33" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C33,Trigger),"--")</f>
-        <v>5.7849681901998851E-4</v>
+        <v>5.6490861474960878E-4</v>
       </c>
       <c r="G33" s="58" t="b">
         <v>1</v>
@@ -6020,11 +6024,11 @@
       </c>
       <c r="J33" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C33,Trigger),"--")</f>
-        <v>43453</v>
+        <v>43544</v>
       </c>
       <c r="K33" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C33,Trigger),"--")</f>
-        <v>43543</v>
+        <v>43636</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6032,23 +6036,23 @@
         <v>1</v>
       </c>
       <c r="B34" s="107" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="C34" s="107" t="str">
         <f>Futures!J26</f>
-        <v>obj_00376#0003</v>
+        <v>obj_0034a#0001</v>
       </c>
       <c r="D34" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C34),"--")</f>
-        <v>USDFUT3MH9_Quote</v>
+        <v>USDFUT3MM9_Quote</v>
       </c>
       <c r="E34" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C34,Trigger),"--")</f>
-        <v>97.4375</v>
+        <v>97.652500000000003</v>
       </c>
       <c r="F34" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C34,Trigger),"--")</f>
-        <v>6.5313156031030666E-4</v>
+        <v>6.3692476125462832E-4</v>
       </c>
       <c r="G34" s="58" t="b">
         <v>1</v>
@@ -6061,11 +6065,11 @@
       </c>
       <c r="J34" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C34,Trigger),"--")</f>
-        <v>43544</v>
+        <v>43635</v>
       </c>
       <c r="K34" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C34,Trigger),"--")</f>
-        <v>43636</v>
+        <v>43727</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6073,23 +6077,23 @@
         <v>1</v>
       </c>
       <c r="B35" s="107" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="C35" s="107" t="str">
         <f>Futures!J27</f>
-        <v>obj_0035a#0003</v>
+        <v>obj_00354#0001</v>
       </c>
       <c r="D35" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C35),"--")</f>
-        <v>USDFUT3MM9_Quote</v>
+        <v>USDFUT3MU9_Quote</v>
       </c>
       <c r="E35" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C35,Trigger),"--")</f>
-        <v>97.352499999999992</v>
+        <v>97.5625</v>
       </c>
       <c r="F35" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C35,Trigger),"--")</f>
-        <v>7.2993594101176983E-4</v>
+        <v>7.1179771651918536E-4</v>
       </c>
       <c r="G35" s="58" t="b">
         <v>1</v>
@@ -6102,11 +6106,11 @@
       </c>
       <c r="J35" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C35,Trigger),"--")</f>
-        <v>43635</v>
+        <v>43726</v>
       </c>
       <c r="K35" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C35,Trigger),"--")</f>
-        <v>43727</v>
+        <v>43817</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6114,23 +6118,23 @@
         <v>1</v>
       </c>
       <c r="B36" s="107" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="C36" s="107" t="str">
         <f>Futures!J28</f>
-        <v>obj_0035c#0003</v>
+        <v>obj_0035a#0001</v>
       </c>
       <c r="D36" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C36),"--")</f>
-        <v>USDFUT3MU9_Quote</v>
+        <v>USDFUT3MZ9_Quote</v>
       </c>
       <c r="E36" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C36,Trigger),"--")</f>
-        <v>97.277500000000003</v>
+        <v>97.472499999999997</v>
       </c>
       <c r="F36" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C36,Trigger),"--")</f>
-        <v>8.0942524886216624E-4</v>
+        <v>7.9112415129059489E-4</v>
       </c>
       <c r="G36" s="58" t="b">
         <v>1</v>
@@ -6143,11 +6147,11 @@
       </c>
       <c r="J36" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C36,Trigger),"--")</f>
-        <v>43726</v>
+        <v>43817</v>
       </c>
       <c r="K36" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C36,Trigger),"--")</f>
-        <v>43817</v>
+        <v>43908</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6155,23 +6159,23 @@
         <v>1</v>
       </c>
       <c r="B37" s="107" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="C37" s="107" t="str">
         <f>Futures!J29</f>
-        <v>obj_00374#0003</v>
+        <v>obj_00341#0001</v>
       </c>
       <c r="D37" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C37),"--")</f>
-        <v>USDFUT3MZ9_Quote</v>
+        <v>USDFUT3MH0_Quote</v>
       </c>
       <c r="E37" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C37,Trigger),"--")</f>
-        <v>97.202500000000001</v>
+        <v>97.390000000000015</v>
       </c>
       <c r="F37" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C37,Trigger),"--")</f>
-        <v>8.9334849308131566E-4</v>
+        <v>8.7494868713960396E-4</v>
       </c>
       <c r="G37" s="58" t="b">
         <v>1</v>
@@ -6184,11 +6188,11 @@
       </c>
       <c r="J37" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C37,Trigger),"--")</f>
-        <v>43817</v>
+        <v>43908</v>
       </c>
       <c r="K37" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C37,Trigger),"--")</f>
-        <v>43908</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6196,23 +6200,23 @@
         <v>1</v>
       </c>
       <c r="B38" s="107" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="C38" s="107" t="str">
         <f>Futures!J30</f>
-        <v>obj_00366#0003</v>
+        <v>obj_00343#0001</v>
       </c>
       <c r="D38" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C38),"--")</f>
-        <v>USDFUT3MH0_Quote</v>
+        <v>USDFUT3MM0_Quote</v>
       </c>
       <c r="E38" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C38,Trigger),"--")</f>
-        <v>97.137500000000003</v>
+        <v>97.3125</v>
       </c>
       <c r="F38" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C38,Trigger),"--")</f>
-        <v>9.8174316676204101E-4</v>
+        <v>9.6130143331293037E-4</v>
       </c>
       <c r="G38" s="58" t="b">
         <v>1</v>
@@ -6225,11 +6229,11 @@
       </c>
       <c r="J38" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C38,Trigger),"--")</f>
-        <v>43908</v>
+        <v>43999</v>
       </c>
       <c r="K38" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C38,Trigger),"--")</f>
-        <v>44000</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6237,23 +6241,23 @@
         <v>1</v>
       </c>
       <c r="B39" s="107" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="C39" s="107" t="str">
         <f>Futures!J31</f>
-        <v>obj_00361#0003</v>
+        <v>obj_00351#0001</v>
       </c>
       <c r="D39" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C39),"--")</f>
-        <v>USDFUT3MM0_Quote</v>
+        <v>USDFUT3MU0_Quote</v>
       </c>
       <c r="E39" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C39,Trigger),"--")</f>
-        <v>97.072499999999991</v>
+        <v>97.237500000000011</v>
       </c>
       <c r="F39" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C39,Trigger),"--")</f>
-        <v>1.0725241758712219E-3</v>
+        <v>1.0499537940063869E-3</v>
       </c>
       <c r="G39" s="58" t="b">
         <v>1</v>
@@ -6266,11 +6270,11 @@
       </c>
       <c r="J39" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C39,Trigger),"--")</f>
-        <v>43999</v>
+        <v>44090</v>
       </c>
       <c r="K39" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C39,Trigger),"--")</f>
-        <v>44091</v>
+        <v>44181</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6278,23 +6282,23 @@
         <v>1</v>
       </c>
       <c r="B40" s="107" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="C40" s="107" t="str">
         <f>Futures!J32</f>
-        <v>obj_0036d#0003</v>
+        <v>obj_00340#0001</v>
       </c>
       <c r="D40" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C40),"--")</f>
-        <v>USDFUT3MU0_Quote</v>
+        <v>USDFUT3MZ0_Quote</v>
       </c>
       <c r="E40" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C40,Trigger),"--")</f>
-        <v>97.015000000000001</v>
+        <v>97.167500000000004</v>
       </c>
       <c r="F40" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C40,Trigger),"--")</f>
-        <v>1.165438403044563E-3</v>
+        <v>1.1417810246193878E-3</v>
       </c>
       <c r="G40" s="58" t="b">
         <v>1</v>
@@ -6307,11 +6311,11 @@
       </c>
       <c r="J40" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C40,Trigger),"--")</f>
-        <v>44090</v>
+        <v>44181</v>
       </c>
       <c r="K40" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C40,Trigger),"--")</f>
-        <v>44181</v>
+        <v>44271</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6319,23 +6323,23 @@
         <v>1</v>
       </c>
       <c r="B41" s="107" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="C41" s="107" t="str">
         <f>Futures!J33</f>
-        <v>obj_00356#0003</v>
+        <v>obj_0033d#0001</v>
       </c>
       <c r="D41" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C41),"--")</f>
-        <v>USDFUT3MZ0_Quote</v>
+        <v>USDFUT3MH1_Quote</v>
       </c>
       <c r="E41" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C41,Trigger),"--")</f>
-        <v>96.954999999999998</v>
+        <v>97.107500000000002</v>
       </c>
       <c r="F41" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C41,Trigger),"--")</f>
-        <v>1.2614648858457645E-3</v>
+        <v>1.2401650156289362E-3</v>
       </c>
       <c r="G41" s="58" t="b">
         <v>1</v>
@@ -6348,11 +6352,11 @@
       </c>
       <c r="J41" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C41,Trigger),"--")</f>
-        <v>44181</v>
+        <v>44272</v>
       </c>
       <c r="K41" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C41,Trigger),"--")</f>
-        <v>44271</v>
+        <v>44364</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6360,23 +6364,23 @@
         <v>1</v>
       </c>
       <c r="B42" s="107" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="C42" s="107" t="str">
         <f>Futures!J34</f>
-        <v>obj_00375#0003</v>
+        <v>obj_00345#0001</v>
       </c>
       <c r="D42" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C42),"--")</f>
-        <v>USDFUT3MH1_Quote</v>
+        <v>USDFUT3MM1_Quote</v>
       </c>
       <c r="E42" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C42,Trigger),"--")</f>
-        <v>96.91</v>
+        <v>97.050000000000011</v>
       </c>
       <c r="F42" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C42,Trigger),"--")</f>
-        <v>1.3641497353045159E-3</v>
+        <v>1.3394305448324257E-3</v>
       </c>
       <c r="G42" s="58" t="b">
         <v>1</v>
@@ -6389,11 +6393,11 @@
       </c>
       <c r="J42" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C42,Trigger),"--")</f>
-        <v>44272</v>
+        <v>44363</v>
       </c>
       <c r="K42" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C42,Trigger),"--")</f>
-        <v>44364</v>
+        <v>44455</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6401,23 +6405,23 @@
         <v>1</v>
       </c>
       <c r="B43" s="107" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="C43" s="107" t="str">
         <f>Futures!J35</f>
-        <v>obj_0035d#0003</v>
+        <v>obj_0033e#0001</v>
       </c>
       <c r="D43" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C43),"--")</f>
-        <v>USDFUT3MM1_Quote</v>
+        <v>USDFUT3MU1_Quote</v>
       </c>
       <c r="E43" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C43,Trigger),"--")</f>
-        <v>96.865000000000009</v>
+        <v>97</v>
       </c>
       <c r="F43" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C43,Trigger),"--")</f>
-        <v>1.4675072576674931E-3</v>
+        <v>1.440448559372552E-3</v>
       </c>
       <c r="G43" s="58" t="b">
         <v>1</v>
@@ -6430,11 +6434,11 @@
       </c>
       <c r="J43" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C43,Trigger),"--")</f>
-        <v>44363</v>
+        <v>44454</v>
       </c>
       <c r="K43" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C43,Trigger),"--")</f>
-        <v>44455</v>
+        <v>44545</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6442,23 +6446,23 @@
         <v>1</v>
       </c>
       <c r="B44" s="107" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="C44" s="107" t="str">
         <f>Futures!J36</f>
-        <v>obj_00363#0003</v>
+        <v>obj_00363#0001</v>
       </c>
       <c r="D44" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C44),"--")</f>
-        <v>USDFUT3MU1_Quote</v>
+        <v>USDFUT3MZ1_Quote</v>
       </c>
       <c r="E44" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C44,Trigger),"--")</f>
-        <v>96.827499999999986</v>
+        <v>96.95</v>
       </c>
       <c r="F44" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C44,Trigger),"--")</f>
-        <v>1.5724676244368591E-3</v>
+        <v>1.5443258533722282E-3</v>
       </c>
       <c r="G44" s="58" t="b">
         <v>1</v>
@@ -6471,11 +6475,11 @@
       </c>
       <c r="J44" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C44,Trigger),"--")</f>
-        <v>44454</v>
+        <v>44545</v>
       </c>
       <c r="K44" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C44,Trigger),"--")</f>
-        <v>44545</v>
+        <v>44635</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6483,23 +6487,23 @@
         <v>1</v>
       </c>
       <c r="B45" s="107" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="C45" s="107" t="str">
         <f>Futures!J37</f>
-        <v>obj_0037a#0003</v>
+        <v>obj_00359#0001</v>
       </c>
       <c r="D45" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C45),"--")</f>
-        <v>USDFUT3MZ1_Quote</v>
+        <v>USDFUT3MH2_Quote</v>
       </c>
       <c r="E45" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C45,Trigger),"--")</f>
-        <v>96.789999999999992</v>
+        <v>96.917500000000004</v>
       </c>
       <c r="F45" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C45,Trigger),"--")</f>
-        <v>1.6802083777968076E-3</v>
+        <v>1.6549565302555788E-3</v>
       </c>
       <c r="G45" s="58" t="b">
         <v>1</v>
@@ -6512,11 +6516,11 @@
       </c>
       <c r="J45" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C45,Trigger),"--")</f>
-        <v>44545</v>
+        <v>44636</v>
       </c>
       <c r="K45" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C45,Trigger),"--")</f>
-        <v>44635</v>
+        <v>44728</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6524,23 +6528,23 @@
         <v>1</v>
       </c>
       <c r="B46" s="107" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="C46" s="107" t="str">
         <f>Futures!J38</f>
-        <v>obj_00359#0003</v>
+        <v>obj_0035d#0001</v>
       </c>
       <c r="D46" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C46),"--")</f>
-        <v>USDFUT3MH2_Quote</v>
+        <v>USDFUT3MM2_Quote</v>
       </c>
       <c r="E46" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C46,Trigger),"--")</f>
-        <v>96.765000000000001</v>
+        <v>96.88</v>
       </c>
       <c r="F46" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C46,Trigger),"--")</f>
-        <v>1.7948401884449146E-3</v>
+        <v>1.7657967715759056E-3</v>
       </c>
       <c r="G46" s="58" t="b">
         <v>1</v>
@@ -6553,11 +6557,11 @@
       </c>
       <c r="J46" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C46,Trigger),"--")</f>
-        <v>44636</v>
+        <v>44727</v>
       </c>
       <c r="K46" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C46,Trigger),"--")</f>
-        <v>44728</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6565,23 +6569,23 @@
         <v>1</v>
       </c>
       <c r="B47" s="107" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="C47" s="107" t="str">
         <f>Futures!J39</f>
-        <v>obj_0037b#0003</v>
+        <v>obj_0035c#0001</v>
       </c>
       <c r="D47" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C47),"--")</f>
-        <v>USDFUT3MM2_Quote</v>
+        <v>USDFUT3MU2_Quote</v>
       </c>
       <c r="E47" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C47,Trigger),"--")</f>
-        <v>96.745000000000005</v>
+        <v>96.860000000000014</v>
       </c>
       <c r="F47" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C47,Trigger),"--")</f>
-        <v>1.9094266003035036E-3</v>
+        <v>1.8866636527866984E-3</v>
       </c>
       <c r="G47" s="58" t="b">
         <v>1</v>
@@ -6594,11 +6598,11 @@
       </c>
       <c r="J47" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C47,Trigger),"--")</f>
-        <v>44727</v>
+        <v>44825</v>
       </c>
       <c r="K47" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C47,Trigger),"--")</f>
-        <v>44819</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6606,23 +6610,23 @@
         <v>1</v>
       </c>
       <c r="B48" s="107" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="C48" s="107" t="str">
         <f>Futures!J40</f>
-        <v>obj_0035b#0003</v>
+        <v>obj_00357#0001</v>
       </c>
       <c r="D48" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C48),"--")</f>
-        <v>USDFUT3MU2_Quote</v>
+        <v>USDFUT3MZ2_Quote</v>
       </c>
       <c r="E48" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C48,Trigger),"--")</f>
-        <v>96.717500000000001</v>
+        <v>96.827500000000015</v>
       </c>
       <c r="F48" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C48,Trigger),"--")</f>
-        <v>2.0343003599690374E-3</v>
+        <v>2.0015077215231772E-3</v>
       </c>
       <c r="G48" s="58" t="b">
         <v>1</v>
@@ -6635,11 +6639,11 @@
       </c>
       <c r="J48" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C48,Trigger),"--")</f>
-        <v>44825</v>
+        <v>44916</v>
       </c>
       <c r="K48" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C48,Trigger),"--")</f>
-        <v>44916</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6647,23 +6651,23 @@
         <v>1</v>
       </c>
       <c r="B49" s="107" t="str">
-        <v>Z2</v>
+        <v>H3</v>
       </c>
       <c r="C49" s="107" t="str">
         <f>Futures!J41</f>
-        <v>obj_00355#0003</v>
+        <v>obj_00364#0001</v>
       </c>
       <c r="D49" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C49),"--")</f>
-        <v>USDFUT3MZ2_Quote</v>
+        <v>USDFUT3MH3_Quote</v>
       </c>
       <c r="E49" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C49,Trigger),"--")</f>
-        <v>96.702500000000001</v>
+        <v>96.814999999999998</v>
       </c>
       <c r="F49" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C49,Trigger),"--")</f>
-        <v>2.152666644603069E-3</v>
+        <v>2.1140830053308084E-3</v>
       </c>
       <c r="G49" s="58" t="b">
         <v>1</v>
@@ -6676,11 +6680,11 @@
       </c>
       <c r="J49" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C49,Trigger),"--")</f>
-        <v>44916</v>
+        <v>45000</v>
       </c>
       <c r="K49" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C49,Trigger),"--")</f>
-        <v>45006</v>
+        <v>45092</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6688,23 +6692,23 @@
         <v>1</v>
       </c>
       <c r="B50" s="107" t="str">
-        <v>H3</v>
+        <v>M3</v>
       </c>
       <c r="C50" s="107" t="str">
         <f>Futures!J42</f>
-        <v>obj_00354#0003</v>
+        <v>obj_00362#0001</v>
       </c>
       <c r="D50" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C50),"--")</f>
-        <v>USDFUT3MH3_Quote</v>
+        <v>USDFUT3MM3_Quote</v>
       </c>
       <c r="E50" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C50,Trigger),"--")</f>
-        <v>97.047499999999999</v>
+        <v>96.784999999999997</v>
       </c>
       <c r="F50" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C50,Trigger),"--")</f>
-        <v>2.2666453622260077E-3</v>
+        <v>2.2447202245961099E-3</v>
       </c>
       <c r="G50" s="58" t="b">
         <v>1</v>
@@ -6717,11 +6721,11 @@
       </c>
       <c r="J50" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C50,Trigger),"--")</f>
-        <v>45000</v>
+        <v>45098</v>
       </c>
       <c r="K50" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C50,Trigger),"--")</f>
-        <v>45092</v>
+        <v>45190</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6729,23 +6733,23 @@
         <v>1</v>
       </c>
       <c r="B51" s="107" t="str">
-        <v>M3</v>
+        <v>U3</v>
       </c>
       <c r="C51" s="107" t="str">
         <f>Futures!J43</f>
-        <v>obj_00367#0003</v>
+        <v>obj_00348#0001</v>
       </c>
       <c r="D51" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C51),"--")</f>
-        <v>USDFUT3MM3_Quote</v>
+        <v>USDFUT3MU3_Quote</v>
       </c>
       <c r="E51" s="116">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C51,Trigger),"--")</f>
-        <v>97.032499999999999</v>
+        <v>96.76</v>
       </c>
       <c r="F51" s="108">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C51,Trigger),"--")</f>
-        <v>2.400886096962351E-3</v>
+        <v>2.3669119766903321E-3</v>
       </c>
       <c r="G51" s="58" t="b">
         <v>1</v>
@@ -6758,11 +6762,11 @@
       </c>
       <c r="J51" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C51,Trigger),"--")</f>
-        <v>45098</v>
+        <v>45189</v>
       </c>
       <c r="K51" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C51,Trigger),"--")</f>
-        <v>45190</v>
+        <v>45280</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6770,23 +6774,23 @@
         <v>1</v>
       </c>
       <c r="B52" s="111" t="str">
-        <v>U3</v>
+        <v>Z3</v>
       </c>
       <c r="C52" s="111" t="str">
         <f>Futures!J44</f>
-        <v>obj_00360#0003</v>
+        <v>obj_0034c#0001</v>
       </c>
       <c r="D52" s="111" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C52),"--")</f>
-        <v>USDFUT3MU3_Quote</v>
+        <v>USDFUT3MZ3_Quote</v>
       </c>
       <c r="E52" s="117">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C52,Trigger),"--")</f>
-        <v>97.017499999999998</v>
+        <v>96.742500000000007</v>
       </c>
       <c r="F52" s="112">
         <f>IFERROR(_xll.qlFuturesRateHelperConvexityAdjustment($C52,Trigger),"--")</f>
-        <v>2.5263304815794051E-3</v>
+        <v>2.4929811830147861E-3</v>
       </c>
       <c r="G52" s="113" t="b">
         <v>1</v>
@@ -6799,11 +6803,11 @@
       </c>
       <c r="J52" s="114">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C52,Trigger),"--")</f>
-        <v>45189</v>
+        <v>45280</v>
       </c>
       <c r="K52" s="115">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C52,Trigger),"--")</f>
-        <v>45280</v>
+        <v>45371</v>
       </c>
       <c r="L52" s="118"/>
     </row>
@@ -6814,7 +6818,7 @@
       </c>
       <c r="C53" s="164" t="str">
         <f>Swaps!L5</f>
-        <v>obj_0030c#0005</v>
+        <v>obj_00334#0003</v>
       </c>
       <c r="D53" s="164" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C53),"--")</f>
@@ -6822,7 +6826,7 @@
       </c>
       <c r="E53" s="165">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C53,Trigger),"--")</f>
-        <v>4.5199999999999997E-3</v>
+        <v>5.0800000000000003E-3</v>
       </c>
       <c r="F53" s="165">
         <f>IFERROR(_xll.qlSwapRateHelperSpread($C53,Trigger),"--")</f>
@@ -6839,11 +6843,11 @@
       </c>
       <c r="J53" s="167">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C53,Trigger),"--")</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="K53" s="168">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C53,Trigger),"--")</f>
-        <v>42508</v>
+        <v>42615</v>
       </c>
       <c r="M53" s="119"/>
     </row>
@@ -6976,7 +6980,7 @@
       </c>
       <c r="C57" s="107" t="str">
         <f>Swaps!L9</f>
-        <v>obj_00310#0004</v>
+        <v>obj_002f3#0003</v>
       </c>
       <c r="D57" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C57),"--")</f>
@@ -6984,7 +6988,7 @@
       </c>
       <c r="E57" s="108">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C57,Trigger),"--")</f>
-        <v>8.2299999999999995E-3</v>
+        <v>8.26E-3</v>
       </c>
       <c r="F57" s="108">
         <f>IFERROR(_xll.qlSwapRateHelperSpread($C57,Trigger),"--")</f>
@@ -7002,11 +7006,11 @@
       </c>
       <c r="J57" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C57,Trigger),"--")</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="K57" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C57,Trigger),"--")</f>
-        <v>42873</v>
+        <v>42983</v>
       </c>
       <c r="M57" s="119"/>
     </row>
@@ -7017,7 +7021,7 @@
       </c>
       <c r="C58" s="107" t="str">
         <f>Swaps!L10</f>
-        <v>obj_00345#0004</v>
+        <v>obj_00332#0003</v>
       </c>
       <c r="D58" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C58),"--")</f>
@@ -7025,7 +7029,7 @@
       </c>
       <c r="E58" s="108">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C58,Trigger),"--")</f>
-        <v>1.171E-2</v>
+        <v>1.1120000000000001E-2</v>
       </c>
       <c r="F58" s="108">
         <f>IFERROR(_xll.qlSwapRateHelperSpread($C58,Trigger),"--")</f>
@@ -7043,11 +7047,11 @@
       </c>
       <c r="J58" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C58,Trigger),"--")</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="K58" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C58,Trigger),"--")</f>
-        <v>43238</v>
+        <v>43347</v>
       </c>
       <c r="M58" s="119"/>
       <c r="O58" s="172"/>
@@ -7059,7 +7063,7 @@
       </c>
       <c r="C59" s="107" t="str">
         <f>Swaps!L11</f>
-        <v>obj_00332#0004</v>
+        <v>obj_00331#0003</v>
       </c>
       <c r="D59" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C59),"--")</f>
@@ -7067,7 +7071,7 @@
       </c>
       <c r="E59" s="108">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C59,Trigger),"--")</f>
-        <v>1.4490000000000001E-2</v>
+        <v>1.355E-2</v>
       </c>
       <c r="F59" s="108">
         <f>IFERROR(_xll.qlSwapRateHelperSpread($C59,Trigger),"--")</f>
@@ -7085,11 +7089,11 @@
       </c>
       <c r="J59" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C59,Trigger),"--")</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="K59" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C59,Trigger),"--")</f>
-        <v>43605</v>
+        <v>43711</v>
       </c>
       <c r="M59" s="119"/>
       <c r="O59" s="172"/>
@@ -7101,7 +7105,7 @@
       </c>
       <c r="C60" s="107" t="str">
         <f>Swaps!L12</f>
-        <v>obj_0032c#0004</v>
+        <v>obj_0032e#0003</v>
       </c>
       <c r="D60" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C60),"--")</f>
@@ -7109,7 +7113,7 @@
       </c>
       <c r="E60" s="108">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C60,Trigger),"--")</f>
-        <v>1.669E-2</v>
+        <v>1.562E-2</v>
       </c>
       <c r="F60" s="108">
         <f>IFERROR(_xll.qlSwapRateHelperSpread($C60,Trigger),"--")</f>
@@ -7127,11 +7131,11 @@
       </c>
       <c r="J60" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C60,Trigger),"--")</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="K60" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C60,Trigger),"--")</f>
-        <v>43969</v>
+        <v>44076</v>
       </c>
       <c r="M60" s="119"/>
       <c r="O60" s="172"/>
@@ -7143,7 +7147,7 @@
       </c>
       <c r="C61" s="107" t="str">
         <f>Swaps!L13</f>
-        <v>obj_0032d#0004</v>
+        <v>obj_002ee#0003</v>
       </c>
       <c r="D61" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C61),"--")</f>
@@ -7151,7 +7155,7 @@
       </c>
       <c r="E61" s="108">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C61,Trigger),"--")</f>
-        <v>1.8530000000000001E-2</v>
+        <v>1.7410000000000002E-2</v>
       </c>
       <c r="F61" s="108">
         <f>IFERROR(_xll.qlSwapRateHelperSpread($C61,Trigger),"--")</f>
@@ -7169,11 +7173,11 @@
       </c>
       <c r="J61" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C61,Trigger),"--")</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="K61" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C61,Trigger),"--")</f>
-        <v>44334</v>
+        <v>44441</v>
       </c>
       <c r="M61" s="119"/>
       <c r="O61" s="172"/>
@@ -7185,7 +7189,7 @@
       </c>
       <c r="C62" s="107" t="str">
         <f>Swaps!L14</f>
-        <v>obj_00338#0004</v>
+        <v>obj_00333#0003</v>
       </c>
       <c r="D62" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C62),"--")</f>
@@ -7193,7 +7197,7 @@
       </c>
       <c r="E62" s="108">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C62,Trigger),"--")</f>
-        <v>2.001E-2</v>
+        <v>1.89E-2</v>
       </c>
       <c r="F62" s="108">
         <f>IFERROR(_xll.qlSwapRateHelperSpread($C62,Trigger),"--")</f>
@@ -7211,11 +7215,11 @@
       </c>
       <c r="J62" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C62,Trigger),"--")</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="K62" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C62,Trigger),"--")</f>
-        <v>44699</v>
+        <v>44806</v>
       </c>
       <c r="M62" s="119"/>
       <c r="O62" s="172"/>
@@ -7227,7 +7231,7 @@
       </c>
       <c r="C63" s="107" t="str">
         <f>Swaps!L15</f>
-        <v>obj_00333#0004</v>
+        <v>obj_002ff#0003</v>
       </c>
       <c r="D63" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C63),"--")</f>
@@ -7235,7 +7239,7 @@
       </c>
       <c r="E63" s="108">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C63,Trigger),"--")</f>
-        <v>2.12E-2</v>
+        <v>2.0119999999999999E-2</v>
       </c>
       <c r="F63" s="108">
         <f>IFERROR(_xll.qlSwapRateHelperSpread($C63,Trigger),"--")</f>
@@ -7253,11 +7257,11 @@
       </c>
       <c r="J63" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C63,Trigger),"--")</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="K63" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C63,Trigger),"--")</f>
-        <v>45064</v>
+        <v>45174</v>
       </c>
       <c r="M63" s="119"/>
       <c r="O63" s="172"/>
@@ -7269,7 +7273,7 @@
       </c>
       <c r="C64" s="107" t="str">
         <f>Swaps!L16</f>
-        <v>obj_00335#0004</v>
+        <v>obj_00336#0003</v>
       </c>
       <c r="D64" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C64),"--")</f>
@@ -7277,7 +7281,7 @@
       </c>
       <c r="E64" s="108">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C64,Trigger),"--")</f>
-        <v>2.2170000000000002E-2</v>
+        <v>2.1090000000000001E-2</v>
       </c>
       <c r="F64" s="108">
         <f>IFERROR(_xll.qlSwapRateHelperSpread($C64,Trigger),"--")</f>
@@ -7295,11 +7299,11 @@
       </c>
       <c r="J64" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C64,Trigger),"--")</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="K64" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C64,Trigger),"--")</f>
-        <v>45432</v>
+        <v>45538</v>
       </c>
       <c r="M64" s="119"/>
       <c r="O64" s="172"/>
@@ -7311,7 +7315,7 @@
       </c>
       <c r="C65" s="107" t="str">
         <f>Swaps!L17</f>
-        <v>obj_00342#0004</v>
+        <v>obj_002f7#0003</v>
       </c>
       <c r="D65" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C65),"--")</f>
@@ -7319,7 +7323,7 @@
       </c>
       <c r="E65" s="108">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C65,Trigger),"--")</f>
-        <v>2.298E-2</v>
+        <v>2.189E-2</v>
       </c>
       <c r="F65" s="108">
         <f>IFERROR(_xll.qlSwapRateHelperSpread($C65,Trigger),"--")</f>
@@ -7337,11 +7341,11 @@
       </c>
       <c r="J65" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C65,Trigger),"--")</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="K65" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C65,Trigger),"--")</f>
-        <v>45796</v>
+        <v>45902</v>
       </c>
       <c r="M65" s="119"/>
       <c r="O65" s="172"/>
@@ -7395,7 +7399,7 @@
       </c>
       <c r="C67" s="107" t="str">
         <f>Swaps!L19</f>
-        <v>obj_00339#0004</v>
+        <v>obj_00338#0003</v>
       </c>
       <c r="D67" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C67),"--")</f>
@@ -7403,7 +7407,7 @@
       </c>
       <c r="E67" s="108">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C67,Trigger),"--")</f>
-        <v>2.4300000000000002E-2</v>
+        <v>2.316E-2</v>
       </c>
       <c r="F67" s="108">
         <f>IFERROR(_xll.qlSwapRateHelperSpread($C67,Trigger),"--")</f>
@@ -7421,11 +7425,11 @@
       </c>
       <c r="J67" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C67,Trigger),"--")</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="K67" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C67,Trigger),"--")</f>
-        <v>46525</v>
+        <v>46632</v>
       </c>
       <c r="M67" s="119"/>
       <c r="O67" s="172"/>
@@ -7521,7 +7525,7 @@
       </c>
       <c r="C70" s="107" t="str">
         <f>Swaps!L22</f>
-        <v>obj_0032f#0004</v>
+        <v>obj_002fb#0003</v>
       </c>
       <c r="D70" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C70),"--")</f>
@@ -7529,7 +7533,7 @@
       </c>
       <c r="E70" s="108">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C70,Trigger),"--")</f>
-        <v>2.5610000000000001E-2</v>
+        <v>2.4409999999999998E-2</v>
       </c>
       <c r="F70" s="108">
         <f>IFERROR(_xll.qlSwapRateHelperSpread($C70,Trigger),"--")</f>
@@ -7547,11 +7551,11 @@
       </c>
       <c r="J70" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C70,Trigger),"--")</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="K70" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C70,Trigger),"--")</f>
-        <v>47623</v>
+        <v>47729</v>
       </c>
       <c r="M70" s="119"/>
       <c r="O70" s="172"/>
@@ -7731,7 +7735,7 @@
       </c>
       <c r="C75" s="107" t="str">
         <f>Swaps!L27</f>
-        <v>obj_00336#0004</v>
+        <v>obj_00330#0003</v>
       </c>
       <c r="D75" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C75),"--")</f>
@@ -7739,7 +7743,7 @@
       </c>
       <c r="E75" s="108">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C75,Trigger),"--")</f>
-        <v>2.6849999999999999E-2</v>
+        <v>2.5559999999999999E-2</v>
       </c>
       <c r="F75" s="108">
         <f>IFERROR(_xll.qlSwapRateHelperSpread($C75,Trigger),"--")</f>
@@ -7757,11 +7761,11 @@
       </c>
       <c r="J75" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C75,Trigger),"--")</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="K75" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C75,Trigger),"--")</f>
-        <v>49447</v>
+        <v>49556</v>
       </c>
       <c r="M75" s="119"/>
       <c r="O75" s="172"/>
@@ -7941,7 +7945,7 @@
       </c>
       <c r="C80" s="107" t="str">
         <f>Swaps!L32</f>
-        <v>obj_00327#0004</v>
+        <v>obj_0032d#0003</v>
       </c>
       <c r="D80" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C80),"--")</f>
@@ -7949,7 +7953,7 @@
       </c>
       <c r="E80" s="108">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C80,Trigger),"--")</f>
-        <v>2.7450000000000002E-2</v>
+        <v>2.6089999999999999E-2</v>
       </c>
       <c r="F80" s="108">
         <f>IFERROR(_xll.qlSwapRateHelperSpread($C80,Trigger),"--")</f>
@@ -7967,11 +7971,11 @@
       </c>
       <c r="J80" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C80,Trigger),"--")</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="K80" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C80,Trigger),"--")</f>
-        <v>51274</v>
+        <v>51383</v>
       </c>
       <c r="M80" s="119"/>
       <c r="O80" s="172"/>
@@ -8151,7 +8155,7 @@
       </c>
       <c r="C85" s="107" t="str">
         <f>Swaps!L37</f>
-        <v>obj_00344#0004</v>
+        <v>obj_0032f#0003</v>
       </c>
       <c r="D85" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C85),"--")</f>
@@ -8159,7 +8163,7 @@
       </c>
       <c r="E85" s="108">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C85,Trigger),"--")</f>
-        <v>2.7779999999999999E-2</v>
+        <v>2.6409999999999999E-2</v>
       </c>
       <c r="F85" s="108">
         <f>IFERROR(_xll.qlSwapRateHelperSpread($C85,Trigger),"--")</f>
@@ -8177,11 +8181,11 @@
       </c>
       <c r="J85" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C85,Trigger),"--")</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="K85" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C85,Trigger),"--")</f>
-        <v>53100</v>
+        <v>53210</v>
       </c>
       <c r="M85" s="119"/>
       <c r="O85" s="172"/>
@@ -8235,7 +8239,7 @@
       </c>
       <c r="C87" s="107" t="str">
         <f>Swaps!L39</f>
-        <v>obj_0033b#0004</v>
+        <v>obj_00337#0003</v>
       </c>
       <c r="D87" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C87),"--")</f>
@@ -8243,7 +8247,7 @@
       </c>
       <c r="E87" s="108">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C87,Trigger),"--")</f>
-        <v>2.7959999999999999E-2</v>
+        <v>2.6579999999999999E-2</v>
       </c>
       <c r="F87" s="108">
         <f>IFERROR(_xll.qlSwapRateHelperSpread($C87,Trigger),"--")</f>
@@ -8261,11 +8265,11 @@
       </c>
       <c r="J87" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C87,Trigger),"--")</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="K87" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C87,Trigger),"--")</f>
-        <v>56752</v>
+        <v>56859</v>
       </c>
       <c r="M87" s="119"/>
       <c r="O87" s="172"/>
@@ -8277,7 +8281,7 @@
       </c>
       <c r="C88" s="107" t="str">
         <f>Swaps!L40</f>
-        <v>obj_0032b#0004</v>
+        <v>obj_00335#0003</v>
       </c>
       <c r="D88" s="107" t="str">
         <f>IFERROR(_xll.qlRateHelperQuoteName(C88),"--")</f>
@@ -8285,7 +8289,7 @@
       </c>
       <c r="E88" s="108">
         <f>IFERROR(_xll.qlRateHelperQuoteValue($C88,Trigger),"--")</f>
-        <v>2.7779999999999999E-2</v>
+        <v>2.6430000000000002E-2</v>
       </c>
       <c r="F88" s="108">
         <f>IFERROR(_xll.qlSwapRateHelperSpread($C88,Trigger),"--")</f>
@@ -8303,11 +8307,11 @@
       </c>
       <c r="J88" s="109">
         <f>IFERROR(_xll.qlRateHelperEarliestDate($C88,Trigger),"--")</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="K88" s="110">
         <f>IFERROR(_xll.qlRateHelperLatestDate($C88,Trigger),"--")</f>
-        <v>60405</v>
+        <v>60512</v>
       </c>
       <c r="M88" s="119"/>
       <c r="O88" s="172"/>
@@ -8366,7 +8370,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -8416,7 +8420,7 @@
       </c>
       <c r="J1" s="68">
         <f t="array" ref="J1:J126">_xll.qlPiecewiseYieldCurveData(YieldCurve)</f>
-        <v>2.8388778488116924E-3</v>
+        <v>2.8388557690474324E-3</v>
       </c>
       <c r="O1" s="158"/>
     </row>
@@ -8429,7 +8433,7 @@
       </c>
       <c r="D2" s="69" t="str">
         <f t="array" ref="D2:D126">_xll.qlRateHelperSelection(_xll.ohPack(_xll.ohFilter(RateHelpers,RateHelpersIncluded)),_xll.ohPack(_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded)),nIMMFutures,nSerialFutures,FrontFuturesRollingDays,DepoInclusionCriteria,_xll.ohPack(_xll.ohFilter(MinDistance,RateHelpersIncluded)),Trigger)</f>
-        <v>obj_0034e</v>
+        <v>obj_002b6</v>
       </c>
       <c r="E2" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D2)</f>
@@ -8437,7 +8441,7 @@
       </c>
       <c r="F2" s="70">
         <f>_xll.qlRateHelperRate($D2)</f>
-        <v>2.7999999999999995E-3</v>
+        <v>2.8000000000000004E-3</v>
       </c>
       <c r="G2" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D2)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D2)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D2)),_xll.qlSwapRateHelperSpread($D2))</f>
@@ -8445,14 +8449,14 @@
       </c>
       <c r="H2" s="78">
         <f>_xll.qlRateHelperEarliestDate($D2)</f>
-        <v>42138</v>
+        <v>42244</v>
       </c>
       <c r="I2" s="79">
         <f>_xll.qlRateHelperLatestDate($D2)</f>
-        <v>42139</v>
+        <v>42247</v>
       </c>
       <c r="J2" s="68">
-        <v>2.8388778488116924E-3</v>
+        <v>2.8388557690474324E-3</v>
       </c>
       <c r="M2" s="160"/>
       <c r="O2" s="160"/>
@@ -8468,7 +8472,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="69" t="str">
-        <v>obj_00349</v>
+        <v>obj_0033c</v>
       </c>
       <c r="E3" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D3)</f>
@@ -8476,7 +8480,7 @@
       </c>
       <c r="F3" s="70">
         <f>_xll.qlRateHelperRate($D3)</f>
-        <v>2.7999999999999995E-3</v>
+        <v>2.8000000000000004E-3</v>
       </c>
       <c r="G3" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D3)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D3)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D3)),_xll.qlSwapRateHelperSpread($D3))</f>
@@ -8484,14 +8488,14 @@
       </c>
       <c r="H3" s="78">
         <f>_xll.qlRateHelperEarliestDate($D3)</f>
-        <v>42139</v>
+        <v>42247</v>
       </c>
       <c r="I3" s="79">
         <f>_xll.qlRateHelperLatestDate($D3)</f>
-        <v>42142</v>
+        <v>42248</v>
       </c>
       <c r="J3" s="68">
-        <v>2.8388612889776554E-3</v>
+        <v>2.8388612889816279E-3</v>
       </c>
       <c r="M3" s="160"/>
       <c r="O3" s="160"/>
@@ -8507,7 +8511,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="69" t="str">
-        <v>obj_00351</v>
+        <v>obj_0033b</v>
       </c>
       <c r="E4" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D4)</f>
@@ -8515,7 +8519,7 @@
       </c>
       <c r="F4" s="70">
         <f>_xll.qlRateHelperRate($D4)</f>
-        <v>2.8999999999999998E-3</v>
+        <v>2.8000000000000004E-3</v>
       </c>
       <c r="G4" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D4)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D4)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D4)),_xll.qlSwapRateHelperSpread($D4))</f>
@@ -8523,14 +8527,14 @@
       </c>
       <c r="H4" s="78">
         <f>_xll.qlRateHelperEarliestDate($D4)</f>
-        <v>42142</v>
+        <v>42248</v>
       </c>
       <c r="I4" s="79">
         <f>_xll.qlRateHelperLatestDate($D4)</f>
-        <v>42143</v>
+        <v>42249</v>
       </c>
       <c r="J4" s="68">
-        <v>2.8591422181895999E-3</v>
+        <v>2.8388646009405317E-3</v>
       </c>
       <c r="M4" s="160"/>
       <c r="V4" s="119"/>
@@ -8542,10 +8546,10 @@
         <v>48</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D5" s="69" t="str">
-        <v>obj_0034a</v>
+        <v>obj_002b5</v>
       </c>
       <c r="E5" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D5)</f>
@@ -8553,7 +8557,7 @@
       </c>
       <c r="F5" s="70">
         <f>_xll.qlRateHelperRate($D5)</f>
-        <v>1.4574999999999998E-3</v>
+        <v>1.542E-3</v>
       </c>
       <c r="G5" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D5)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D5)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D5)),_xll.qlSwapRateHelperSpread($D5))</f>
@@ -8561,14 +8565,14 @@
       </c>
       <c r="H5" s="78">
         <f>_xll.qlRateHelperEarliestDate($D5)</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="I5" s="79">
         <f>_xll.qlRateHelperLatestDate($D5)</f>
-        <v>42150</v>
+        <v>42256</v>
       </c>
       <c r="J5" s="68">
-        <v>1.931433179556636E-3</v>
+        <v>2.0948396339226468E-3</v>
       </c>
       <c r="M5" s="160"/>
       <c r="V5" s="119"/>
@@ -8584,7 +8588,7 @@
         <v/>
       </c>
       <c r="D6" s="69" t="str">
-        <v>obj_0034b</v>
+        <v>obj_002b4</v>
       </c>
       <c r="E6" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D6)</f>
@@ -8592,7 +8596,7 @@
       </c>
       <c r="F6" s="70">
         <f>_xll.qlRateHelperRate($D6)</f>
-        <v>1.8560000000000002E-3</v>
+        <v>1.9854999999999999E-3</v>
       </c>
       <c r="G6" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D6)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D6)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D6)),_xll.qlSwapRateHelperSpread($D6))</f>
@@ -8600,14 +8604,14 @@
       </c>
       <c r="H6" s="78">
         <f>_xll.qlRateHelperEarliestDate($D6)</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="I6" s="79">
         <f>_xll.qlRateHelperLatestDate($D6)</f>
-        <v>42173</v>
+        <v>42279</v>
       </c>
       <c r="J6" s="68">
-        <v>1.9910255754236354E-3</v>
+        <v>2.1309034005213452E-3</v>
       </c>
       <c r="M6" s="160"/>
       <c r="V6" s="119"/>
@@ -8616,7 +8620,7 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D7" s="69" t="str">
-        <v>obj_0034d</v>
+        <v>obj_002b3</v>
       </c>
       <c r="E7" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D7)</f>
@@ -8624,7 +8628,7 @@
       </c>
       <c r="F7" s="70">
         <f>_xll.qlRateHelperRate($D7)</f>
-        <v>2.2465000000000002E-3</v>
+        <v>2.6625000000000004E-3</v>
       </c>
       <c r="G7" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D7)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D7)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D7)),_xll.qlSwapRateHelperSpread($D7))</f>
@@ -8632,14 +8636,14 @@
       </c>
       <c r="H7" s="78">
         <f>_xll.qlRateHelperEarliestDate($D7)</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="I7" s="79">
         <f>_xll.qlRateHelperLatestDate($D7)</f>
-        <v>42205</v>
+        <v>42310</v>
       </c>
       <c r="J7" s="68">
-        <v>2.3107825877139508E-3</v>
+        <v>2.7094760400990644E-3</v>
       </c>
       <c r="M7" s="160"/>
       <c r="V7" s="119"/>
@@ -8648,7 +8652,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D8" s="69" t="str">
-        <v>obj_00350</v>
+        <v>obj_002b2</v>
       </c>
       <c r="E8" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D8)</f>
@@ -8656,7 +8660,7 @@
       </c>
       <c r="F8" s="70">
         <f>_xll.qlRateHelperRate($D8)</f>
-        <v>2.7389999999999997E-3</v>
+        <v>3.29E-3</v>
       </c>
       <c r="G8" s="70" t="str">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D8)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D8)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D8)),_xll.qlSwapRateHelperSpread($D8))</f>
@@ -8664,14 +8668,14 @@
       </c>
       <c r="H8" s="78">
         <f>_xll.qlRateHelperEarliestDate($D8)</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="I8" s="79">
         <f>_xll.qlRateHelperLatestDate($D8)</f>
-        <v>42234</v>
+        <v>42340</v>
       </c>
       <c r="J8" s="68">
-        <v>2.7786864969735043E-3</v>
+        <v>3.3085038140029327E-3</v>
       </c>
       <c r="M8" s="160"/>
       <c r="O8" s="160"/>
@@ -8681,30 +8685,30 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D9" s="69" t="str">
-        <v>obj_0036c</v>
+        <v>obj_00349</v>
       </c>
       <c r="E9" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D9)</f>
-        <v>USDFUT3MM5_Quote</v>
+        <v>USDFUT3MU5_Quote</v>
       </c>
       <c r="F9" s="70">
         <f>_xll.qlRateHelperRate($D9)</f>
-        <v>2.8725958425064734E-3</v>
+        <v>3.4862666561026978E-3</v>
       </c>
       <c r="G9" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D9)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D9)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D9)),_xll.qlSwapRateHelperSpread($D9))</f>
-        <v>2.4041574934877678E-6</v>
+        <v>1.2333438972790692E-6</v>
       </c>
       <c r="H9" s="78">
         <f>_xll.qlRateHelperEarliestDate($D9)</f>
-        <v>42172</v>
+        <v>42263</v>
       </c>
       <c r="I9" s="79">
         <f>_xll.qlRateHelperLatestDate($D9)</f>
-        <v>42264</v>
+        <v>42354</v>
       </c>
       <c r="J9" s="68">
-        <v>2.6623637249817917E-3</v>
+        <v>3.2865942570860897E-3</v>
       </c>
       <c r="M9" s="160"/>
       <c r="O9" s="160"/>
@@ -8714,30 +8718,30 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D10" s="69" t="str">
-        <v>obj_0035f</v>
+        <v>obj_00356</v>
       </c>
       <c r="E10" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D10)</f>
-        <v>USDFUT3MU5_Quote</v>
+        <v>USDFUT3MZ5_Quote</v>
       </c>
       <c r="F10" s="70">
         <f>_xll.qlRateHelperRate($D10)</f>
-        <v>3.9126306630214922E-3</v>
+        <v>4.4646915332312758E-3</v>
       </c>
       <c r="G10" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D10)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D10)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D10)),_xll.qlSwapRateHelperSpread($D10))</f>
-        <v>1.2369336978464258E-5</v>
+        <v>1.0308466768619883E-5</v>
       </c>
       <c r="H10" s="78">
         <f>_xll.qlRateHelperEarliestDate($D10)</f>
-        <v>42263</v>
+        <v>42354</v>
       </c>
       <c r="I10" s="79">
         <f>_xll.qlRateHelperLatestDate($D10)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="J10" s="68">
-        <v>3.2134086375681242E-3</v>
+        <v>3.8468800983439827E-3</v>
       </c>
       <c r="M10" s="160"/>
       <c r="O10" s="160"/>
@@ -8747,30 +8751,30 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D11" s="69" t="str">
-        <v>obj_00377</v>
+        <v>obj_00350</v>
       </c>
       <c r="E11" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D11)</f>
-        <v>USDFUT3MZ5_Quote</v>
+        <v>USDFUT3MH6_Quote</v>
       </c>
       <c r="F11" s="70">
         <f>_xll.qlRateHelperRate($D11)</f>
-        <v>5.5474732171627589E-3</v>
+        <v>5.750330903257877E-3</v>
       </c>
       <c r="G11" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D11)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D11)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D11)),_xll.qlSwapRateHelperSpread($D11))</f>
-        <v>2.752678283723802E-5</v>
+        <v>2.4669096741986899E-5</v>
       </c>
       <c r="H11" s="78">
         <f>_xll.qlRateHelperEarliestDate($D11)</f>
-        <v>42354</v>
+        <v>42445</v>
       </c>
       <c r="I11" s="79">
         <f>_xll.qlRateHelperLatestDate($D11)</f>
-        <v>42445</v>
+        <v>42537</v>
       </c>
       <c r="J11" s="68">
-        <v>3.9269354670281474E-3</v>
+        <v>4.4682841706827582E-3</v>
       </c>
       <c r="M11" s="160"/>
       <c r="O11" s="160"/>
@@ -8780,30 +8784,30 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D12" s="69" t="str">
-        <v>obj_00365</v>
+        <v>obj_0034d</v>
       </c>
       <c r="E12" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D12)</f>
-        <v>USDFUT3MH6_Quote</v>
+        <v>USDFUT3MM6_Quote</v>
       </c>
       <c r="F12" s="70">
         <f>_xll.qlRateHelperRate($D12)</f>
-        <v>7.3770617602976884E-3</v>
+        <v>7.3309915834477201E-3</v>
       </c>
       <c r="G12" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D12)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D12)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D12)),_xll.qlSwapRateHelperSpread($D12))</f>
-        <v>4.7938239702326456E-5</v>
+        <v>4.4008416552300407E-5</v>
       </c>
       <c r="H12" s="78">
         <f>_xll.qlRateHelperEarliestDate($D12)</f>
-        <v>42445</v>
+        <v>42536</v>
       </c>
       <c r="I12" s="79">
         <f>_xll.qlRateHelperLatestDate($D12)</f>
-        <v>42537</v>
+        <v>42628</v>
       </c>
       <c r="J12" s="68">
-        <v>4.7444543734300208E-3</v>
+        <v>5.1717331753497854E-3</v>
       </c>
       <c r="M12" s="160"/>
       <c r="O12" s="160"/>
@@ -8813,30 +8817,30 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D13" s="69" t="str">
-        <v>obj_00372</v>
+        <v>obj_00361</v>
       </c>
       <c r="E13" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D13)</f>
-        <v>USDFUT3MM6_Quote</v>
+        <v>USDFUT3MU6_Quote</v>
       </c>
       <c r="F13" s="70">
         <f>_xll.qlRateHelperRate($D13)</f>
-        <v>9.5018307120272802E-3</v>
+        <v>9.2048842053983077E-3</v>
       </c>
       <c r="G13" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D13)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D13)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D13)),_xll.qlSwapRateHelperSpread($D13))</f>
-        <v>7.316928797271935E-5</v>
+        <v>7.0115794601614679E-5</v>
       </c>
       <c r="H13" s="78">
         <f>_xll.qlRateHelperEarliestDate($D13)</f>
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="I13" s="79">
         <f>_xll.qlRateHelperLatestDate($D13)</f>
-        <v>42628</v>
+        <v>42725</v>
       </c>
       <c r="J13" s="68">
-        <v>5.653043849830691E-3</v>
+        <v>5.9983555841171439E-3</v>
       </c>
       <c r="M13" s="160"/>
       <c r="O13" s="160"/>
@@ -8846,30 +8850,30 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D14" s="69" t="str">
-        <v>obj_00370</v>
+        <v>obj_0034e</v>
       </c>
       <c r="E14" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D14)</f>
-        <v>USDFUT3MU6_Quote</v>
+        <v>USDFUT3MZ6_Quote</v>
       </c>
       <c r="F14" s="70">
         <f>_xll.qlRateHelperRate($D14)</f>
-        <v>1.1769548145856996E-2</v>
+        <v>1.107575162354083E-2</v>
       </c>
       <c r="G14" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D14)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D14)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D14)),_xll.qlSwapRateHelperSpread($D14))</f>
-        <v>1.0545185414297318E-4</v>
+        <v>9.9248376459104527E-5</v>
       </c>
       <c r="H14" s="78">
         <f>_xll.qlRateHelperEarliestDate($D14)</f>
-        <v>42634</v>
+        <v>42725</v>
       </c>
       <c r="I14" s="79">
         <f>_xll.qlRateHelperLatestDate($D14)</f>
-        <v>42725</v>
+        <v>42815</v>
       </c>
       <c r="J14" s="68">
-        <v>6.6773923991774219E-3</v>
+        <v>6.8204460920119605E-3</v>
       </c>
       <c r="M14" s="160"/>
       <c r="O14" s="160"/>
@@ -8879,7 +8883,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D15" s="69" t="str">
-        <v>obj_00310</v>
+        <v>obj_002f3</v>
       </c>
       <c r="E15" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D15)</f>
@@ -8887,7 +8891,7 @@
       </c>
       <c r="F15" s="70">
         <f>_xll.qlRateHelperRate($D15)</f>
-        <v>8.2299999999999995E-3</v>
+        <v>8.26E-3</v>
       </c>
       <c r="G15" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D15)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D15)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D15)),_xll.qlSwapRateHelperSpread($D15))</f>
@@ -8895,14 +8899,14 @@
       </c>
       <c r="H15" s="78">
         <f>_xll.qlRateHelperEarliestDate($D15)</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="I15" s="79">
         <f>_xll.qlRateHelperLatestDate($D15)</f>
-        <v>42873</v>
+        <v>42983</v>
       </c>
       <c r="J15" s="68">
-        <v>8.2957474935149347E-3</v>
+        <v>8.3159298823038755E-3</v>
       </c>
       <c r="M15" s="160"/>
       <c r="O15" s="160"/>
@@ -8912,7 +8916,7 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="69" t="str">
-        <v>obj_00345</v>
+        <v>obj_00332</v>
       </c>
       <c r="E16" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D16)</f>
@@ -8920,7 +8924,7 @@
       </c>
       <c r="F16" s="70">
         <f>_xll.qlRateHelperRate($D16)</f>
-        <v>1.171E-2</v>
+        <v>1.1120000000000001E-2</v>
       </c>
       <c r="G16" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D16)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D16)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D16)),_xll.qlSwapRateHelperSpread($D16))</f>
@@ -8928,14 +8932,14 @@
       </c>
       <c r="H16" s="78">
         <f>_xll.qlRateHelperEarliestDate($D16)</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="I16" s="79">
         <f>_xll.qlRateHelperLatestDate($D16)</f>
-        <v>43238</v>
+        <v>43347</v>
       </c>
       <c r="J16" s="68">
-        <v>1.1826945050509541E-2</v>
+        <v>1.1218169217018285E-2</v>
       </c>
       <c r="M16" s="160"/>
       <c r="V16" s="119"/>
@@ -8944,7 +8948,7 @@
     </row>
     <row r="17" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D17" s="69" t="str">
-        <v>obj_00332</v>
+        <v>obj_00331</v>
       </c>
       <c r="E17" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D17)</f>
@@ -8952,7 +8956,7 @@
       </c>
       <c r="F17" s="70">
         <f>_xll.qlRateHelperRate($D17)</f>
-        <v>1.4490000000000001E-2</v>
+        <v>1.355E-2</v>
       </c>
       <c r="G17" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D17)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D17)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D17)),_xll.qlSwapRateHelperSpread($D17))</f>
@@ -8960,14 +8964,14 @@
       </c>
       <c r="H17" s="78">
         <f>_xll.qlRateHelperEarliestDate($D17)</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="I17" s="79">
         <f>_xll.qlRateHelperLatestDate($D17)</f>
-        <v>43605</v>
+        <v>43711</v>
       </c>
       <c r="J17" s="68">
-        <v>1.4667306472965424E-2</v>
+        <v>1.3699989779517118E-2</v>
       </c>
       <c r="M17" s="160"/>
       <c r="O17" s="160"/>
@@ -8978,7 +8982,7 @@
     </row>
     <row r="18" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D18" s="69" t="str">
-        <v>obj_0032c</v>
+        <v>obj_0032e</v>
       </c>
       <c r="E18" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D18)</f>
@@ -8986,7 +8990,7 @@
       </c>
       <c r="F18" s="70">
         <f>_xll.qlRateHelperRate($D18)</f>
-        <v>1.669E-2</v>
+        <v>1.562E-2</v>
       </c>
       <c r="G18" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D18)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D18)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D18)),_xll.qlSwapRateHelperSpread($D18))</f>
@@ -8994,14 +8998,14 @@
       </c>
       <c r="H18" s="78">
         <f>_xll.qlRateHelperEarliestDate($D18)</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="I18" s="79">
         <f>_xll.qlRateHelperLatestDate($D18)</f>
-        <v>43969</v>
+        <v>44076</v>
       </c>
       <c r="J18" s="68">
-        <v>1.6932795245900939E-2</v>
+        <v>1.5830184228626192E-2</v>
       </c>
       <c r="M18" s="160"/>
       <c r="O18" s="160"/>
@@ -9012,7 +9016,7 @@
     </row>
     <row r="19" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D19" s="69" t="str">
-        <v>obj_0032d</v>
+        <v>obj_002ee</v>
       </c>
       <c r="E19" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D19)</f>
@@ -9020,7 +9024,7 @@
       </c>
       <c r="F19" s="70">
         <f>_xll.qlRateHelperRate($D19)</f>
-        <v>1.8530000000000001E-2</v>
+        <v>1.7410000000000002E-2</v>
       </c>
       <c r="G19" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D19)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D19)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D19)),_xll.qlSwapRateHelperSpread($D19))</f>
@@ -9028,14 +9032,14 @@
       </c>
       <c r="H19" s="78">
         <f>_xll.qlRateHelperEarliestDate($D19)</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="I19" s="79">
         <f>_xll.qlRateHelperLatestDate($D19)</f>
-        <v>44334</v>
+        <v>44441</v>
       </c>
       <c r="J19" s="68">
-        <v>1.8843945514078704E-2</v>
+        <v>1.7688357907884394E-2</v>
       </c>
       <c r="M19" s="160"/>
       <c r="O19" s="160"/>
@@ -9046,7 +9050,7 @@
     </row>
     <row r="20" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D20" s="69" t="str">
-        <v>obj_00338</v>
+        <v>obj_00333</v>
       </c>
       <c r="E20" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D20)</f>
@@ -9054,7 +9058,7 @@
       </c>
       <c r="F20" s="70">
         <f>_xll.qlRateHelperRate($D20)</f>
-        <v>2.001E-2</v>
+        <v>1.89E-2</v>
       </c>
       <c r="G20" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D20)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D20)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D20)),_xll.qlSwapRateHelperSpread($D20))</f>
@@ -9062,14 +9066,14 @@
       </c>
       <c r="H20" s="78">
         <f>_xll.qlRateHelperEarliestDate($D20)</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="I20" s="79">
         <f>_xll.qlRateHelperLatestDate($D20)</f>
-        <v>44699</v>
+        <v>44806</v>
       </c>
       <c r="J20" s="68">
-        <v>2.039356781841117E-2</v>
+        <v>1.9248420925360572E-2</v>
       </c>
       <c r="M20" s="160"/>
       <c r="O20" s="160"/>
@@ -9080,7 +9084,7 @@
     </row>
     <row r="21" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D21" s="69" t="str">
-        <v>obj_00333</v>
+        <v>obj_002ff</v>
       </c>
       <c r="E21" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D21)</f>
@@ -9088,7 +9092,7 @@
       </c>
       <c r="F21" s="70">
         <f>_xll.qlRateHelperRate($D21)</f>
-        <v>2.12E-2</v>
+        <v>2.0119999999999999E-2</v>
       </c>
       <c r="G21" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D21)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D21)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D21)),_xll.qlSwapRateHelperSpread($D21))</f>
@@ -9096,14 +9100,14 @@
       </c>
       <c r="H21" s="78">
         <f>_xll.qlRateHelperEarliestDate($D21)</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="I21" s="79">
         <f>_xll.qlRateHelperLatestDate($D21)</f>
-        <v>45064</v>
+        <v>45174</v>
       </c>
       <c r="J21" s="68">
-        <v>2.1648691448286461E-2</v>
+        <v>2.0535348877238263E-2</v>
       </c>
       <c r="M21" s="160"/>
       <c r="O21" s="160"/>
@@ -9114,7 +9118,7 @@
     </row>
     <row r="22" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D22" s="69" t="str">
-        <v>obj_00335</v>
+        <v>obj_00336</v>
       </c>
       <c r="E22" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D22)</f>
@@ -9122,7 +9126,7 @@
       </c>
       <c r="F22" s="70">
         <f>_xll.qlRateHelperRate($D22)</f>
-        <v>2.2170000000000002E-2</v>
+        <v>2.1090000000000001E-2</v>
       </c>
       <c r="G22" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D22)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D22)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D22)),_xll.qlSwapRateHelperSpread($D22))</f>
@@ -9130,14 +9134,14 @@
       </c>
       <c r="H22" s="78">
         <f>_xll.qlRateHelperEarliestDate($D22)</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="I22" s="79">
         <f>_xll.qlRateHelperLatestDate($D22)</f>
-        <v>45432</v>
+        <v>45538</v>
       </c>
       <c r="J22" s="68">
-        <v>2.2678132628992979E-2</v>
+        <v>2.1565444282104027E-2</v>
       </c>
       <c r="M22" s="160"/>
       <c r="O22" s="160"/>
@@ -9148,7 +9152,7 @@
     </row>
     <row r="23" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D23" s="69" t="str">
-        <v>obj_00342</v>
+        <v>obj_002f7</v>
       </c>
       <c r="E23" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D23)</f>
@@ -9156,7 +9160,7 @@
       </c>
       <c r="F23" s="70">
         <f>_xll.qlRateHelperRate($D23)</f>
-        <v>2.298E-2</v>
+        <v>2.189E-2</v>
       </c>
       <c r="G23" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D23)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D23)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D23)),_xll.qlSwapRateHelperSpread($D23))</f>
@@ -9164,14 +9168,14 @@
       </c>
       <c r="H23" s="78">
         <f>_xll.qlRateHelperEarliestDate($D23)</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="I23" s="79">
         <f>_xll.qlRateHelperLatestDate($D23)</f>
-        <v>45796</v>
+        <v>45902</v>
       </c>
       <c r="J23" s="68">
-        <v>2.3544673121296957E-2</v>
+        <v>2.2420260902810588E-2</v>
       </c>
       <c r="M23" s="160"/>
       <c r="O23" s="160"/>
@@ -9181,7 +9185,7 @@
     </row>
     <row r="24" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D24" s="69" t="str">
-        <v>obj_00339</v>
+        <v>obj_00338</v>
       </c>
       <c r="E24" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D24)</f>
@@ -9189,7 +9193,7 @@
       </c>
       <c r="F24" s="70">
         <f>_xll.qlRateHelperRate($D24)</f>
-        <v>2.4300000000000002E-2</v>
+        <v>2.316E-2</v>
       </c>
       <c r="G24" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D24)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D24)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D24)),_xll.qlSwapRateHelperSpread($D24))</f>
@@ -9197,14 +9201,14 @@
       </c>
       <c r="H24" s="78">
         <f>_xll.qlRateHelperEarliestDate($D24)</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="I24" s="79">
         <f>_xll.qlRateHelperLatestDate($D24)</f>
-        <v>46525</v>
+        <v>46632</v>
       </c>
       <c r="J24" s="68">
-        <v>2.4975293806783996E-2</v>
+        <v>2.3791863898700662E-2</v>
       </c>
       <c r="M24" s="160"/>
       <c r="O24" s="160"/>
@@ -9214,7 +9218,7 @@
     </row>
     <row r="25" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D25" s="69" t="str">
-        <v>obj_0032f</v>
+        <v>obj_002fb</v>
       </c>
       <c r="E25" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D25)</f>
@@ -9222,7 +9226,7 @@
       </c>
       <c r="F25" s="70">
         <f>_xll.qlRateHelperRate($D25)</f>
-        <v>2.5610000000000001E-2</v>
+        <v>2.4409999999999998E-2</v>
       </c>
       <c r="G25" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D25)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D25)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D25)),_xll.qlSwapRateHelperSpread($D25))</f>
@@ -9230,14 +9234,14 @@
       </c>
       <c r="H25" s="78">
         <f>_xll.qlRateHelperEarliestDate($D25)</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="I25" s="79">
         <f>_xll.qlRateHelperLatestDate($D25)</f>
-        <v>47623</v>
+        <v>47729</v>
       </c>
       <c r="J25" s="68">
-        <v>2.6411075472873493E-2</v>
+        <v>2.5155405663232343E-2</v>
       </c>
       <c r="M25" s="160"/>
       <c r="O25" s="160"/>
@@ -9247,7 +9251,7 @@
     </row>
     <row r="26" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D26" s="69" t="str">
-        <v>obj_00336</v>
+        <v>obj_00330</v>
       </c>
       <c r="E26" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D26)</f>
@@ -9255,7 +9259,7 @@
       </c>
       <c r="F26" s="70">
         <f>_xll.qlRateHelperRate($D26)</f>
-        <v>2.6849999999999999E-2</v>
+        <v>2.5559999999999999E-2</v>
       </c>
       <c r="G26" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D26)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D26)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D26)),_xll.qlSwapRateHelperSpread($D26))</f>
@@ -9263,14 +9267,14 @@
       </c>
       <c r="H26" s="78">
         <f>_xll.qlRateHelperEarliestDate($D26)</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="I26" s="79">
         <f>_xll.qlRateHelperLatestDate($D26)</f>
-        <v>49447</v>
+        <v>49556</v>
       </c>
       <c r="J26" s="68">
-        <v>2.7787696778576013E-2</v>
+        <v>2.6418292383462355E-2</v>
       </c>
       <c r="M26" s="160"/>
       <c r="O26" s="160"/>
@@ -9280,7 +9284,7 @@
     </row>
     <row r="27" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D27" s="69" t="str">
-        <v>obj_00327</v>
+        <v>obj_0032d</v>
       </c>
       <c r="E27" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D27)</f>
@@ -9288,7 +9292,7 @@
       </c>
       <c r="F27" s="70">
         <f>_xll.qlRateHelperRate($D27)</f>
-        <v>2.7450000000000002E-2</v>
+        <v>2.6089999999999999E-2</v>
       </c>
       <c r="G27" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D27)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D27)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D27)),_xll.qlSwapRateHelperSpread($D27))</f>
@@ -9296,14 +9300,14 @@
       </c>
       <c r="H27" s="78">
         <f>_xll.qlRateHelperEarliestDate($D27)</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="I27" s="79">
         <f>_xll.qlRateHelperLatestDate($D27)</f>
-        <v>51274</v>
+        <v>51383</v>
       </c>
       <c r="J27" s="68">
-        <v>2.8430826418058917E-2</v>
+        <v>2.6971488039254969E-2</v>
       </c>
       <c r="M27" s="160"/>
       <c r="O27" s="160"/>
@@ -9313,7 +9317,7 @@
     </row>
     <row r="28" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D28" s="69" t="str">
-        <v>obj_00344</v>
+        <v>obj_0032f</v>
       </c>
       <c r="E28" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D28)</f>
@@ -9321,7 +9325,7 @@
       </c>
       <c r="F28" s="70">
         <f>_xll.qlRateHelperRate($D28)</f>
-        <v>2.7779999999999999E-2</v>
+        <v>2.6409999999999999E-2</v>
       </c>
       <c r="G28" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D28)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D28)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D28)),_xll.qlSwapRateHelperSpread($D28))</f>
@@ -9329,14 +9333,14 @@
       </c>
       <c r="H28" s="78">
         <f>_xll.qlRateHelperEarliestDate($D28)</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="I28" s="79">
         <f>_xll.qlRateHelperLatestDate($D28)</f>
-        <v>53100</v>
+        <v>53210</v>
       </c>
       <c r="J28" s="68">
-        <v>2.8764470760583763E-2</v>
+        <v>2.7298920046075537E-2</v>
       </c>
       <c r="M28" s="160"/>
       <c r="O28" s="160"/>
@@ -9346,7 +9350,7 @@
     </row>
     <row r="29" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D29" s="69" t="str">
-        <v>obj_0033b</v>
+        <v>obj_00337</v>
       </c>
       <c r="E29" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D29)</f>
@@ -9354,7 +9358,7 @@
       </c>
       <c r="F29" s="70">
         <f>_xll.qlRateHelperRate($D29)</f>
-        <v>2.7959999999999999E-2</v>
+        <v>2.6579999999999999E-2</v>
       </c>
       <c r="G29" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D29)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D29)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D29)),_xll.qlSwapRateHelperSpread($D29))</f>
@@ -9362,14 +9366,14 @@
       </c>
       <c r="H29" s="78">
         <f>_xll.qlRateHelperEarliestDate($D29)</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="I29" s="79">
         <f>_xll.qlRateHelperLatestDate($D29)</f>
-        <v>56752</v>
+        <v>56859</v>
       </c>
       <c r="J29" s="68">
-        <v>2.8814711606645043E-2</v>
+        <v>2.7353754023797524E-2</v>
       </c>
       <c r="M29" s="160"/>
       <c r="O29" s="160"/>
@@ -9378,7 +9382,7 @@
     </row>
     <row r="30" spans="4:25" x14ac:dyDescent="0.2">
       <c r="D30" s="69" t="str">
-        <v>obj_0032b</v>
+        <v>obj_00335</v>
       </c>
       <c r="E30" s="69" t="str">
         <f>_xll.qlRateHelperQuoteName(D30)</f>
@@ -9386,7 +9390,7 @@
       </c>
       <c r="F30" s="70">
         <f>_xll.qlRateHelperRate($D30)</f>
-        <v>2.7779999999999999E-2</v>
+        <v>2.6430000000000002E-2</v>
       </c>
       <c r="G30" s="70">
         <f>IF(ISERROR(_xll.qlSwapRateHelperSpread($D30)),IF(ISERROR(_xll.qlFuturesRateHelperConvexityAdjustment($D30)),"--",_xll.qlFuturesRateHelperConvexityAdjustment($D30)),_xll.qlSwapRateHelperSpread($D30))</f>
@@ -9394,14 +9398,14 @@
       </c>
       <c r="H30" s="78">
         <f>_xll.qlRateHelperEarliestDate($D30)</f>
-        <v>42142</v>
+        <v>42249</v>
       </c>
       <c r="I30" s="79">
         <f>_xll.qlRateHelperLatestDate($D30)</f>
-        <v>60405</v>
+        <v>60512</v>
       </c>
       <c r="J30" s="68">
-        <v>2.8289295908812032E-2</v>
+        <v>2.6917541218777475E-2</v>
       </c>
       <c r="M30" s="160"/>
       <c r="O30" s="160"/>
@@ -12292,7 +12296,7 @@
       </c>
       <c r="D3" s="191" t="str">
         <f t="shared" ref="D3:D11" si="0">Calendar</f>
-        <v>JoinHolidays(UnitedStates::Settlement,NullCalendar)</v>
+        <v>UnitedStates::Settlement</v>
       </c>
       <c r="E3" s="192" t="s">
         <v>130</v>
@@ -12312,7 +12316,7 @@
       </c>
       <c r="J3" s="193" t="str">
         <f>IF(_xll.qlQuoteIsValid(I3,Trigger),_xll.qlDepositRateHelper(,I3,H3,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0034e#0004</v>
+        <v>obj_002b6#0001</v>
       </c>
       <c r="K3" s="194" t="str">
         <f>_xll.ohRangeRetrieveError(J3)</f>
@@ -12330,7 +12334,7 @@
       </c>
       <c r="D4" s="195" t="str">
         <f t="shared" si="0"/>
-        <v>JoinHolidays(UnitedStates::Settlement,NullCalendar)</v>
+        <v>UnitedStates::Settlement</v>
       </c>
       <c r="E4" s="196" t="s">
         <v>130</v>
@@ -12343,7 +12347,7 @@
       </c>
       <c r="H4" s="197" t="str">
         <f>_xll.qlIborIndex(,FamilyName,"1D",C4,Currency,Calendar,E4,F4,G4,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00347#0003</v>
+        <v>obj_00339#0002</v>
       </c>
       <c r="I4" s="197" t="str">
         <f t="shared" si="1"/>
@@ -12351,7 +12355,7 @@
       </c>
       <c r="J4" s="197" t="str">
         <f>IF(_xll.qlQuoteIsValid(I4,Trigger),_xll.qlDepositRateHelper(,I4,H4,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00349#0004</v>
+        <v>obj_0033c#0002</v>
       </c>
       <c r="K4" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J4)</f>
@@ -12369,7 +12373,7 @@
       </c>
       <c r="D5" s="195" t="str">
         <f t="shared" si="0"/>
-        <v>JoinHolidays(UnitedStates::Settlement,NullCalendar)</v>
+        <v>UnitedStates::Settlement</v>
       </c>
       <c r="E5" s="196" t="s">
         <v>130</v>
@@ -12382,7 +12386,7 @@
       </c>
       <c r="H5" s="197" t="str">
         <f>_xll.qlIborIndex(,FamilyName,"1D",C5,Currency,Calendar,E5,F5,G5,,,Trigger,ObjectOverwrite)</f>
-        <v>obj_00348#0003</v>
+        <v>obj_0033a#0002</v>
       </c>
       <c r="I5" s="197" t="str">
         <f t="shared" si="1"/>
@@ -12390,7 +12394,7 @@
       </c>
       <c r="J5" s="197" t="str">
         <f>IF(_xll.qlQuoteIsValid(I5,Trigger),_xll.qlDepositRateHelper(,I5,H5,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00351#0004</v>
+        <v>obj_0033b#0002</v>
       </c>
       <c r="K5" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J5)</f>
@@ -12408,7 +12412,7 @@
       </c>
       <c r="D6" s="195" t="str">
         <f t="shared" si="0"/>
-        <v>JoinHolidays(UnitedStates::Settlement,NullCalendar)</v>
+        <v>UnitedStates::Settlement</v>
       </c>
       <c r="E6" s="196" t="s">
         <v>130</v>
@@ -12429,7 +12433,7 @@
       </c>
       <c r="J6" s="199" t="str">
         <f>IF(_xll.qlQuoteIsValid(I6,Trigger),_xll.qlDepositRateHelper(,I6,H6,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0034a#0004</v>
+        <v>obj_002b5#0001</v>
       </c>
       <c r="K6" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J6)</f>
@@ -12447,7 +12451,7 @@
       </c>
       <c r="D7" s="195" t="str">
         <f t="shared" si="0"/>
-        <v>JoinHolidays(UnitedStates::Settlement,NullCalendar)</v>
+        <v>UnitedStates::Settlement</v>
       </c>
       <c r="E7" s="196" t="s">
         <v>102</v>
@@ -12468,7 +12472,7 @@
       </c>
       <c r="J7" s="199" t="str">
         <f>IF(_xll.qlQuoteIsValid(I7,Trigger),_xll.qlDepositRateHelper(,I7,H7,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0034b#0004</v>
+        <v>obj_002b4#0001</v>
       </c>
       <c r="K7" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J7)</f>
@@ -12486,7 +12490,7 @@
       </c>
       <c r="D8" s="195" t="str">
         <f t="shared" si="0"/>
-        <v>JoinHolidays(UnitedStates::Settlement,NullCalendar)</v>
+        <v>UnitedStates::Settlement</v>
       </c>
       <c r="E8" s="196" t="s">
         <v>102</v>
@@ -12507,7 +12511,7 @@
       </c>
       <c r="J8" s="199" t="str">
         <f>IF(_xll.qlQuoteIsValid(I8,Trigger),_xll.qlDepositRateHelper(,I8,H8,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0034d#0004</v>
+        <v>obj_002b3#0001</v>
       </c>
       <c r="K8" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J8)</f>
@@ -12525,7 +12529,7 @@
       </c>
       <c r="D9" s="195" t="str">
         <f t="shared" si="0"/>
-        <v>JoinHolidays(UnitedStates::Settlement,NullCalendar)</v>
+        <v>UnitedStates::Settlement</v>
       </c>
       <c r="E9" s="196" t="s">
         <v>102</v>
@@ -12546,7 +12550,7 @@
       </c>
       <c r="J9" s="199" t="str">
         <f>IF(_xll.qlQuoteIsValid(I9,Trigger),_xll.qlDepositRateHelper(,I9,H9,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_00350#0004</v>
+        <v>obj_002b2#0001</v>
       </c>
       <c r="K9" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J9)</f>
@@ -12564,7 +12568,7 @@
       </c>
       <c r="D10" s="195" t="str">
         <f t="shared" si="0"/>
-        <v>JoinHolidays(UnitedStates::Settlement,NullCalendar)</v>
+        <v>UnitedStates::Settlement</v>
       </c>
       <c r="E10" s="196" t="s">
         <v>102</v>
@@ -12585,7 +12589,7 @@
       </c>
       <c r="J10" s="199" t="str">
         <f>IF(_xll.qlQuoteIsValid(I10,Trigger),_xll.qlDepositRateHelper(,I10,H10,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0034c#0004</v>
+        <v>obj_002b1#0001</v>
       </c>
       <c r="K10" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J10)</f>
@@ -12603,7 +12607,7 @@
       </c>
       <c r="D11" s="187" t="str">
         <f t="shared" si="0"/>
-        <v>JoinHolidays(UnitedStates::Settlement,NullCalendar)</v>
+        <v>UnitedStates::Settlement</v>
       </c>
       <c r="E11" s="188" t="s">
         <v>102</v>
@@ -12624,7 +12628,7 @@
       </c>
       <c r="J11" s="190" t="str">
         <f>IF(_xll.qlQuoteIsValid(I11,Trigger),_xll.qlDepositRateHelper(,I11,H11,Permanent,Trigger,ObjectOverwrite),"--")</f>
-        <v>obj_0034f#0004</v>
+        <v>obj_002b0#0001</v>
       </c>
       <c r="K11" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J11)</f>
@@ -12717,16 +12721,16 @@
         <v>96</v>
       </c>
       <c r="C2" s="121" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D2" s="55" t="s">
         <v>95</v>
       </c>
       <c r="E2" s="128" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="128" t="s">
         <v>143</v>
-      </c>
-      <c r="F2" s="128" t="s">
-        <v>144</v>
       </c>
       <c r="G2" s="55" t="s">
         <v>83</v>
@@ -12753,18 +12757,18 @@
         <v>1</v>
       </c>
       <c r="C3" s="200" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="201" t="b">
         <v>0</v>
       </c>
       <c r="E3" s="201" t="str">
         <f t="array" ref="E3:E44">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$D3:$D44)</f>
-        <v>K5</v>
+        <v>U5</v>
       </c>
       <c r="F3" s="202">
         <f>_xll.qlIMMdate(E3)</f>
-        <v>42144</v>
+        <v>42263</v>
       </c>
       <c r="G3" s="201" t="str">
         <f t="shared" ref="G3:G34" si="0">PROPER(Currency)&amp;FamilyName&amp;$G$1</f>
@@ -12772,15 +12776,15 @@
       </c>
       <c r="H3" s="203" t="str">
         <f t="shared" ref="H3:H34" si="1">Currency&amp;"FUT"&amp;$G$1&amp;$E3&amp;QuoteSuffix</f>
-        <v>USDFUT3MK5_Quote</v>
+        <v>USDFUT3MU5_Quote</v>
       </c>
       <c r="I3" s="204" t="str">
         <f t="shared" ref="I3:I44" si="2">Currency&amp;"FUT"&amp;$G$1&amp;$E3&amp;"ConvAdj"&amp;QuoteSuffix</f>
-        <v>USDFUT3MK5ConvAdj_Quote</v>
+        <v>USDFUT3MU5ConvAdj_Quote</v>
       </c>
       <c r="J3" s="205" t="str">
         <f>_xll.qlFuturesRateHelper(,$H3,C3,$E3,$G3,$I3,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036f#0003</v>
+        <v>obj_00349#0001</v>
       </c>
       <c r="K3" s="194" t="str">
         <f>_xll.ohRangeRetrieveError(J3)</f>
@@ -12794,17 +12798,17 @@
         <v>2</v>
       </c>
       <c r="C4" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D4" s="207" t="b">
         <v>0</v>
       </c>
       <c r="E4" s="207" t="str">
-        <v>M5</v>
+        <v>V5</v>
       </c>
       <c r="F4" s="208">
         <f>_xll.qlIMMdate(E4)</f>
-        <v>42172</v>
+        <v>42298</v>
       </c>
       <c r="G4" s="207" t="str">
         <f t="shared" si="0"/>
@@ -12812,15 +12816,15 @@
       </c>
       <c r="H4" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MM5_Quote</v>
+        <v>USDFUT3MV5_Quote</v>
       </c>
       <c r="I4" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MM5ConvAdj_Quote</v>
+        <v>USDFUT3MV5ConvAdj_Quote</v>
       </c>
       <c r="J4" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H4,C4,$E4,$G4,$I4,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036c#0003</v>
+        <v>obj_0035b#0001</v>
       </c>
       <c r="K4" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J4)</f>
@@ -12834,17 +12838,17 @@
         <v>3</v>
       </c>
       <c r="C5" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D5" s="207" t="b">
         <v>0</v>
       </c>
       <c r="E5" s="207" t="str">
-        <v>N5</v>
+        <v>X5</v>
       </c>
       <c r="F5" s="208">
         <f>_xll.qlIMMdate(E5)</f>
-        <v>42200</v>
+        <v>42326</v>
       </c>
       <c r="G5" s="207" t="str">
         <f t="shared" si="0"/>
@@ -12852,15 +12856,15 @@
       </c>
       <c r="H5" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MN5_Quote</v>
+        <v>USDFUT3MX5_Quote</v>
       </c>
       <c r="I5" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MN5ConvAdj_Quote</v>
+        <v>USDFUT3MX5ConvAdj_Quote</v>
       </c>
       <c r="J5" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H5,C5,$E5,$G5,$I5,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00369#0003</v>
+        <v>obj_00352#0001</v>
       </c>
       <c r="K5" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J5)</f>
@@ -12875,17 +12879,17 @@
         <v>4</v>
       </c>
       <c r="C6" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="207" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="207" t="str">
-        <v>Q5</v>
+        <v>Z5</v>
       </c>
       <c r="F6" s="208">
         <f>_xll.qlIMMdate(E6)</f>
-        <v>42235</v>
+        <v>42354</v>
       </c>
       <c r="G6" s="207" t="str">
         <f t="shared" si="0"/>
@@ -12893,15 +12897,15 @@
       </c>
       <c r="H6" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MQ5_Quote</v>
+        <v>USDFUT3MZ5_Quote</v>
       </c>
       <c r="I6" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MQ5ConvAdj_Quote</v>
+        <v>USDFUT3MZ5ConvAdj_Quote</v>
       </c>
       <c r="J6" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H6,C6,$E6,$G6,$I6,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00379#0003</v>
+        <v>obj_00356#0001</v>
       </c>
       <c r="K6" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J6)</f>
@@ -12916,17 +12920,17 @@
         <v>5</v>
       </c>
       <c r="C7" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="207" t="b">
         <v>0</v>
       </c>
       <c r="E7" s="207" t="str">
-        <v>U5</v>
+        <v>F6</v>
       </c>
       <c r="F7" s="208">
         <f>_xll.qlIMMdate(E7)</f>
-        <v>42263</v>
+        <v>42389</v>
       </c>
       <c r="G7" s="207" t="str">
         <f t="shared" si="0"/>
@@ -12934,15 +12938,15 @@
       </c>
       <c r="H7" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MU5_Quote</v>
+        <v>USDFUT3MF6_Quote</v>
       </c>
       <c r="I7" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MU5ConvAdj_Quote</v>
+        <v>USDFUT3MF6ConvAdj_Quote</v>
       </c>
       <c r="J7" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H7,C7,$E7,$G7,$I7,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035f#0003</v>
+        <v>obj_00347#0001</v>
       </c>
       <c r="K7" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J7)</f>
@@ -12957,17 +12961,17 @@
         <v>6</v>
       </c>
       <c r="C8" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D8" s="207" t="b">
         <v>0</v>
       </c>
       <c r="E8" s="207" t="str">
-        <v>V5</v>
+        <v>G6</v>
       </c>
       <c r="F8" s="208">
         <f>_xll.qlIMMdate(E8)</f>
-        <v>42298</v>
+        <v>42417</v>
       </c>
       <c r="G8" s="207" t="str">
         <f t="shared" si="0"/>
@@ -12975,15 +12979,15 @@
       </c>
       <c r="H8" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MV5_Quote</v>
+        <v>USDFUT3MG6_Quote</v>
       </c>
       <c r="I8" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MV5ConvAdj_Quote</v>
+        <v>USDFUT3MG6ConvAdj_Quote</v>
       </c>
       <c r="J8" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H8,C8,$E8,$G8,$I8,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036b#0003</v>
+        <v>obj_00358#0001</v>
       </c>
       <c r="K8" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J8)</f>
@@ -12998,17 +13002,17 @@
         <v>7</v>
       </c>
       <c r="C9" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="207" t="b">
         <v>0</v>
       </c>
       <c r="E9" s="207" t="str">
-        <v>X5</v>
+        <v>H6</v>
       </c>
       <c r="F9" s="208">
         <f>_xll.qlIMMdate(E9)</f>
-        <v>42326</v>
+        <v>42445</v>
       </c>
       <c r="G9" s="207" t="str">
         <f t="shared" si="0"/>
@@ -13016,15 +13020,15 @@
       </c>
       <c r="H9" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MX5_Quote</v>
+        <v>USDFUT3MH6_Quote</v>
       </c>
       <c r="I9" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MX5ConvAdj_Quote</v>
+        <v>USDFUT3MH6ConvAdj_Quote</v>
       </c>
       <c r="J9" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H9,C9,$E9,$G9,$I9,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00352#0003</v>
+        <v>obj_00350#0001</v>
       </c>
       <c r="K9" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J9)</f>
@@ -13039,17 +13043,17 @@
         <v>8</v>
       </c>
       <c r="C10" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="207" t="b">
         <v>0</v>
       </c>
       <c r="E10" s="207" t="str">
-        <v>Z5</v>
+        <v>J6</v>
       </c>
       <c r="F10" s="208">
         <f>_xll.qlIMMdate(E10)</f>
-        <v>42354</v>
+        <v>42480</v>
       </c>
       <c r="G10" s="207" t="str">
         <f t="shared" si="0"/>
@@ -13057,15 +13061,15 @@
       </c>
       <c r="H10" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MZ5_Quote</v>
+        <v>USDFUT3MJ6_Quote</v>
       </c>
       <c r="I10" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MZ5ConvAdj_Quote</v>
+        <v>USDFUT3MJ6ConvAdj_Quote</v>
       </c>
       <c r="J10" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H10,C10,$E10,$G10,$I10,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00377#0003</v>
+        <v>obj_0034f#0001</v>
       </c>
       <c r="K10" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J10)</f>
@@ -13080,17 +13084,17 @@
         <v>9</v>
       </c>
       <c r="C11" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="207" t="b">
         <v>0</v>
       </c>
       <c r="E11" s="207" t="str">
-        <v>F6</v>
+        <v>K6</v>
       </c>
       <c r="F11" s="208">
         <f>_xll.qlIMMdate(E11)</f>
-        <v>42389</v>
+        <v>42508</v>
       </c>
       <c r="G11" s="207" t="str">
         <f t="shared" si="0"/>
@@ -13098,15 +13102,15 @@
       </c>
       <c r="H11" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MF6_Quote</v>
+        <v>USDFUT3MK6_Quote</v>
       </c>
       <c r="I11" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MF6ConvAdj_Quote</v>
+        <v>USDFUT3MK6ConvAdj_Quote</v>
       </c>
       <c r="J11" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H11,C11,$E11,$G11,$I11,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036e#0003</v>
+        <v>obj_00344#0001</v>
       </c>
       <c r="K11" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J11)</f>
@@ -13121,17 +13125,17 @@
         <v>10</v>
       </c>
       <c r="C12" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D12" s="207" t="b">
         <v>0</v>
       </c>
       <c r="E12" s="207" t="str">
-        <v>G6</v>
+        <v>M6</v>
       </c>
       <c r="F12" s="208">
         <f>_xll.qlIMMdate(E12)</f>
-        <v>42417</v>
+        <v>42536</v>
       </c>
       <c r="G12" s="207" t="str">
         <f t="shared" si="0"/>
@@ -13139,15 +13143,15 @@
       </c>
       <c r="H12" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MG6_Quote</v>
+        <v>USDFUT3MM6_Quote</v>
       </c>
       <c r="I12" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MG6ConvAdj_Quote</v>
+        <v>USDFUT3MM6ConvAdj_Quote</v>
       </c>
       <c r="J12" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H12,C12,$E12,$G12,$I12,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00368#0003</v>
+        <v>obj_0034d#0001</v>
       </c>
       <c r="K12" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J12)</f>
@@ -13162,17 +13166,17 @@
         <v>11</v>
       </c>
       <c r="C13" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D13" s="207" t="b">
         <v>0</v>
       </c>
       <c r="E13" s="207" t="str">
-        <v>H6</v>
+        <v>N6</v>
       </c>
       <c r="F13" s="208">
         <f>_xll.qlIMMdate(E13)</f>
-        <v>42445</v>
+        <v>42571</v>
       </c>
       <c r="G13" s="207" t="str">
         <f t="shared" si="0"/>
@@ -13180,15 +13184,15 @@
       </c>
       <c r="H13" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MH6_Quote</v>
+        <v>USDFUT3MN6_Quote</v>
       </c>
       <c r="I13" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MH6ConvAdj_Quote</v>
+        <v>USDFUT3MN6ConvAdj_Quote</v>
       </c>
       <c r="J13" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H13,C13,$E13,$G13,$I13,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00365#0003</v>
+        <v>obj_0033f#0001</v>
       </c>
       <c r="K13" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J13)</f>
@@ -13203,17 +13207,17 @@
         <v>12</v>
       </c>
       <c r="C14" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D14" s="207" t="b">
         <v>0</v>
       </c>
       <c r="E14" s="207" t="str">
-        <v>J6</v>
+        <v>Q6</v>
       </c>
       <c r="F14" s="208">
         <f>_xll.qlIMMdate(E14)</f>
-        <v>42480</v>
+        <v>42599</v>
       </c>
       <c r="G14" s="207" t="str">
         <f t="shared" si="0"/>
@@ -13221,15 +13225,15 @@
       </c>
       <c r="H14" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MJ6_Quote</v>
+        <v>USDFUT3MQ6_Quote</v>
       </c>
       <c r="I14" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MJ6ConvAdj_Quote</v>
+        <v>USDFUT3MQ6ConvAdj_Quote</v>
       </c>
       <c r="J14" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H14,C14,$E14,$G14,$I14,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00373#0003</v>
+        <v>obj_00366#0001</v>
       </c>
       <c r="K14" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J14)</f>
@@ -13244,17 +13248,17 @@
         <v>13</v>
       </c>
       <c r="C15" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D15" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E15" s="207" t="str">
-        <v>M6</v>
+        <v>U6</v>
       </c>
       <c r="F15" s="208">
         <f>_xll.qlIMMdate(E15)</f>
-        <v>42536</v>
+        <v>42634</v>
       </c>
       <c r="G15" s="207" t="str">
         <f t="shared" si="0"/>
@@ -13262,15 +13266,15 @@
       </c>
       <c r="H15" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MM6_Quote</v>
+        <v>USDFUT3MU6_Quote</v>
       </c>
       <c r="I15" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MM6ConvAdj_Quote</v>
+        <v>USDFUT3MU6ConvAdj_Quote</v>
       </c>
       <c r="J15" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H15,C15,$E15,$G15,$I15,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00372#0003</v>
+        <v>obj_00361#0001</v>
       </c>
       <c r="K15" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J15)</f>
@@ -13285,17 +13289,17 @@
         <v>14</v>
       </c>
       <c r="C16" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D16" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="207" t="str">
-        <v>U6</v>
+        <v>Z6</v>
       </c>
       <c r="F16" s="208">
         <f>_xll.qlIMMdate(E16)</f>
-        <v>42634</v>
+        <v>42725</v>
       </c>
       <c r="G16" s="207" t="str">
         <f t="shared" si="0"/>
@@ -13303,15 +13307,15 @@
       </c>
       <c r="H16" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MU6_Quote</v>
+        <v>USDFUT3MZ6_Quote</v>
       </c>
       <c r="I16" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MU6ConvAdj_Quote</v>
+        <v>USDFUT3MZ6ConvAdj_Quote</v>
       </c>
       <c r="J16" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H16,C16,$E16,$G16,$I16,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00370#0003</v>
+        <v>obj_0034e#0001</v>
       </c>
       <c r="K16" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J16)</f>
@@ -13326,17 +13330,17 @@
         <v>15</v>
       </c>
       <c r="C17" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D17" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E17" s="207" t="str">
-        <v>Z6</v>
+        <v>H7</v>
       </c>
       <c r="F17" s="208">
         <f>_xll.qlIMMdate(E17)</f>
-        <v>42725</v>
+        <v>42809</v>
       </c>
       <c r="G17" s="207" t="str">
         <f t="shared" si="0"/>
@@ -13344,15 +13348,15 @@
       </c>
       <c r="H17" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MZ6_Quote</v>
+        <v>USDFUT3MH7_Quote</v>
       </c>
       <c r="I17" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MZ6ConvAdj_Quote</v>
+        <v>USDFUT3MH7ConvAdj_Quote</v>
       </c>
       <c r="J17" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H17,C17,$E17,$G17,$I17,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00378#0003</v>
+        <v>obj_0035e#0001</v>
       </c>
       <c r="K17" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J17)</f>
@@ -13367,17 +13371,17 @@
         <v>16</v>
       </c>
       <c r="C18" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D18" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E18" s="207" t="str">
-        <v>H7</v>
+        <v>M7</v>
       </c>
       <c r="F18" s="208">
         <f>_xll.qlIMMdate(E18)</f>
-        <v>42809</v>
+        <v>42907</v>
       </c>
       <c r="G18" s="207" t="str">
         <f t="shared" si="0"/>
@@ -13385,15 +13389,15 @@
       </c>
       <c r="H18" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MH7_Quote</v>
+        <v>USDFUT3MM7_Quote</v>
       </c>
       <c r="I18" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MH7ConvAdj_Quote</v>
+        <v>USDFUT3MM7ConvAdj_Quote</v>
       </c>
       <c r="J18" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H18,C18,$E18,$G18,$I18,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00362#0003</v>
+        <v>obj_00360#0001</v>
       </c>
       <c r="K18" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J18)</f>
@@ -13408,17 +13412,17 @@
         <v>17</v>
       </c>
       <c r="C19" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D19" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E19" s="207" t="str">
-        <v>M7</v>
+        <v>U7</v>
       </c>
       <c r="F19" s="208">
         <f>_xll.qlIMMdate(E19)</f>
-        <v>42907</v>
+        <v>42998</v>
       </c>
       <c r="G19" s="207" t="str">
         <f t="shared" si="0"/>
@@ -13426,15 +13430,15 @@
       </c>
       <c r="H19" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MM7_Quote</v>
+        <v>USDFUT3MU7_Quote</v>
       </c>
       <c r="I19" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MM7ConvAdj_Quote</v>
+        <v>USDFUT3MU7ConvAdj_Quote</v>
       </c>
       <c r="J19" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H19,C19,$E19,$G19,$I19,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00371#0003</v>
+        <v>obj_00353#0001</v>
       </c>
       <c r="K19" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J19)</f>
@@ -13449,17 +13453,17 @@
         <v>18</v>
       </c>
       <c r="C20" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D20" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E20" s="207" t="str">
-        <v>U7</v>
+        <v>Z7</v>
       </c>
       <c r="F20" s="208">
         <f>_xll.qlIMMdate(E20)</f>
-        <v>42998</v>
+        <v>43089</v>
       </c>
       <c r="G20" s="207" t="str">
         <f t="shared" si="0"/>
@@ -13467,15 +13471,15 @@
       </c>
       <c r="H20" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MU7_Quote</v>
+        <v>USDFUT3MZ7_Quote</v>
       </c>
       <c r="I20" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MU7ConvAdj_Quote</v>
+        <v>USDFUT3MZ7ConvAdj_Quote</v>
       </c>
       <c r="J20" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H20,C20,$E20,$G20,$I20,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00358#0003</v>
+        <v>obj_0034b#0001</v>
       </c>
       <c r="K20" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J20)</f>
@@ -13490,17 +13494,17 @@
         <v>19</v>
       </c>
       <c r="C21" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D21" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E21" s="207" t="str">
-        <v>Z7</v>
+        <v>H8</v>
       </c>
       <c r="F21" s="208">
         <f>_xll.qlIMMdate(E21)</f>
-        <v>43089</v>
+        <v>43180</v>
       </c>
       <c r="G21" s="207" t="str">
         <f t="shared" si="0"/>
@@ -13508,15 +13512,15 @@
       </c>
       <c r="H21" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MZ7_Quote</v>
+        <v>USDFUT3MH8_Quote</v>
       </c>
       <c r="I21" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MZ7ConvAdj_Quote</v>
+        <v>USDFUT3MH8ConvAdj_Quote</v>
       </c>
       <c r="J21" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H21,C21,$E21,$G21,$I21,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035e#0003</v>
+        <v>obj_00342#0001</v>
       </c>
       <c r="K21" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J21)</f>
@@ -13531,17 +13535,17 @@
         <v>20</v>
       </c>
       <c r="C22" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D22" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E22" s="207" t="str">
-        <v>H8</v>
+        <v>M8</v>
       </c>
       <c r="F22" s="208">
         <f>_xll.qlIMMdate(E22)</f>
-        <v>43180</v>
+        <v>43271</v>
       </c>
       <c r="G22" s="207" t="str">
         <f t="shared" si="0"/>
@@ -13549,15 +13553,15 @@
       </c>
       <c r="H22" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MH8_Quote</v>
+        <v>USDFUT3MM8_Quote</v>
       </c>
       <c r="I22" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MH8ConvAdj_Quote</v>
+        <v>USDFUT3MM8ConvAdj_Quote</v>
       </c>
       <c r="J22" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H22,C22,$E22,$G22,$I22,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00353#0003</v>
+        <v>obj_0035f#0001</v>
       </c>
       <c r="K22" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J22)</f>
@@ -13572,17 +13576,17 @@
         <v>21</v>
       </c>
       <c r="C23" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D23" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E23" s="207" t="str">
-        <v>M8</v>
+        <v>U8</v>
       </c>
       <c r="F23" s="208">
         <f>_xll.qlIMMdate(E23)</f>
-        <v>43271</v>
+        <v>43362</v>
       </c>
       <c r="G23" s="207" t="str">
         <f t="shared" si="0"/>
@@ -13590,15 +13594,15 @@
       </c>
       <c r="H23" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MM8_Quote</v>
+        <v>USDFUT3MU8_Quote</v>
       </c>
       <c r="I23" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MM8ConvAdj_Quote</v>
+        <v>USDFUT3MU8ConvAdj_Quote</v>
       </c>
       <c r="J23" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H23,C23,$E23,$G23,$I23,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036a#0003</v>
+        <v>obj_00355#0001</v>
       </c>
       <c r="K23" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J23)</f>
@@ -13613,17 +13617,17 @@
         <v>22</v>
       </c>
       <c r="C24" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E24" s="207" t="str">
-        <v>U8</v>
+        <v>Z8</v>
       </c>
       <c r="F24" s="208">
         <f>_xll.qlIMMdate(E24)</f>
-        <v>43362</v>
+        <v>43453</v>
       </c>
       <c r="G24" s="207" t="str">
         <f t="shared" si="0"/>
@@ -13631,15 +13635,15 @@
       </c>
       <c r="H24" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MU8_Quote</v>
+        <v>USDFUT3MZ8_Quote</v>
       </c>
       <c r="I24" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MU8ConvAdj_Quote</v>
+        <v>USDFUT3MZ8ConvAdj_Quote</v>
       </c>
       <c r="J24" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H24,C24,$E24,$G24,$I24,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00357#0003</v>
+        <v>obj_00346#0001</v>
       </c>
       <c r="K24" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J24)</f>
@@ -13654,17 +13658,17 @@
         <v>23</v>
       </c>
       <c r="C25" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D25" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E25" s="207" t="str">
-        <v>Z8</v>
+        <v>H9</v>
       </c>
       <c r="F25" s="208">
         <f>_xll.qlIMMdate(E25)</f>
-        <v>43453</v>
+        <v>43544</v>
       </c>
       <c r="G25" s="207" t="str">
         <f t="shared" si="0"/>
@@ -13672,15 +13676,15 @@
       </c>
       <c r="H25" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MZ8_Quote</v>
+        <v>USDFUT3MH9_Quote</v>
       </c>
       <c r="I25" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MZ8ConvAdj_Quote</v>
+        <v>USDFUT3MH9ConvAdj_Quote</v>
       </c>
       <c r="J25" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H25,C25,$E25,$G25,$I25,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00364#0003</v>
+        <v>obj_00365#0001</v>
       </c>
       <c r="K25" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J25)</f>
@@ -13695,17 +13699,17 @@
         <v>24</v>
       </c>
       <c r="C26" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D26" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E26" s="207" t="str">
-        <v>H9</v>
+        <v>M9</v>
       </c>
       <c r="F26" s="208">
         <f>_xll.qlIMMdate(E26)</f>
-        <v>43544</v>
+        <v>43635</v>
       </c>
       <c r="G26" s="207" t="str">
         <f t="shared" si="0"/>
@@ -13713,15 +13717,15 @@
       </c>
       <c r="H26" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MH9_Quote</v>
+        <v>USDFUT3MM9_Quote</v>
       </c>
       <c r="I26" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MH9ConvAdj_Quote</v>
+        <v>USDFUT3MM9ConvAdj_Quote</v>
       </c>
       <c r="J26" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H26,C26,$E26,$G26,$I26,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00376#0003</v>
+        <v>obj_0034a#0001</v>
       </c>
       <c r="K26" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J26)</f>
@@ -13736,17 +13740,17 @@
         <v>25</v>
       </c>
       <c r="C27" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D27" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E27" s="207" t="str">
-        <v>M9</v>
+        <v>U9</v>
       </c>
       <c r="F27" s="208">
         <f>_xll.qlIMMdate(E27)</f>
-        <v>43635</v>
+        <v>43726</v>
       </c>
       <c r="G27" s="207" t="str">
         <f t="shared" si="0"/>
@@ -13754,15 +13758,15 @@
       </c>
       <c r="H27" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MM9_Quote</v>
+        <v>USDFUT3MU9_Quote</v>
       </c>
       <c r="I27" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MM9ConvAdj_Quote</v>
+        <v>USDFUT3MU9ConvAdj_Quote</v>
       </c>
       <c r="J27" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H27,C27,$E27,$G27,$I27,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035a#0003</v>
+        <v>obj_00354#0001</v>
       </c>
       <c r="K27" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J27)</f>
@@ -13777,17 +13781,17 @@
         <v>26</v>
       </c>
       <c r="C28" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D28" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E28" s="207" t="str">
-        <v>U9</v>
+        <v>Z9</v>
       </c>
       <c r="F28" s="208">
         <f>_xll.qlIMMdate(E28)</f>
-        <v>43726</v>
+        <v>43817</v>
       </c>
       <c r="G28" s="207" t="str">
         <f t="shared" si="0"/>
@@ -13795,15 +13799,15 @@
       </c>
       <c r="H28" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MU9_Quote</v>
+        <v>USDFUT3MZ9_Quote</v>
       </c>
       <c r="I28" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MU9ConvAdj_Quote</v>
+        <v>USDFUT3MZ9ConvAdj_Quote</v>
       </c>
       <c r="J28" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H28,C28,$E28,$G28,$I28,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035c#0003</v>
+        <v>obj_0035a#0001</v>
       </c>
       <c r="K28" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J28)</f>
@@ -13818,17 +13822,17 @@
         <v>27</v>
       </c>
       <c r="C29" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D29" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E29" s="207" t="str">
-        <v>Z9</v>
+        <v>H0</v>
       </c>
       <c r="F29" s="208">
         <f>_xll.qlIMMdate(E29)</f>
-        <v>43817</v>
+        <v>43908</v>
       </c>
       <c r="G29" s="207" t="str">
         <f t="shared" si="0"/>
@@ -13836,15 +13840,15 @@
       </c>
       <c r="H29" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MZ9_Quote</v>
+        <v>USDFUT3MH0_Quote</v>
       </c>
       <c r="I29" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MZ9ConvAdj_Quote</v>
+        <v>USDFUT3MH0ConvAdj_Quote</v>
       </c>
       <c r="J29" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H29,C29,$E29,$G29,$I29,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00374#0003</v>
+        <v>obj_00341#0001</v>
       </c>
       <c r="K29" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J29)</f>
@@ -13859,17 +13863,17 @@
         <v>28</v>
       </c>
       <c r="C30" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D30" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E30" s="207" t="str">
-        <v>H0</v>
+        <v>M0</v>
       </c>
       <c r="F30" s="208">
         <f>_xll.qlIMMdate(E30)</f>
-        <v>43908</v>
+        <v>43999</v>
       </c>
       <c r="G30" s="207" t="str">
         <f t="shared" si="0"/>
@@ -13877,15 +13881,15 @@
       </c>
       <c r="H30" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MH0_Quote</v>
+        <v>USDFUT3MM0_Quote</v>
       </c>
       <c r="I30" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MH0ConvAdj_Quote</v>
+        <v>USDFUT3MM0ConvAdj_Quote</v>
       </c>
       <c r="J30" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H30,C30,$E30,$G30,$I30,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00366#0003</v>
+        <v>obj_00343#0001</v>
       </c>
       <c r="K30" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J30)</f>
@@ -13900,17 +13904,17 @@
         <v>29</v>
       </c>
       <c r="C31" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D31" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E31" s="207" t="str">
-        <v>M0</v>
+        <v>U0</v>
       </c>
       <c r="F31" s="208">
         <f>_xll.qlIMMdate(E31)</f>
-        <v>43999</v>
+        <v>44090</v>
       </c>
       <c r="G31" s="207" t="str">
         <f t="shared" si="0"/>
@@ -13918,15 +13922,15 @@
       </c>
       <c r="H31" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MM0_Quote</v>
+        <v>USDFUT3MU0_Quote</v>
       </c>
       <c r="I31" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MM0ConvAdj_Quote</v>
+        <v>USDFUT3MU0ConvAdj_Quote</v>
       </c>
       <c r="J31" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H31,C31,$E31,$G31,$I31,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00361#0003</v>
+        <v>obj_00351#0001</v>
       </c>
       <c r="K31" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J31)</f>
@@ -13941,17 +13945,17 @@
         <v>30</v>
       </c>
       <c r="C32" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D32" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E32" s="207" t="str">
-        <v>U0</v>
+        <v>Z0</v>
       </c>
       <c r="F32" s="208">
         <f>_xll.qlIMMdate(E32)</f>
-        <v>44090</v>
+        <v>44181</v>
       </c>
       <c r="G32" s="207" t="str">
         <f t="shared" si="0"/>
@@ -13959,15 +13963,15 @@
       </c>
       <c r="H32" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MU0_Quote</v>
+        <v>USDFUT3MZ0_Quote</v>
       </c>
       <c r="I32" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MU0ConvAdj_Quote</v>
+        <v>USDFUT3MZ0ConvAdj_Quote</v>
       </c>
       <c r="J32" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H32,C32,$E32,$G32,$I32,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0036d#0003</v>
+        <v>obj_00340#0001</v>
       </c>
       <c r="K32" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J32)</f>
@@ -13982,17 +13986,17 @@
         <v>31</v>
       </c>
       <c r="C33" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D33" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E33" s="207" t="str">
-        <v>Z0</v>
+        <v>H1</v>
       </c>
       <c r="F33" s="208">
         <f>_xll.qlIMMdate(E33)</f>
-        <v>44181</v>
+        <v>44272</v>
       </c>
       <c r="G33" s="207" t="str">
         <f t="shared" si="0"/>
@@ -14000,15 +14004,15 @@
       </c>
       <c r="H33" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MZ0_Quote</v>
+        <v>USDFUT3MH1_Quote</v>
       </c>
       <c r="I33" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MZ0ConvAdj_Quote</v>
+        <v>USDFUT3MH1ConvAdj_Quote</v>
       </c>
       <c r="J33" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H33,C33,$E33,$G33,$I33,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00356#0003</v>
+        <v>obj_0033d#0001</v>
       </c>
       <c r="K33" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J33)</f>
@@ -14023,17 +14027,17 @@
         <v>32</v>
       </c>
       <c r="C34" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D34" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E34" s="207" t="str">
-        <v>H1</v>
+        <v>M1</v>
       </c>
       <c r="F34" s="208">
         <f>_xll.qlIMMdate(E34)</f>
-        <v>44272</v>
+        <v>44363</v>
       </c>
       <c r="G34" s="207" t="str">
         <f t="shared" si="0"/>
@@ -14041,15 +14045,15 @@
       </c>
       <c r="H34" s="209" t="str">
         <f t="shared" si="1"/>
-        <v>USDFUT3MH1_Quote</v>
+        <v>USDFUT3MM1_Quote</v>
       </c>
       <c r="I34" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MH1ConvAdj_Quote</v>
+        <v>USDFUT3MM1ConvAdj_Quote</v>
       </c>
       <c r="J34" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H34,C34,$E34,$G34,$I34,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00375#0003</v>
+        <v>obj_00345#0001</v>
       </c>
       <c r="K34" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J34)</f>
@@ -14064,17 +14068,17 @@
         <v>33</v>
       </c>
       <c r="C35" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D35" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E35" s="207" t="str">
-        <v>M1</v>
+        <v>U1</v>
       </c>
       <c r="F35" s="208">
         <f>_xll.qlIMMdate(E35)</f>
-        <v>44363</v>
+        <v>44454</v>
       </c>
       <c r="G35" s="207" t="str">
         <f t="shared" ref="G35:G44" si="3">PROPER(Currency)&amp;FamilyName&amp;$G$1</f>
@@ -14082,15 +14086,15 @@
       </c>
       <c r="H35" s="209" t="str">
         <f t="shared" ref="H35:H44" si="4">Currency&amp;"FUT"&amp;$G$1&amp;$E35&amp;QuoteSuffix</f>
-        <v>USDFUT3MM1_Quote</v>
+        <v>USDFUT3MU1_Quote</v>
       </c>
       <c r="I35" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MM1ConvAdj_Quote</v>
+        <v>USDFUT3MU1ConvAdj_Quote</v>
       </c>
       <c r="J35" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H35,C35,$E35,$G35,$I35,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035d#0003</v>
+        <v>obj_0033e#0001</v>
       </c>
       <c r="K35" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J35)</f>
@@ -14105,17 +14109,17 @@
         <v>34</v>
       </c>
       <c r="C36" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D36" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E36" s="207" t="str">
-        <v>U1</v>
+        <v>Z1</v>
       </c>
       <c r="F36" s="208">
         <f>_xll.qlIMMdate(E36)</f>
-        <v>44454</v>
+        <v>44545</v>
       </c>
       <c r="G36" s="207" t="str">
         <f t="shared" si="3"/>
@@ -14123,15 +14127,15 @@
       </c>
       <c r="H36" s="209" t="str">
         <f t="shared" si="4"/>
-        <v>USDFUT3MU1_Quote</v>
+        <v>USDFUT3MZ1_Quote</v>
       </c>
       <c r="I36" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MU1ConvAdj_Quote</v>
+        <v>USDFUT3MZ1ConvAdj_Quote</v>
       </c>
       <c r="J36" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H36,C36,$E36,$G36,$I36,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00363#0003</v>
+        <v>obj_00363#0001</v>
       </c>
       <c r="K36" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J36)</f>
@@ -14146,17 +14150,17 @@
         <v>35</v>
       </c>
       <c r="C37" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D37" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E37" s="207" t="str">
-        <v>Z1</v>
+        <v>H2</v>
       </c>
       <c r="F37" s="208">
         <f>_xll.qlIMMdate(E37)</f>
-        <v>44545</v>
+        <v>44636</v>
       </c>
       <c r="G37" s="207" t="str">
         <f t="shared" si="3"/>
@@ -14164,15 +14168,15 @@
       </c>
       <c r="H37" s="209" t="str">
         <f t="shared" si="4"/>
-        <v>USDFUT3MZ1_Quote</v>
+        <v>USDFUT3MH2_Quote</v>
       </c>
       <c r="I37" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MZ1ConvAdj_Quote</v>
+        <v>USDFUT3MH2ConvAdj_Quote</v>
       </c>
       <c r="J37" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H37,C37,$E37,$G37,$I37,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037a#0003</v>
+        <v>obj_00359#0001</v>
       </c>
       <c r="K37" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J37)</f>
@@ -14187,17 +14191,17 @@
         <v>36</v>
       </c>
       <c r="C38" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D38" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E38" s="207" t="str">
-        <v>H2</v>
+        <v>M2</v>
       </c>
       <c r="F38" s="208">
         <f>_xll.qlIMMdate(E38)</f>
-        <v>44636</v>
+        <v>44727</v>
       </c>
       <c r="G38" s="207" t="str">
         <f t="shared" si="3"/>
@@ -14205,15 +14209,15 @@
       </c>
       <c r="H38" s="209" t="str">
         <f t="shared" si="4"/>
-        <v>USDFUT3MH2_Quote</v>
+        <v>USDFUT3MM2_Quote</v>
       </c>
       <c r="I38" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MH2ConvAdj_Quote</v>
+        <v>USDFUT3MM2ConvAdj_Quote</v>
       </c>
       <c r="J38" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H38,C38,$E38,$G38,$I38,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00359#0003</v>
+        <v>obj_0035d#0001</v>
       </c>
       <c r="K38" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J38)</f>
@@ -14228,17 +14232,17 @@
         <v>37</v>
       </c>
       <c r="C39" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D39" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E39" s="207" t="str">
-        <v>M2</v>
+        <v>U2</v>
       </c>
       <c r="F39" s="208">
         <f>_xll.qlIMMdate(E39)</f>
-        <v>44727</v>
+        <v>44825</v>
       </c>
       <c r="G39" s="207" t="str">
         <f t="shared" si="3"/>
@@ -14246,15 +14250,15 @@
       </c>
       <c r="H39" s="209" t="str">
         <f t="shared" si="4"/>
-        <v>USDFUT3MM2_Quote</v>
+        <v>USDFUT3MU2_Quote</v>
       </c>
       <c r="I39" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MM2ConvAdj_Quote</v>
+        <v>USDFUT3MU2ConvAdj_Quote</v>
       </c>
       <c r="J39" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H39,C39,$E39,$G39,$I39,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0037b#0003</v>
+        <v>obj_0035c#0001</v>
       </c>
       <c r="K39" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J39)</f>
@@ -14269,17 +14273,17 @@
         <v>38</v>
       </c>
       <c r="C40" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D40" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E40" s="207" t="str">
-        <v>U2</v>
+        <v>Z2</v>
       </c>
       <c r="F40" s="208">
         <f>_xll.qlIMMdate(E40)</f>
-        <v>44825</v>
+        <v>44916</v>
       </c>
       <c r="G40" s="207" t="str">
         <f t="shared" si="3"/>
@@ -14287,15 +14291,15 @@
       </c>
       <c r="H40" s="209" t="str">
         <f t="shared" si="4"/>
-        <v>USDFUT3MU2_Quote</v>
+        <v>USDFUT3MZ2_Quote</v>
       </c>
       <c r="I40" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MU2ConvAdj_Quote</v>
+        <v>USDFUT3MZ2ConvAdj_Quote</v>
       </c>
       <c r="J40" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H40,C40,$E40,$G40,$I40,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0035b#0003</v>
+        <v>obj_00357#0001</v>
       </c>
       <c r="K40" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J40)</f>
@@ -14309,17 +14313,17 @@
         <v>39</v>
       </c>
       <c r="C41" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D41" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E41" s="207" t="str">
-        <v>Z2</v>
+        <v>H3</v>
       </c>
       <c r="F41" s="208">
         <f>_xll.qlIMMdate(E41)</f>
-        <v>44916</v>
+        <v>45000</v>
       </c>
       <c r="G41" s="207" t="str">
         <f t="shared" si="3"/>
@@ -14327,15 +14331,15 @@
       </c>
       <c r="H41" s="209" t="str">
         <f t="shared" si="4"/>
-        <v>USDFUT3MZ2_Quote</v>
+        <v>USDFUT3MH3_Quote</v>
       </c>
       <c r="I41" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MZ2ConvAdj_Quote</v>
+        <v>USDFUT3MH3ConvAdj_Quote</v>
       </c>
       <c r="J41" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H41,C41,$E41,$G41,$I41,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00355#0003</v>
+        <v>obj_00364#0001</v>
       </c>
       <c r="K41" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J41)</f>
@@ -14349,17 +14353,17 @@
         <v>40</v>
       </c>
       <c r="C42" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D42" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E42" s="207" t="str">
-        <v>H3</v>
+        <v>M3</v>
       </c>
       <c r="F42" s="208">
         <f>_xll.qlIMMdate(E42)</f>
-        <v>45000</v>
+        <v>45098</v>
       </c>
       <c r="G42" s="207" t="str">
         <f t="shared" si="3"/>
@@ -14367,15 +14371,15 @@
       </c>
       <c r="H42" s="209" t="str">
         <f t="shared" si="4"/>
-        <v>USDFUT3MH3_Quote</v>
+        <v>USDFUT3MM3_Quote</v>
       </c>
       <c r="I42" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MH3ConvAdj_Quote</v>
+        <v>USDFUT3MM3ConvAdj_Quote</v>
       </c>
       <c r="J42" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H42,C42,$E42,$G42,$I42,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00354#0003</v>
+        <v>obj_00362#0001</v>
       </c>
       <c r="K42" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J42)</f>
@@ -14389,17 +14393,17 @@
         <v>41</v>
       </c>
       <c r="C43" s="206" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D43" s="207" t="b">
         <v>1</v>
       </c>
       <c r="E43" s="207" t="str">
-        <v>M3</v>
+        <v>U3</v>
       </c>
       <c r="F43" s="208">
         <f>_xll.qlIMMdate(E43)</f>
-        <v>45098</v>
+        <v>45189</v>
       </c>
       <c r="G43" s="207" t="str">
         <f t="shared" si="3"/>
@@ -14407,15 +14411,15 @@
       </c>
       <c r="H43" s="209" t="str">
         <f t="shared" si="4"/>
-        <v>USDFUT3MM3_Quote</v>
+        <v>USDFUT3MU3_Quote</v>
       </c>
       <c r="I43" s="210" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MM3ConvAdj_Quote</v>
+        <v>USDFUT3MU3ConvAdj_Quote</v>
       </c>
       <c r="J43" s="211" t="str">
         <f>_xll.qlFuturesRateHelper(,$H43,C43,$E43,$G43,$I43,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00367#0003</v>
+        <v>obj_00348#0001</v>
       </c>
       <c r="K43" s="198" t="str">
         <f>_xll.ohRangeRetrieveError(J43)</f>
@@ -14429,17 +14433,17 @@
         <v>42</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D44" s="130" t="b">
         <v>1</v>
       </c>
       <c r="E44" s="130" t="str">
-        <v>U3</v>
+        <v>Z3</v>
       </c>
       <c r="F44" s="179">
         <f>_xll.qlIMMdate(E44)</f>
-        <v>45189</v>
+        <v>45280</v>
       </c>
       <c r="G44" s="130" t="str">
         <f t="shared" si="3"/>
@@ -14447,15 +14451,15 @@
       </c>
       <c r="H44" s="131" t="str">
         <f t="shared" si="4"/>
-        <v>USDFUT3MU3_Quote</v>
+        <v>USDFUT3MZ3_Quote</v>
       </c>
       <c r="I44" s="159" t="str">
         <f t="shared" si="2"/>
-        <v>USDFUT3MU3ConvAdj_Quote</v>
+        <v>USDFUT3MZ3ConvAdj_Quote</v>
       </c>
       <c r="J44" s="132" t="str">
         <f>_xll.qlFuturesRateHelper(,$H44,C44,$E44,$G44,$I44,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00360#0003</v>
+        <v>obj_0034c#0001</v>
       </c>
       <c r="K44" s="50" t="str">
         <f>_xll.ohRangeRetrieveError(J44)</f>
@@ -14539,7 +14543,7 @@
     <row r="2" spans="1:18" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="55" t="s">
         <v>112</v>
@@ -14586,7 +14590,7 @@
       <c r="K3" s="59"/>
       <c r="L3" s="140" t="str">
         <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor(,$I$1,,Permanent,Trigger,ObjectOverwrite),IF(UPPER(FamilyName)="LIBOR",_xll.qlLibor(,Currency,$I$1,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>obj_00303#0003</v>
+        <v>obj_002ed#0001</v>
       </c>
       <c r="M3" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(L3)</f>
@@ -14648,8 +14652,8 @@
         <v>USDAM3L1Y_Quote</v>
       </c>
       <c r="L5" s="215" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K5,Trigger),_xll.qlSwapRateHelper2(,$K5,B5,$D5,Calendar,$G5,$H5,$I5,$L$3,$J5,C5,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
-        <v>obj_0030c#0005</v>
+        <f>IF(_xll.qlQuoteIsValid(K5,Trigger),_xll.qlSwapRateHelper2(,$K5,B5,$D5,JoinCalendar,$G5,$H5,$I5,$L$3,$J5,C5,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <v>obj_00334#0003</v>
       </c>
       <c r="M5" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(L5)</f>
@@ -14698,7 +14702,7 @@
         <v>USDAM3L15M_Quote</v>
       </c>
       <c r="L6" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K6,Trigger),_xll.qlSwapRateHelper2(,$K6,B6,$D6,Calendar,$G6,$H6,$I6,$L$3,$J6,C6,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <f>IF(_xll.qlQuoteIsValid(K6,Trigger),_xll.qlSwapRateHelper2(,$K6,B6,$D6,JoinCalendar,$G6,$H6,$I6,$L$3,$J6,C6,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
         <v>--</v>
       </c>
       <c r="M6" s="221" t="str">
@@ -14752,7 +14756,7 @@
         <v>USDAM3L18M_Quote</v>
       </c>
       <c r="L7" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K7,Trigger),_xll.qlSwapRateHelper2(,$K7,B7,$D7,Calendar,$G7,$H7,$I7,$L$3,$J7,C7,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <f>IF(_xll.qlQuoteIsValid(K7,Trigger),_xll.qlSwapRateHelper2(,$K7,B7,$D7,JoinCalendar,$G7,$H7,$I7,$L$3,$J7,C7,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
         <v>--</v>
       </c>
       <c r="M7" s="221" t="str">
@@ -14806,7 +14810,7 @@
         <v>USDAM3L21M_Quote</v>
       </c>
       <c r="L8" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K8,Trigger),_xll.qlSwapRateHelper2(,$K8,B8,$D8,Calendar,$G8,$H8,$I8,$L$3,$J8,C8,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <f>IF(_xll.qlQuoteIsValid(K8,Trigger),_xll.qlSwapRateHelper2(,$K8,B8,$D8,JoinCalendar,$G8,$H8,$I8,$L$3,$J8,C8,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
         <v>--</v>
       </c>
       <c r="M8" s="221" t="str">
@@ -14856,8 +14860,8 @@
         <v>USDAM3L2Y_Quote</v>
       </c>
       <c r="L9" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K9,Trigger),_xll.qlSwapRateHelper2(,$K9,B9,$D9,Calendar,$G9,$H9,$I9,$L$3,$J9,C9,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
-        <v>obj_00310#0004</v>
+        <f>IF(_xll.qlQuoteIsValid(K9,Trigger),_xll.qlSwapRateHelper2(,$K9,B9,$D9,JoinCalendar,$G9,$H9,$I9,$L$3,$J9,C9,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <v>obj_002f3#0003</v>
       </c>
       <c r="M9" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(L9)</f>
@@ -14910,8 +14914,8 @@
         <v>USDAM3L3Y_Quote</v>
       </c>
       <c r="L10" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K10,Trigger),_xll.qlSwapRateHelper2(,$K10,B10,$D10,Calendar,$G10,$H10,$I10,$L$3,$J10,C10,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
-        <v>obj_00345#0004</v>
+        <f>IF(_xll.qlQuoteIsValid(K10,Trigger),_xll.qlSwapRateHelper2(,$K10,B10,$D10,JoinCalendar,$G10,$H10,$I10,$L$3,$J10,C10,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <v>obj_00332#0003</v>
       </c>
       <c r="M10" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(L10)</f>
@@ -14955,8 +14959,8 @@
         <v>USDAM3L4Y_Quote</v>
       </c>
       <c r="L11" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K11,Trigger),_xll.qlSwapRateHelper2(,$K11,B11,$D11,Calendar,$G11,$H11,$I11,$L$3,$J11,C11,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
-        <v>obj_00332#0004</v>
+        <f>IF(_xll.qlQuoteIsValid(K11,Trigger),_xll.qlSwapRateHelper2(,$K11,B11,$D11,JoinCalendar,$G11,$H11,$I11,$L$3,$J11,C11,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <v>obj_00331#0003</v>
       </c>
       <c r="M11" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(L11)</f>
@@ -15000,8 +15004,8 @@
         <v>USDAM3L5Y_Quote</v>
       </c>
       <c r="L12" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K12,Trigger),_xll.qlSwapRateHelper2(,$K12,B12,$D12,Calendar,$G12,$H12,$I12,$L$3,$J12,C12,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
-        <v>obj_0032c#0004</v>
+        <f>IF(_xll.qlQuoteIsValid(K12,Trigger),_xll.qlSwapRateHelper2(,$K12,B12,$D12,JoinCalendar,$G12,$H12,$I12,$L$3,$J12,C12,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <v>obj_0032e#0003</v>
       </c>
       <c r="M12" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(L12)</f>
@@ -15045,8 +15049,8 @@
         <v>USDAM3L6Y_Quote</v>
       </c>
       <c r="L13" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K13,Trigger),_xll.qlSwapRateHelper2(,$K13,B13,$D13,Calendar,$G13,$H13,$I13,$L$3,$J13,C13,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
-        <v>obj_0032d#0004</v>
+        <f>IF(_xll.qlQuoteIsValid(K13,Trigger),_xll.qlSwapRateHelper2(,$K13,B13,$D13,JoinCalendar,$G13,$H13,$I13,$L$3,$J13,C13,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <v>obj_002ee#0003</v>
       </c>
       <c r="M13" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(L13)</f>
@@ -15090,8 +15094,8 @@
         <v>USDAM3L7Y_Quote</v>
       </c>
       <c r="L14" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K14,Trigger),_xll.qlSwapRateHelper2(,$K14,B14,$D14,Calendar,$G14,$H14,$I14,$L$3,$J14,C14,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
-        <v>obj_00338#0004</v>
+        <f>IF(_xll.qlQuoteIsValid(K14,Trigger),_xll.qlSwapRateHelper2(,$K14,B14,$D14,JoinCalendar,$G14,$H14,$I14,$L$3,$J14,C14,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <v>obj_00333#0003</v>
       </c>
       <c r="M14" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(L14)</f>
@@ -15135,8 +15139,8 @@
         <v>USDAM3L8Y_Quote</v>
       </c>
       <c r="L15" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K15,Trigger),_xll.qlSwapRateHelper2(,$K15,B15,$D15,Calendar,$G15,$H15,$I15,$L$3,$J15,C15,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
-        <v>obj_00333#0004</v>
+        <f>IF(_xll.qlQuoteIsValid(K15,Trigger),_xll.qlSwapRateHelper2(,$K15,B15,$D15,JoinCalendar,$G15,$H15,$I15,$L$3,$J15,C15,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <v>obj_002ff#0003</v>
       </c>
       <c r="M15" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(L15)</f>
@@ -15180,8 +15184,8 @@
         <v>USDAM3L9Y_Quote</v>
       </c>
       <c r="L16" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K16,Trigger),_xll.qlSwapRateHelper2(,$K16,B16,$D16,Calendar,$G16,$H16,$I16,$L$3,$J16,C16,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
-        <v>obj_00335#0004</v>
+        <f>IF(_xll.qlQuoteIsValid(K16,Trigger),_xll.qlSwapRateHelper2(,$K16,B16,$D16,JoinCalendar,$G16,$H16,$I16,$L$3,$J16,C16,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <v>obj_00336#0003</v>
       </c>
       <c r="M16" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(L16)</f>
@@ -15225,8 +15229,8 @@
         <v>USDAM3L10Y_Quote</v>
       </c>
       <c r="L17" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K17,Trigger),_xll.qlSwapRateHelper2(,$K17,B17,$D17,Calendar,$G17,$H17,$I17,$L$3,$J17,C17,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
-        <v>obj_00342#0004</v>
+        <f>IF(_xll.qlQuoteIsValid(K17,Trigger),_xll.qlSwapRateHelper2(,$K17,B17,$D17,JoinCalendar,$G17,$H17,$I17,$L$3,$J17,C17,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <v>obj_002f7#0003</v>
       </c>
       <c r="M17" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(L17)</f>
@@ -15270,7 +15274,7 @@
         <v>USDAM3L11Y_Quote</v>
       </c>
       <c r="L18" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K18,Trigger),_xll.qlSwapRateHelper2(,$K18,B18,$D18,Calendar,$G18,$H18,$I18,$L$3,$J18,C18,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <f>IF(_xll.qlQuoteIsValid(K18,Trigger),_xll.qlSwapRateHelper2(,$K18,B18,$D18,JoinCalendar,$G18,$H18,$I18,$L$3,$J18,C18,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
         <v>--</v>
       </c>
       <c r="M18" s="221" t="str">
@@ -15315,8 +15319,8 @@
         <v>USDAM3L12Y_Quote</v>
       </c>
       <c r="L19" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K19,Trigger),_xll.qlSwapRateHelper2(,$K19,B19,$D19,Calendar,$G19,$H19,$I19,$L$3,$J19,C19,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
-        <v>obj_00339#0004</v>
+        <f>IF(_xll.qlQuoteIsValid(K19,Trigger),_xll.qlSwapRateHelper2(,$K19,B19,$D19,JoinCalendar,$G19,$H19,$I19,$L$3,$J19,C19,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <v>obj_00338#0003</v>
       </c>
       <c r="M19" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(L19)</f>
@@ -15360,7 +15364,7 @@
         <v>USDAM3L13Y_Quote</v>
       </c>
       <c r="L20" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K20,Trigger),_xll.qlSwapRateHelper2(,$K20,B20,$D20,Calendar,$G20,$H20,$I20,$L$3,$J20,C20,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <f>IF(_xll.qlQuoteIsValid(K20,Trigger),_xll.qlSwapRateHelper2(,$K20,B20,$D20,JoinCalendar,$G20,$H20,$I20,$L$3,$J20,C20,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
         <v>--</v>
       </c>
       <c r="M20" s="221" t="str">
@@ -15405,7 +15409,7 @@
         <v>USDAM3L14Y_Quote</v>
       </c>
       <c r="L21" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K21,Trigger),_xll.qlSwapRateHelper2(,$K21,B21,$D21,Calendar,$G21,$H21,$I21,$L$3,$J21,C21,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <f>IF(_xll.qlQuoteIsValid(K21,Trigger),_xll.qlSwapRateHelper2(,$K21,B21,$D21,JoinCalendar,$G21,$H21,$I21,$L$3,$J21,C21,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
         <v>--</v>
       </c>
       <c r="M21" s="221" t="str">
@@ -15450,8 +15454,8 @@
         <v>USDAM3L15Y_Quote</v>
       </c>
       <c r="L22" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K22,Trigger),_xll.qlSwapRateHelper2(,$K22,B22,$D22,Calendar,$G22,$H22,$I22,$L$3,$J22,C22,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
-        <v>obj_0032f#0004</v>
+        <f>IF(_xll.qlQuoteIsValid(K22,Trigger),_xll.qlSwapRateHelper2(,$K22,B22,$D22,JoinCalendar,$G22,$H22,$I22,$L$3,$J22,C22,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <v>obj_002fb#0003</v>
       </c>
       <c r="M22" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(L22)</f>
@@ -15495,7 +15499,7 @@
         <v>USDAM3L16Y_Quote</v>
       </c>
       <c r="L23" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K23,Trigger),_xll.qlSwapRateHelper2(,$K23,B23,$D23,Calendar,$G23,$H23,$I23,$L$3,$J23,C23,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <f>IF(_xll.qlQuoteIsValid(K23,Trigger),_xll.qlSwapRateHelper2(,$K23,B23,$D23,JoinCalendar,$G23,$H23,$I23,$L$3,$J23,C23,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
         <v>--</v>
       </c>
       <c r="M23" s="221" t="str">
@@ -15540,7 +15544,7 @@
         <v>USDAM3L17Y_Quote</v>
       </c>
       <c r="L24" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K24,Trigger),_xll.qlSwapRateHelper2(,$K24,B24,$D24,Calendar,$G24,$H24,$I24,$L$3,$J24,C24,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <f>IF(_xll.qlQuoteIsValid(K24,Trigger),_xll.qlSwapRateHelper2(,$K24,B24,$D24,JoinCalendar,$G24,$H24,$I24,$L$3,$J24,C24,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
         <v>--</v>
       </c>
       <c r="M24" s="221" t="str">
@@ -15585,7 +15589,7 @@
         <v>USDAM3L18Y_Quote</v>
       </c>
       <c r="L25" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K25,Trigger),_xll.qlSwapRateHelper2(,$K25,B25,$D25,Calendar,$G25,$H25,$I25,$L$3,$J25,C25,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <f>IF(_xll.qlQuoteIsValid(K25,Trigger),_xll.qlSwapRateHelper2(,$K25,B25,$D25,JoinCalendar,$G25,$H25,$I25,$L$3,$J25,C25,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
         <v>--</v>
       </c>
       <c r="M25" s="221" t="str">
@@ -15630,7 +15634,7 @@
         <v>USDAM3L19Y_Quote</v>
       </c>
       <c r="L26" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K26,Trigger),_xll.qlSwapRateHelper2(,$K26,B26,$D26,Calendar,$G26,$H26,$I26,$L$3,$J26,C26,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <f>IF(_xll.qlQuoteIsValid(K26,Trigger),_xll.qlSwapRateHelper2(,$K26,B26,$D26,JoinCalendar,$G26,$H26,$I26,$L$3,$J26,C26,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
         <v>--</v>
       </c>
       <c r="M26" s="221" t="str">
@@ -15675,8 +15679,8 @@
         <v>USDAM3L20Y_Quote</v>
       </c>
       <c r="L27" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K27,Trigger),_xll.qlSwapRateHelper2(,$K27,B27,$D27,Calendar,$G27,$H27,$I27,$L$3,$J27,C27,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
-        <v>obj_00336#0004</v>
+        <f>IF(_xll.qlQuoteIsValid(K27,Trigger),_xll.qlSwapRateHelper2(,$K27,B27,$D27,JoinCalendar,$G27,$H27,$I27,$L$3,$J27,C27,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <v>obj_00330#0003</v>
       </c>
       <c r="M27" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(L27)</f>
@@ -15720,7 +15724,7 @@
         <v>USDAM3L21Y_Quote</v>
       </c>
       <c r="L28" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K28,Trigger),_xll.qlSwapRateHelper2(,$K28,B28,$D28,Calendar,$G28,$H28,$I28,$L$3,$J28,C28,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <f>IF(_xll.qlQuoteIsValid(K28,Trigger),_xll.qlSwapRateHelper2(,$K28,B28,$D28,JoinCalendar,$G28,$H28,$I28,$L$3,$J28,C28,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
         <v>--</v>
       </c>
       <c r="M28" s="221" t="str">
@@ -15765,7 +15769,7 @@
         <v>USDAM3L22Y_Quote</v>
       </c>
       <c r="L29" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K29,Trigger),_xll.qlSwapRateHelper2(,$K29,B29,$D29,Calendar,$G29,$H29,$I29,$L$3,$J29,C29,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <f>IF(_xll.qlQuoteIsValid(K29,Trigger),_xll.qlSwapRateHelper2(,$K29,B29,$D29,JoinCalendar,$G29,$H29,$I29,$L$3,$J29,C29,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
         <v>--</v>
       </c>
       <c r="M29" s="221" t="str">
@@ -15810,7 +15814,7 @@
         <v>USDAM3L23Y_Quote</v>
       </c>
       <c r="L30" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K30,Trigger),_xll.qlSwapRateHelper2(,$K30,B30,$D30,Calendar,$G30,$H30,$I30,$L$3,$J30,C30,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <f>IF(_xll.qlQuoteIsValid(K30,Trigger),_xll.qlSwapRateHelper2(,$K30,B30,$D30,JoinCalendar,$G30,$H30,$I30,$L$3,$J30,C30,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
         <v>--</v>
       </c>
       <c r="M30" s="221" t="str">
@@ -15855,7 +15859,7 @@
         <v>USDAM3L24Y_Quote</v>
       </c>
       <c r="L31" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K31,Trigger),_xll.qlSwapRateHelper2(,$K31,B31,$D31,Calendar,$G31,$H31,$I31,$L$3,$J31,C31,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <f>IF(_xll.qlQuoteIsValid(K31,Trigger),_xll.qlSwapRateHelper2(,$K31,B31,$D31,JoinCalendar,$G31,$H31,$I31,$L$3,$J31,C31,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
         <v>--</v>
       </c>
       <c r="M31" s="221" t="str">
@@ -15900,8 +15904,8 @@
         <v>USDAM3L25Y_Quote</v>
       </c>
       <c r="L32" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K32,Trigger),_xll.qlSwapRateHelper2(,$K32,B32,$D32,Calendar,$G32,$H32,$I32,$L$3,$J32,C32,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
-        <v>obj_00327#0004</v>
+        <f>IF(_xll.qlQuoteIsValid(K32,Trigger),_xll.qlSwapRateHelper2(,$K32,B32,$D32,JoinCalendar,$G32,$H32,$I32,$L$3,$J32,C32,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <v>obj_0032d#0003</v>
       </c>
       <c r="M32" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(L32)</f>
@@ -15945,7 +15949,7 @@
         <v>USDAM3L26Y_Quote</v>
       </c>
       <c r="L33" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K33,Trigger),_xll.qlSwapRateHelper2(,$K33,B33,$D33,Calendar,$G33,$H33,$I33,$L$3,$J33,C33,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <f>IF(_xll.qlQuoteIsValid(K33,Trigger),_xll.qlSwapRateHelper2(,$K33,B33,$D33,JoinCalendar,$G33,$H33,$I33,$L$3,$J33,C33,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
         <v>--</v>
       </c>
       <c r="M33" s="221" t="str">
@@ -15990,7 +15994,7 @@
         <v>USDAM3L27Y_Quote</v>
       </c>
       <c r="L34" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K34,Trigger),_xll.qlSwapRateHelper2(,$K34,B34,$D34,Calendar,$G34,$H34,$I34,$L$3,$J34,C34,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <f>IF(_xll.qlQuoteIsValid(K34,Trigger),_xll.qlSwapRateHelper2(,$K34,B34,$D34,JoinCalendar,$G34,$H34,$I34,$L$3,$J34,C34,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
         <v>--</v>
       </c>
       <c r="M34" s="221" t="str">
@@ -16035,7 +16039,7 @@
         <v>USDAM3L28Y_Quote</v>
       </c>
       <c r="L35" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K35,Trigger),_xll.qlSwapRateHelper2(,$K35,B35,$D35,Calendar,$G35,$H35,$I35,$L$3,$J35,C35,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <f>IF(_xll.qlQuoteIsValid(K35,Trigger),_xll.qlSwapRateHelper2(,$K35,B35,$D35,JoinCalendar,$G35,$H35,$I35,$L$3,$J35,C35,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
         <v>--</v>
       </c>
       <c r="M35" s="221" t="str">
@@ -16080,7 +16084,7 @@
         <v>USDAM3L29Y_Quote</v>
       </c>
       <c r="L36" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K36,Trigger),_xll.qlSwapRateHelper2(,$K36,B36,$D36,Calendar,$G36,$H36,$I36,$L$3,$J36,C36,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <f>IF(_xll.qlQuoteIsValid(K36,Trigger),_xll.qlSwapRateHelper2(,$K36,B36,$D36,JoinCalendar,$G36,$H36,$I36,$L$3,$J36,C36,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
         <v>--</v>
       </c>
       <c r="M36" s="221" t="str">
@@ -16125,8 +16129,8 @@
         <v>USDAM3L30Y_Quote</v>
       </c>
       <c r="L37" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K37,Trigger),_xll.qlSwapRateHelper2(,$K37,B37,$D37,Calendar,$G37,$H37,$I37,$L$3,$J37,C37,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
-        <v>obj_00344#0004</v>
+        <f>IF(_xll.qlQuoteIsValid(K37,Trigger),_xll.qlSwapRateHelper2(,$K37,B37,$D37,JoinCalendar,$G37,$H37,$I37,$L$3,$J37,C37,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <v>obj_0032f#0003</v>
       </c>
       <c r="M37" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(L37)</f>
@@ -16170,7 +16174,7 @@
         <v>USDAM3L35Y_Quote</v>
       </c>
       <c r="L38" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K38,Trigger),_xll.qlSwapRateHelper2(,$K38,B38,$D38,Calendar,$G38,$H38,$I38,$L$3,$J38,C38,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <f>IF(_xll.qlQuoteIsValid(K38,Trigger),_xll.qlSwapRateHelper2(,$K38,B38,$D38,JoinCalendar,$G38,$H38,$I38,$L$3,$J38,C38,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
         <v>--</v>
       </c>
       <c r="M38" s="221" t="str">
@@ -16215,8 +16219,8 @@
         <v>USDAM3L40Y_Quote</v>
       </c>
       <c r="L39" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K39,Trigger),_xll.qlSwapRateHelper2(,$K39,B39,$D39,Calendar,$G39,$H39,$I39,$L$3,$J39,C39,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
-        <v>obj_0033b#0004</v>
+        <f>IF(_xll.qlQuoteIsValid(K39,Trigger),_xll.qlSwapRateHelper2(,$K39,B39,$D39,JoinCalendar,$G39,$H39,$I39,$L$3,$J39,C39,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <v>obj_00337#0003</v>
       </c>
       <c r="M39" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(L39)</f>
@@ -16260,8 +16264,8 @@
         <v>USDAM3L50Y_Quote</v>
       </c>
       <c r="L40" s="220" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K40,Trigger),_xll.qlSwapRateHelper2(,$K40,B40,$D40,Calendar,$G40,$H40,$I40,$L$3,$J40,C40,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
-        <v>obj_0032b#0004</v>
+        <f>IF(_xll.qlQuoteIsValid(K40,Trigger),_xll.qlSwapRateHelper2(,$K40,B40,$D40,JoinCalendar,$G40,$H40,$I40,$L$3,$J40,C40,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <v>obj_00335#0003</v>
       </c>
       <c r="M40" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(L40)</f>
@@ -16305,7 +16309,7 @@
         <v>USDAM3L60Y_Quote</v>
       </c>
       <c r="L41" s="224" t="str">
-        <f>IF(_xll.qlQuoteIsValid(K41,Trigger),_xll.qlSwapRateHelper2(,$K41,B41,$D41,Calendar,$G41,$H41,$I41,$L$3,$J41,C41,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
+        <f>IF(_xll.qlQuoteIsValid(K41,Trigger),_xll.qlSwapRateHelper2(,$K41,B41,$D41,JoinCalendar,$G41,$H41,$I41,$L$3,$J41,C41,DiscountingCurve,Permanent,,ObjectOverwrite),"--")</f>
         <v>--</v>
       </c>
       <c r="M41" s="225" t="str">
@@ -16347,7 +16351,7 @@
   <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -16397,7 +16401,7 @@
     <row r="2" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="55" t="s">
         <v>112</v>
@@ -16448,7 +16452,7 @@
       <c r="L3" s="59"/>
       <c r="M3" s="140" t="str">
         <f>_xll.qlLibor(,Currency,$G$1,L1,,Trigger)</f>
-        <v>obj_002d6#0003</v>
+        <v>obj_002dc#0001</v>
       </c>
       <c r="N3" s="141" t="str">
         <f>_xll.ohRangeRetrieveError(M3)</f>
@@ -16496,23 +16500,23 @@
       </c>
       <c r="I5" s="213" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D5,2,Currency,Calendar,E5,F5,G5,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_002e0#0003</v>
-      </c>
-      <c r="J5" s="213">
+        <v>obj_002f4#0002</v>
+      </c>
+      <c r="J5" s="213" t="e">
         <f>_xll.qlIndexFixing(I5,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I5)</f>
-        <v>4.4950295011810032E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K5" s="214" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D5&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L1Y_Quote#0003</v>
+        <v>USD3L1Y_Quote#0001</v>
       </c>
       <c r="L5" s="214" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K5,J5,J5)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M5" s="226" t="str">
         <f>_xll.qlSwapRateHelper2(,K5,,$D5,Calendar,"Annual",$F5,$G5,$M$3,$H5,C5,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00309#0003</v>
+        <v>obj_0031e#0002</v>
       </c>
       <c r="N5" s="216" t="str">
         <f>_xll.ohRangeRetrieveError(M5)</f>
@@ -16545,23 +16549,23 @@
       </c>
       <c r="I6" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D6,2,Currency,Calendar,E6,F6,G6,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00326#0003</v>
-      </c>
-      <c r="J6" s="218">
+        <v>obj_00316#0002</v>
+      </c>
+      <c r="J6" s="218" t="e">
         <f>_xll.qlIndexFixing(I6,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I6)</f>
-        <v>5.3688823077145433E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K6" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D6&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L15M_Quote#0003</v>
+        <v>USD3L15M_Quote#0001</v>
       </c>
       <c r="L6" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K6,J6,J6)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M6" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K6,,$D6,Calendar,"Annual",$F6,$G6,$M$3,$H6,C6,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00302#0003</v>
+        <v>obj_002e2#0002</v>
       </c>
       <c r="N6" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M6)</f>
@@ -16594,23 +16598,23 @@
       </c>
       <c r="I7" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D7,2,Currency,Calendar,E7,F7,G7,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_002db#0003</v>
-      </c>
-      <c r="J7" s="218">
+        <v>obj_00305#0002</v>
+      </c>
+      <c r="J7" s="218" t="e">
         <f>_xll.qlIndexFixing(I7,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I7)</f>
-        <v>6.3091955634331709E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K7" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D7&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L18M_Quote#0003</v>
+        <v>USD3L18M_Quote#0001</v>
       </c>
       <c r="L7" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K7,J7,J7)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M7" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K7,,$D7,Calendar,"Annual",$F7,$G7,$M$3,$H7,C7,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002da#0003</v>
+        <v>obj_00308#0002</v>
       </c>
       <c r="N7" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M7)</f>
@@ -16643,23 +16647,23 @@
       </c>
       <c r="I8" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D8,2,Currency,Calendar,E8,F8,G8,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0031d#0003</v>
-      </c>
-      <c r="J8" s="218">
+        <v>obj_0031a#0002</v>
+      </c>
+      <c r="J8" s="218" t="e">
         <f>_xll.qlIndexFixing(I8,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I8)</f>
-        <v>7.3056214242842293E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K8" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D8&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L21M_Quote#0003</v>
+        <v>USD3L21M_Quote#0001</v>
       </c>
       <c r="L8" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K8,J8,J8)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M8" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K8,,$D8,Calendar,"Annual",$F8,$G8,$M$3,$H8,C8,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002df#0003</v>
+        <v>obj_002e8#0002</v>
       </c>
       <c r="N8" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M8)</f>
@@ -16692,23 +16696,23 @@
       </c>
       <c r="I9" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D9,2,Currency,Calendar,E9,F9,G9,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_002fd#0003</v>
-      </c>
-      <c r="J9" s="218">
+        <v>obj_00317#0002</v>
+      </c>
+      <c r="J9" s="218" t="e">
         <f>_xll.qlIndexFixing(I9,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I9)</f>
-        <v>8.2577804568018977E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="K9" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D9&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L2Y_Quote#0003</v>
+        <v>USD3L2Y_Quote#0001</v>
       </c>
       <c r="L9" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K9,J9,J9)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M9" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K9,,$D9,Calendar,"Annual",$F9,$G9,$M$3,$H9,C9,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031e#0003</v>
+        <v>obj_002f2#0002</v>
       </c>
       <c r="N9" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M9)</f>
@@ -16741,23 +16745,23 @@
       </c>
       <c r="I10" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D10,2,Currency,Calendar,E10,F10,G10,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00313#0003</v>
-      </c>
-      <c r="J10" s="218">
+        <v>obj_0031d#0002</v>
+      </c>
+      <c r="J10" s="218" t="e">
         <f>_xll.qlIndexFixing(I10,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I10)</f>
-        <v>1.1709999999958141E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K10" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D10&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L3Y_Quote#0003</v>
+        <v>USD3L3Y_Quote#0001</v>
       </c>
       <c r="L10" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K10,J10,J10)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M10" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K10,,$D10,Calendar,"Annual",$F10,$G10,$M$3,$H10,C10,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031c#0003</v>
+        <v>obj_002e5#0002</v>
       </c>
       <c r="N10" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M10)</f>
@@ -16791,23 +16795,23 @@
       </c>
       <c r="I11" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D11,2,Currency,Calendar,E11,F11,G11,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_002fe#0003</v>
-      </c>
-      <c r="J11" s="218">
+        <v>obj_0030a#0002</v>
+      </c>
+      <c r="J11" s="218" t="e">
         <f>_xll.qlIndexFixing(I11,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I11)</f>
-        <v>1.4490000000131273E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K11" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D11&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L4Y_Quote#0003</v>
+        <v>USD3L4Y_Quote#0001</v>
       </c>
       <c r="L11" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K11,J11,J11)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M11" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K11,,$D11,Calendar,"Annual",$F11,$G11,$M$3,$H11,C11,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002e8#0003</v>
+        <v>obj_002f8#0002</v>
       </c>
       <c r="N11" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M11)</f>
@@ -16841,23 +16845,23 @@
       </c>
       <c r="I12" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D12,2,Currency,Calendar,E12,F12,G12,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_002d8#0003</v>
-      </c>
-      <c r="J12" s="218">
+        <v>obj_002ef#0002</v>
+      </c>
+      <c r="J12" s="218" t="e">
         <f>_xll.qlIndexFixing(I12,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I12)</f>
-        <v>1.6689999999953346E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K12" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D12&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L5Y_Quote#0003</v>
+        <v>USD3L5Y_Quote#0001</v>
       </c>
       <c r="L12" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K12,J12,J12)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M12" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K12,,$D12,Calendar,"Annual",$F12,$G12,$M$3,$H12,C12,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002e9#0003</v>
+        <v>obj_002fc#0002</v>
       </c>
       <c r="N12" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M12)</f>
@@ -16891,23 +16895,23 @@
       </c>
       <c r="I13" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D13,2,Currency,Calendar,E13,F13,G13,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00321#0003</v>
-      </c>
-      <c r="J13" s="218">
+        <v>obj_002fe#0002</v>
+      </c>
+      <c r="J13" s="218" t="e">
         <f>_xll.qlIndexFixing(I13,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I13)</f>
-        <v>1.8530000000117001E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K13" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D13&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L6Y_Quote#0003</v>
+        <v>USD3L6Y_Quote#0001</v>
       </c>
       <c r="L13" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K13,J13,J13)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M13" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K13,,$D13,Calendar,"Annual",$F13,$G13,$M$3,$H13,C13,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002fc#0003</v>
+        <v>obj_002ec#0002</v>
       </c>
       <c r="N13" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M13)</f>
@@ -16941,23 +16945,23 @@
       </c>
       <c r="I14" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D14,2,Currency,Calendar,E14,F14,G14,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00325#0003</v>
-      </c>
-      <c r="J14" s="218">
+        <v>obj_00319#0002</v>
+      </c>
+      <c r="J14" s="218" t="e">
         <f>_xll.qlIndexFixing(I14,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I14)</f>
-        <v>2.0010000000012195E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K14" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D14&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L7Y_Quote#0003</v>
+        <v>USD3L7Y_Quote#0001</v>
       </c>
       <c r="L14" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K14,J14,J14)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M14" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K14,,$D14,Calendar,"Annual",$F14,$G14,$M$3,$H14,C14,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00300#0003</v>
+        <v>obj_00328#0002</v>
       </c>
       <c r="N14" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M14)</f>
@@ -16991,23 +16995,23 @@
       </c>
       <c r="I15" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D15,2,Currency,Calendar,E15,F15,G15,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_002f8#0003</v>
-      </c>
-      <c r="J15" s="218">
+        <v>obj_002fd#0002</v>
+      </c>
+      <c r="J15" s="218" t="e">
         <f>_xll.qlIndexFixing(I15,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I15)</f>
-        <v>2.1200000000030219E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K15" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D15&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L8Y_Quote#0003</v>
+        <v>USD3L8Y_Quote#0001</v>
       </c>
       <c r="L15" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K15,J15,J15)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M15" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K15,,$D15,Calendar,"Annual",$F15,$G15,$M$3,$H15,C15,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00311#0003</v>
+        <v>obj_0030e#0002</v>
       </c>
       <c r="N15" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M15)</f>
@@ -17041,23 +17045,23 @@
       </c>
       <c r="I16" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D16,2,Currency,Calendar,E16,F16,G16,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_002e7#0003</v>
-      </c>
-      <c r="J16" s="218">
+        <v>obj_0030b#0002</v>
+      </c>
+      <c r="J16" s="218" t="e">
         <f>_xll.qlIndexFixing(I16,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I16)</f>
-        <v>2.2169999999980414E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K16" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D16&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L9Y_Quote#0003</v>
+        <v>USD3L9Y_Quote#0001</v>
       </c>
       <c r="L16" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K16,J16,J16)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M16" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K16,,$D16,Calendar,"Annual",$F16,$G16,$M$3,$H16,C16,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031b#0003</v>
+        <v>obj_0031c#0002</v>
       </c>
       <c r="N16" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M16)</f>
@@ -17091,23 +17095,23 @@
       </c>
       <c r="I17" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D17,2,Currency,Calendar,E17,F17,G17,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_002f2#0003</v>
-      </c>
-      <c r="J17" s="218">
+        <v>obj_00321#0002</v>
+      </c>
+      <c r="J17" s="218" t="e">
         <f>_xll.qlIndexFixing(I17,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I17)</f>
-        <v>2.2980000000048243E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K17" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D17&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L10Y_Quote#0003</v>
+        <v>USD3L10Y_Quote#0001</v>
       </c>
       <c r="L17" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K17,J17,J17)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M17" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K17,,$D17,Calendar,"Annual",$F17,$G17,$M$3,$H17,C17,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002fa#0003</v>
+        <v>obj_00320#0002</v>
       </c>
       <c r="N17" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M17)</f>
@@ -17141,23 +17145,23 @@
       </c>
       <c r="I18" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D18,2,Currency,Calendar,E18,F18,G18,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00320#0003</v>
-      </c>
-      <c r="J18" s="218">
+        <v>obj_00301#0002</v>
+      </c>
+      <c r="J18" s="218" t="e">
         <f>_xll.qlIndexFixing(I18,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I18)</f>
-        <v>2.3689389996125802E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K18" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D18&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L11Y_Quote#0003</v>
+        <v>USD3L11Y_Quote#0001</v>
       </c>
       <c r="L18" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K18,J18,J18)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M18" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K18,,$D18,Calendar,"Annual",$F18,$G18,$M$3,$H18,C18,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002ef#0003</v>
+        <v>obj_00311#0002</v>
       </c>
       <c r="N18" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M18)</f>
@@ -17191,23 +17195,23 @@
       </c>
       <c r="I19" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D19,2,Currency,Calendar,E19,F19,G19,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_002fb#0003</v>
-      </c>
-      <c r="J19" s="218">
+        <v>obj_002e1#0002</v>
+      </c>
+      <c r="J19" s="218" t="e">
         <f>_xll.qlIndexFixing(I19,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I19)</f>
-        <v>2.4299999999914276E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K19" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D19&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L12Y_Quote#0003</v>
+        <v>USD3L12Y_Quote#0001</v>
       </c>
       <c r="L19" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K19,J19,J19)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M19" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K19,,$D19,Calendar,"Annual",$F19,$G19,$M$3,$H19,C19,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00323#0003</v>
+        <v>obj_0031b#0002</v>
       </c>
       <c r="N19" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M19)</f>
@@ -17241,23 +17245,23 @@
       </c>
       <c r="I20" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D20,2,Currency,Calendar,E20,F20,G20,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00308#0003</v>
-      </c>
-      <c r="J20" s="218">
+        <v>obj_00327#0002</v>
+      </c>
+      <c r="J20" s="218" t="e">
         <f>_xll.qlIndexFixing(I20,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I20)</f>
-        <v>2.4810880697936476E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K20" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D20&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L13Y_Quote#0003</v>
+        <v>USD3L13Y_Quote#0001</v>
       </c>
       <c r="L20" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K20,J20,J20)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M20" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K20,,$D20,Calendar,"Annual",$F20,$G20,$M$3,$H20,C20,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00315#0003</v>
+        <v>obj_00300#0002</v>
       </c>
       <c r="N20" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M20)</f>
@@ -17291,23 +17295,23 @@
       </c>
       <c r="I21" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D21,2,Currency,Calendar,E21,F21,G21,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_002ee#0003</v>
-      </c>
-      <c r="J21" s="218">
+        <v>obj_00314#0002</v>
+      </c>
+      <c r="J21" s="218" t="e">
         <f>_xll.qlIndexFixing(I21,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I21)</f>
-        <v>2.5239786701860126E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K21" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D21&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L14Y_Quote#0003</v>
+        <v>USD3L14Y_Quote#0001</v>
       </c>
       <c r="L21" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K21,J21,J21)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M21" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K21,,$D21,Calendar,"Annual",$F21,$G21,$M$3,$H21,C21,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002f6#0003</v>
+        <v>obj_002f5#0002</v>
       </c>
       <c r="N21" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M21)</f>
@@ -17341,23 +17345,23 @@
       </c>
       <c r="I22" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D22,2,Currency,Calendar,E22,F22,G22,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_002e2#0003</v>
-      </c>
-      <c r="J22" s="218">
+        <v>obj_0030f#0002</v>
+      </c>
+      <c r="J22" s="218" t="e">
         <f>_xll.qlIndexFixing(I22,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I22)</f>
-        <v>2.5610000000019516E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K22" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D22&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L15Y_Quote#0003</v>
+        <v>USD3L15Y_Quote#0001</v>
       </c>
       <c r="L22" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K22,J22,J22)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M22" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K22,,$D22,Calendar,"Annual",$F22,$G22,$M$3,$H22,C22,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002ed#0003</v>
+        <v>obj_00318#0002</v>
       </c>
       <c r="N22" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M22)</f>
@@ -17391,23 +17395,23 @@
       </c>
       <c r="I23" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D23,2,Currency,Calendar,E23,F23,G23,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00304#0003</v>
-      </c>
-      <c r="J23" s="218">
+        <v>obj_002f1#0002</v>
+      </c>
+      <c r="J23" s="218" t="e">
         <f>_xll.qlIndexFixing(I23,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I23)</f>
-        <v>2.5930046578530978E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K23" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D23&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L16Y_Quote#0003</v>
+        <v>USD3L16Y_Quote#0001</v>
       </c>
       <c r="L23" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K23,J23,J23)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M23" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K23,,$D23,Calendar,"Annual",$F23,$G23,$M$3,$H23,C23,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00324#0003</v>
+        <v>obj_002e6#0002</v>
       </c>
       <c r="N23" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M23)</f>
@@ -17441,23 +17445,23 @@
       </c>
       <c r="I24" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D24,2,Currency,Calendar,E24,F24,G24,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00318#0003</v>
-      </c>
-      <c r="J24" s="218">
+        <v>obj_00306#0002</v>
+      </c>
+      <c r="J24" s="218" t="e">
         <f>_xll.qlIndexFixing(I24,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I24)</f>
-        <v>2.6210703305038902E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K24" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D24&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L17Y_Quote#0003</v>
+        <v>USD3L17Y_Quote#0001</v>
       </c>
       <c r="L24" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K24,J24,J24)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M24" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K24,,$D24,Calendar,"Annual",$F24,$G24,$M$3,$H24,C24,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031a#0003</v>
+        <v>obj_00325#0002</v>
       </c>
       <c r="N24" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M24)</f>
@@ -17491,23 +17495,23 @@
       </c>
       <c r="I25" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D25,2,Currency,Calendar,E25,F25,G25,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_002e4#0003</v>
-      </c>
-      <c r="J25" s="218">
+        <v>obj_002de#0002</v>
+      </c>
+      <c r="J25" s="218" t="e">
         <f>_xll.qlIndexFixing(I25,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I25)</f>
-        <v>2.6455333602186402E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K25" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D25&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L18Y_Quote#0003</v>
+        <v>USD3L18Y_Quote#0001</v>
       </c>
       <c r="L25" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K25,J25,J25)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M25" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K25,,$D25,Calendar,"Annual",$F25,$G25,$M$3,$H25,C25,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0030b#0003</v>
+        <v>obj_002fa#0002</v>
       </c>
       <c r="N25" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M25)</f>
@@ -17541,23 +17545,23 @@
       </c>
       <c r="I26" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D26,2,Currency,Calendar,E26,F26,G26,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00314#0003</v>
-      </c>
-      <c r="J26" s="218">
+        <v>obj_002e4#0002</v>
+      </c>
+      <c r="J26" s="218" t="e">
         <f>_xll.qlIndexFixing(I26,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I26)</f>
-        <v>2.666746600704438E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K26" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D26&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L19Y_Quote#0003</v>
+        <v>USD3L19Y_Quote#0001</v>
       </c>
       <c r="L26" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K26,J26,J26)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M26" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K26,,$D26,Calendar,"Annual",$F26,$G26,$M$3,$H26,C26,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002f5#0003</v>
+        <v>obj_002f0#0002</v>
       </c>
       <c r="N26" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M26)</f>
@@ -17591,23 +17595,23 @@
       </c>
       <c r="I27" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D27,2,Currency,Calendar,E27,F27,G27,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00317#0003</v>
-      </c>
-      <c r="J27" s="218">
+        <v>obj_00309#0002</v>
+      </c>
+      <c r="J27" s="218" t="e">
         <f>_xll.qlIndexFixing(I27,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I27)</f>
-        <v>2.6850000000009856E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K27" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D27&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L20Y_Quote#0003</v>
+        <v>USD3L20Y_Quote#0001</v>
       </c>
       <c r="L27" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K27,J27,J27)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M27" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K27,,$D27,Calendar,"Annual",$F27,$G27,$M$3,$H27,C27,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002f7#0003</v>
+        <v>obj_002f9#0002</v>
       </c>
       <c r="N27" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M27)</f>
@@ -17641,23 +17645,23 @@
       </c>
       <c r="I28" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D28,2,Currency,Calendar,E28,F28,G28,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_002f0#0003</v>
-      </c>
-      <c r="J28" s="218">
+        <v>obj_00304#0002</v>
+      </c>
+      <c r="J28" s="218" t="e">
         <f>_xll.qlIndexFixing(I28,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I28)</f>
-        <v>2.7006799160588412E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K28" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D28&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L21Y_Quote#0003</v>
+        <v>USD3L21Y_Quote#0001</v>
       </c>
       <c r="L28" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K28,J28,J28)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M28" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K28,,$D28,Calendar,"Annual",$F28,$G28,$M$3,$H28,C28,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00305#0003</v>
+        <v>obj_00313#0002</v>
       </c>
       <c r="N28" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M28)</f>
@@ -17691,23 +17695,23 @@
       </c>
       <c r="I29" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D29,2,Currency,Calendar,E29,F29,G29,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00319#0003</v>
-      </c>
-      <c r="J29" s="218">
+        <v>obj_00303#0002</v>
+      </c>
+      <c r="J29" s="218" t="e">
         <f>_xll.qlIndexFixing(I29,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I29)</f>
-        <v>2.7140295741453737E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K29" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D29&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L22Y_Quote#0003</v>
+        <v>USD3L22Y_Quote#0001</v>
       </c>
       <c r="L29" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K29,J29,J29)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M29" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K29,,$D29,Calendar,"Annual",$F29,$G29,$M$3,$H29,C29,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00306#0003</v>
+        <v>obj_00310#0002</v>
       </c>
       <c r="N29" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M29)</f>
@@ -17741,23 +17745,23 @@
       </c>
       <c r="I30" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D30,2,Currency,Calendar,E30,F30,G30,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00322#0003</v>
-      </c>
-      <c r="J30" s="218">
+        <v>obj_00324#0002</v>
+      </c>
+      <c r="J30" s="218" t="e">
         <f>_xll.qlIndexFixing(I30,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I30)</f>
-        <v>2.7256587507848207E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K30" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D30&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L23Y_Quote#0003</v>
+        <v>USD3L23Y_Quote#0001</v>
       </c>
       <c r="L30" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K30,J30,J30)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M30" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K30,,$D30,Calendar,"Annual",$F30,$G30,$M$3,$H30,C30,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002e6#0003</v>
+        <v>obj_0030d#0002</v>
       </c>
       <c r="N30" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M30)</f>
@@ -17791,23 +17795,23 @@
       </c>
       <c r="I31" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D31,2,Currency,Calendar,E31,F31,G31,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_002e3#0003</v>
-      </c>
-      <c r="J31" s="218">
+        <v>obj_00322#0002</v>
+      </c>
+      <c r="J31" s="218" t="e">
         <f>_xll.qlIndexFixing(I31,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I31)</f>
-        <v>2.735876443888274E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K31" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D31&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L24Y_Quote#0003</v>
+        <v>USD3L24Y_Quote#0001</v>
       </c>
       <c r="L31" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K31,J31,J31)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M31" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K31,,$D31,Calendar,"Annual",$F31,$G31,$M$3,$H31,C31,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002ea#0003</v>
+        <v>obj_0032b#0002</v>
       </c>
       <c r="N31" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M31)</f>
@@ -17841,23 +17845,23 @@
       </c>
       <c r="I32" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D32,2,Currency,Calendar,E32,F32,G32,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_002d9#0003</v>
-      </c>
-      <c r="J32" s="218">
+        <v>obj_00315#0002</v>
+      </c>
+      <c r="J32" s="218" t="e">
         <f>_xll.qlIndexFixing(I32,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I32)</f>
-        <v>2.7450000000089955E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K32" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D32&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L25Y_Quote#0003</v>
+        <v>USD3L25Y_Quote#0001</v>
       </c>
       <c r="L32" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K32,J32,J32)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M32" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K32,,$D32,Calendar,"Annual",$F32,$G32,$M$3,$H32,C32,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00316#0003</v>
+        <v>obj_0030c#0002</v>
       </c>
       <c r="N32" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M32)</f>
@@ -17891,23 +17895,23 @@
       </c>
       <c r="I33" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D33,2,Currency,Calendar,E33,F33,G33,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_002dc#0003</v>
-      </c>
-      <c r="J33" s="218">
+        <v>obj_0032c#0002</v>
+      </c>
+      <c r="J33" s="218" t="e">
         <f>_xll.qlIndexFixing(I33,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I33)</f>
-        <v>2.7532352518462987E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K33" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D33&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L26Y_Quote#0003</v>
+        <v>USD3L26Y_Quote#0001</v>
       </c>
       <c r="L33" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K33,J33,J33)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M33" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K33,,$D33,Calendar,"Annual",$F33,$G33,$M$3,$H33,C33,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_0031f#0003</v>
+        <v>obj_002f6#0002</v>
       </c>
       <c r="N33" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M33)</f>
@@ -17941,23 +17945,23 @@
       </c>
       <c r="I34" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D34,2,Currency,Calendar,E34,F34,G34,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_0030a#0003</v>
-      </c>
-      <c r="J34" s="218">
+        <v>obj_002e3#0002</v>
+      </c>
+      <c r="J34" s="218" t="e">
         <f>_xll.qlIndexFixing(I34,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I34)</f>
-        <v>2.7605619371899287E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K34" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D34&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L27Y_Quote#0003</v>
+        <v>USD3L27Y_Quote#0001</v>
       </c>
       <c r="L34" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K34,J34,J34)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M34" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K34,,$D34,Calendar,"Annual",$F34,$G34,$M$3,$H34,C34,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002d7#0003</v>
+        <v>obj_002e7#0002</v>
       </c>
       <c r="N34" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M34)</f>
@@ -17991,23 +17995,23 @@
       </c>
       <c r="I35" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D35,2,Currency,Calendar,E35,F35,G35,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_00307#0003</v>
-      </c>
-      <c r="J35" s="218">
+        <v>obj_00302#0002</v>
+      </c>
+      <c r="J35" s="218" t="e">
         <f>_xll.qlIndexFixing(I35,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I35)</f>
-        <v>2.767099783382404E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K35" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D35&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L28Y_Quote#0003</v>
+        <v>USD3L28Y_Quote#0001</v>
       </c>
       <c r="L35" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K35,J35,J35)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M35" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K35,,$D35,Calendar,"Annual",$F35,$G35,$M$3,$H35,C35,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002ec#0003</v>
+        <v>obj_002ea#0002</v>
       </c>
       <c r="N35" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M35)</f>
@@ -18041,23 +18045,23 @@
       </c>
       <c r="I36" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D36,2,Currency,Calendar,E36,F36,G36,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_002eb#0003</v>
-      </c>
-      <c r="J36" s="218">
+        <v>obj_002df#0002</v>
+      </c>
+      <c r="J36" s="218" t="e">
         <f>_xll.qlIndexFixing(I36,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I36)</f>
-        <v>2.7729204689054297E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K36" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D36&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L29Y_Quote#0003</v>
+        <v>USD3L29Y_Quote#0001</v>
       </c>
       <c r="L36" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K36,J36,J36)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M36" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K36,,$D36,Calendar,"Annual",$F36,$G36,$M$3,$H36,C36,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002e5#0003</v>
+        <v>obj_002e9#0002</v>
       </c>
       <c r="N36" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M36)</f>
@@ -18091,23 +18095,23 @@
       </c>
       <c r="I37" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D37,2,Currency,Calendar,E37,F37,G37,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_002f1#0003</v>
-      </c>
-      <c r="J37" s="218">
+        <v>obj_0032a#0002</v>
+      </c>
+      <c r="J37" s="218" t="e">
         <f>_xll.qlIndexFixing(I37,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I37)</f>
-        <v>2.7780000000003004E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K37" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D37&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L30Y_Quote#0003</v>
+        <v>USD3L30Y_Quote#0001</v>
       </c>
       <c r="L37" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K37,J37,J37)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M37" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K37,,$D37,Calendar,"Annual",$F37,$G37,$M$3,$H37,C37,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00312#0003</v>
+        <v>obj_00326#0002</v>
       </c>
       <c r="N37" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M37)</f>
@@ -18141,23 +18145,23 @@
       </c>
       <c r="I38" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D38,2,Currency,Calendar,E38,F38,G38,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_002f3#0003</v>
-      </c>
-      <c r="J38" s="218">
+        <v>obj_002e0#0002</v>
+      </c>
+      <c r="J38" s="218" t="e">
         <f>_xll.qlIndexFixing(I38,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I38)</f>
-        <v>2.7937649068573687E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K38" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D38&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L35Y_Quote#0003</v>
+        <v>USD3L35Y_Quote#0001</v>
       </c>
       <c r="L38" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K38,J38,J38)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M38" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K38,,$D38,Calendar,"Annual",$F38,$G38,$M$3,$H38,C38,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002de#0003</v>
+        <v>obj_002dd#0002</v>
       </c>
       <c r="N38" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M38)</f>
@@ -18191,23 +18195,23 @@
       </c>
       <c r="I39" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D39,2,Currency,Calendar,E39,F39,G39,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_002f9#0003</v>
-      </c>
-      <c r="J39" s="218">
+        <v>obj_00329#0002</v>
+      </c>
+      <c r="J39" s="218" t="e">
         <f>_xll.qlIndexFixing(I39,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I39)</f>
-        <v>2.7959999999996675E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K39" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D39&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L40Y_Quote#0003</v>
+        <v>USD3L40Y_Quote#0001</v>
       </c>
       <c r="L39" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K39,J39,J39)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M39" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K39,,$D39,Calendar,"Annual",$F39,$G39,$M$3,$H39,C39,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002ff#0003</v>
+        <v>obj_00307#0002</v>
       </c>
       <c r="N39" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M39)</f>
@@ -18241,23 +18245,23 @@
       </c>
       <c r="I40" s="218" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D40,2,Currency,Calendar,E40,F40,G40,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_002f4#0003</v>
-      </c>
-      <c r="J40" s="218">
+        <v>obj_002eb#0002</v>
+      </c>
+      <c r="J40" s="218" t="e">
         <f>_xll.qlIndexFixing(I40,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I40)</f>
-        <v>2.7779999999999996E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K40" s="219" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D40&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L50Y_Quote#0003</v>
+        <v>USD3L50Y_Quote#0001</v>
       </c>
       <c r="L40" s="219" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K40,J40,J40)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M40" s="227" t="str">
         <f>_xll.qlSwapRateHelper2(,K40,,$D40,Calendar,"Annual",$F40,$G40,$M$3,$H40,C40,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_002dd#0003</v>
+        <v>obj_00323#0002</v>
       </c>
       <c r="N40" s="221" t="str">
         <f>_xll.ohRangeRetrieveError(M40)</f>
@@ -18291,23 +18295,23 @@
       </c>
       <c r="I41" s="223" t="str">
         <f>_xll.qlSwapIndex(,"NOFIX",D41,2,Currency,Calendar,E41,F41,G41,$M$3,DiscountingCurve,,Trigger)</f>
-        <v>obj_002e1#0003</v>
-      </c>
-      <c r="J41" s="223">
+        <v>obj_00312#0002</v>
+      </c>
+      <c r="J41" s="223" t="e">
         <f>_xll.qlIndexFixing(I41,_xll.qlSettingsEvaluationDate(Trigger),TRUE,I41)</f>
-        <v>2.761471495910868E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="K41" s="144" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;"3L"&amp;D41&amp;QuoteSuffix,,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>USD3L60Y_Quote#0003</v>
+        <v>USD3L60Y_Quote#0001</v>
       </c>
       <c r="L41" s="144" t="e">
         <f>_xll.qlSimpleQuoteSetValue(K41,J41,J41)</f>
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="M41" s="228" t="str">
         <f>_xll.qlSwapRateHelper2(,K41,,$D41,Calendar,"Annual",$F41,$G41,$M$3,$H41,C41,,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>obj_00301#0003</v>
+        <v>obj_0031f#0002</v>
       </c>
       <c r="N41" s="225" t="str">
         <f>_xll.ohRangeRetrieveError(M41)</f>
